--- a/Session/Annual.xlsx
+++ b/Session/Annual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D310BF8-DFC3-45FA-AA65-AEFCB340F8EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FC410A-74B3-48DE-84F7-E9519193C46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8CA18F37-2DAB-41C4-ADD2-73D1823D0F11}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{8CA18F37-2DAB-41C4-ADD2-73D1823D0F11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -142,36 +142,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="0.0000%"/>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -193,6 +174,25 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.0000%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
       <numFmt numFmtId="165" formatCode="0.0000%"/>
     </dxf>
@@ -257,15 +257,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{57521616-CB98-4BEC-9F58-D6DEF04AE216}" name="Table1" displayName="Table1" ref="C4:F14" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="C4:F14" xr:uid="{57521616-CB98-4BEC-9F58-D6DEF04AE216}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{57521616-CB98-4BEC-9F58-D6DEF04AE216}" name="Table1" displayName="Table1" ref="C4:F15" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="C4:F15" xr:uid="{57521616-CB98-4BEC-9F58-D6DEF04AE216}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{554B2504-3B79-4730-9657-56227D47CFE6}" name="Date" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{F97EAA47-7EFA-41D0-A7E6-93ABABA7B305}" name="Daily Return" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{45071FF6-BDB6-46BA-B625-06F4C64FAAD4}" name="Cumulative Return" dataDxfId="2">
+    <tableColumn id="2" xr3:uid="{F97EAA47-7EFA-41D0-A7E6-93ABABA7B305}" name="Daily Return" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{45071FF6-BDB6-46BA-B625-06F4C64FAAD4}" name="Cumulative Return" dataDxfId="1">
       <calculatedColumnFormula>(1+E4) * (1+D5)-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DA136AB5-488A-4F90-881C-21D760C9BA85}" name="Day" dataDxfId="1">
+    <tableColumn id="3" xr3:uid="{DA136AB5-488A-4F90-881C-21D760C9BA85}" name="Day" dataDxfId="0">
       <calculatedColumnFormula>F4+1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -570,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B44989F-3FC9-4C07-81FD-8E789474E901}">
-  <dimension ref="C2:G19"/>
+  <dimension ref="C2:G20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -586,13 +586,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C3"/>
@@ -601,7 +601,7 @@
       <c r="C4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -655,7 +655,7 @@
         <v>6.583452780954735E-3</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" ref="F7:F14" si="1">F6+1</f>
+        <f t="shared" ref="F7:F15" si="1">F6+1</f>
         <v>3</v>
       </c>
     </row>
@@ -763,7 +763,7 @@
         <v>3.369E-3</v>
       </c>
       <c r="E14" s="5">
-        <f t="shared" ref="E14" si="2">(1+E13) * (1+D14)-1</f>
+        <f t="shared" ref="E14:E15" si="2">(1+E13) * (1+D14)-1</f>
         <v>3.284122880614504E-2</v>
       </c>
       <c r="F14" s="3">
@@ -772,27 +772,45 @@
       </c>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="D15" s="3"/>
+      <c r="C15" s="4">
+        <v>45304</v>
+      </c>
+      <c r="D15" s="5">
+        <v>8.0800000000000002E-4</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="2"/>
+        <v>3.3675764519020213E-2</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="3:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="C18" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G18" s="7"/>
     </row>
     <row r="19" spans="3:7" ht="18" x14ac:dyDescent="0.25">
       <c r="C19" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="3:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="C20" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Session/Annual.xlsx
+++ b/Session/Annual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FC410A-74B3-48DE-84F7-E9519193C46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FEE3FFB-8CEA-4354-BD58-7CC2D5757960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{8CA18F37-2DAB-41C4-ADD2-73D1823D0F11}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8CA18F37-2DAB-41C4-ADD2-73D1823D0F11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -257,8 +257,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{57521616-CB98-4BEC-9F58-D6DEF04AE216}" name="Table1" displayName="Table1" ref="C4:F15" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="C4:F15" xr:uid="{57521616-CB98-4BEC-9F58-D6DEF04AE216}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{57521616-CB98-4BEC-9F58-D6DEF04AE216}" name="Table1" displayName="Table1" ref="C4:F16" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="C4:F16" xr:uid="{57521616-CB98-4BEC-9F58-D6DEF04AE216}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{554B2504-3B79-4730-9657-56227D47CFE6}" name="Date" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{F97EAA47-7EFA-41D0-A7E6-93ABABA7B305}" name="Daily Return" dataDxfId="2"/>
@@ -570,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B44989F-3FC9-4C07-81FD-8E789474E901}">
-  <dimension ref="C2:G20"/>
+  <dimension ref="C2:G21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -655,7 +655,7 @@
         <v>6.583452780954735E-3</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" ref="F7:F15" si="1">F6+1</f>
+        <f t="shared" ref="F7:F16" si="1">F6+1</f>
         <v>3</v>
       </c>
     </row>
@@ -757,7 +757,7 @@
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C14" s="4">
-        <v>45304</v>
+        <v>45307</v>
       </c>
       <c r="D14" s="5">
         <v>3.369E-3</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C15" s="4">
-        <v>45304</v>
+        <v>45308</v>
       </c>
       <c r="D15" s="5">
         <v>8.0800000000000002E-4</v>
@@ -788,29 +788,43 @@
       </c>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="D16" s="3"/>
+      <c r="C16" s="4">
+        <v>45309</v>
+      </c>
+      <c r="D16" s="5">
+        <v>3.6849999999999999E-3</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" ref="E16" si="3">(1+E15) * (1+D16)-1</f>
+        <v>3.7484859711272689E-2</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D17" s="3"/>
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="3:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="C19" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-    </row>
     <row r="20" spans="3:7" ht="18" x14ac:dyDescent="0.25">
       <c r="C20" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="3:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="C21" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Session/Annual.xlsx
+++ b/Session/Annual.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\source\repos\DDRINQ\Session\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdang\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FEE3FFB-8CEA-4354-BD58-7CC2D5757960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C154F0-6C18-4B45-8D4A-CDF644B9FF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8CA18F37-2DAB-41C4-ADD2-73D1823D0F11}"/>
+    <workbookView xWindow="2240" yWindow="1510" windowWidth="21330" windowHeight="13770" activeTab="2" xr2:uid="{8CA18F37-2DAB-41C4-ADD2-73D1823D0F11}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="250K" sheetId="1" r:id="rId1"/>
+    <sheet name="1M" sheetId="2" r:id="rId2"/>
+    <sheet name="Combined" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -59,6 +58,24 @@
   <si>
     <t>Day</t>
   </si>
+  <si>
+    <t>250K
+Cumulative
+Return</t>
+  </si>
+  <si>
+    <t>250K
+Return</t>
+  </si>
+  <si>
+    <t>1M
+Return</t>
+  </si>
+  <si>
+    <t>1M
+Cumulative
+Return</t>
+  </si>
 </sst>
 </file>
 
@@ -68,7 +85,7 @@
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="165" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,16 +121,42 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -121,11 +164,122 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -148,11 +302,101 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.0000%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.0000%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.0000%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -232,40 +476,3011 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Summary"/>
-      <sheetName val="Data"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="4">
-          <cell r="B4">
-            <v>45293</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'250K'!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cumulative Return</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'250K'!$C$5:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45293</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45294</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45295</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45296</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45301</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45302</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45303</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45307</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45308</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45309</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45310</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'250K'!$E$5:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000%</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2.5730000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7978426219998944E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1612349905418373E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.718835717809708E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1269316867095434E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4712015734254411E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0362277789013126E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2412698721813182E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.9552864946173161E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.4678900123222842E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.8434520769165879E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.3125216815087306E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.6794305070471118E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.1892280798131027E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-89AD-4B44-BD3E-C101FE9E2216}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="968306095"/>
+        <c:axId val="1198127167"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="968306095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1198127167"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1198127167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="968306095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'1M'!$E$5:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000%</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2.8770000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2397782119999459E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3884027766808487E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6821538974728156E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2687582433073228E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5718828427404805E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0676127525194552E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3414633996028842E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.7040885946720836E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.2141053023806885E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.3898102839205144E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.7739647857653278E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.4496520846687213E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.7324680515598025E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4A05-4379-9AEA-F6F0E85B95A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="968306095"/>
+        <c:axId val="1198127167"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="968306095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1198127167"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1198127167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="968306095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Combined!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>250K
+Cumulative
+Return</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Combined!$C$5:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45293</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45294</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45295</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45296</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45301</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45302</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45303</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45307</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45308</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45309</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45310</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Combined!$E$5:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000%</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2.5730000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7978426219998944E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1612349905418373E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.718835717809708E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1269316867095434E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4712015734254411E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0362277789013126E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2412698721813182E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.9552864946173161E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.4678900123222842E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.8434520769165879E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.3125216815087306E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.6794305070471118E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.1892280798131027E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4E64-45C0-8CD1-F49153ECBBFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Combined!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1M
+Cumulative
+Return</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Combined!$C$5:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45293</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45294</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45295</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45296</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45301</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45302</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45303</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45307</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45308</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45309</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45310</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Combined!$G$5:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000%</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2.8770000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2397782119999459E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3884027766808487E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6821538974728156E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2687582433073228E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5718828427404805E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0676127525194552E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3414633996028842E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.7040885946720836E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.2141053023806885E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.3898102839205144E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.7739647857653278E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.4496520846687213E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.7324680515598025E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4E64-45C0-8CD1-F49153ECBBFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="438228288"/>
+        <c:axId val="435102048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="438228288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="435102048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="435102048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="438228288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>519042</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>287683</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>237434</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>187187</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CA20A98-6A9C-2FE8-0339-FDD6B902D2DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>519042</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>287683</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>237434</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>187187</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66E4D1B5-7ED5-42D6-A40C-85C1676A9E6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9640BFC5-F4E5-FFC2-8AAA-2F3DC2BD194F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{57521616-CB98-4BEC-9F58-D6DEF04AE216}" name="Table1" displayName="Table1" ref="C4:F16" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="C4:F16" xr:uid="{57521616-CB98-4BEC-9F58-D6DEF04AE216}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{57521616-CB98-4BEC-9F58-D6DEF04AE216}" name="Table1" displayName="Table1" ref="C4:F18" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="C4:F18" xr:uid="{57521616-CB98-4BEC-9F58-D6DEF04AE216}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{554B2504-3B79-4730-9657-56227D47CFE6}" name="Date" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{F97EAA47-7EFA-41D0-A7E6-93ABABA7B305}" name="Daily Return" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{45071FF6-BDB6-46BA-B625-06F4C64FAAD4}" name="Cumulative Return" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{554B2504-3B79-4730-9657-56227D47CFE6}" name="Date" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{F97EAA47-7EFA-41D0-A7E6-93ABABA7B305}" name="Daily Return" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{45071FF6-BDB6-46BA-B625-06F4C64FAAD4}" name="Cumulative Return" dataDxfId="6">
       <calculatedColumnFormula>(1+E4) * (1+D5)-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DA136AB5-488A-4F90-881C-21D760C9BA85}" name="Day" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{DA136AB5-488A-4F90-881C-21D760C9BA85}" name="Day" dataDxfId="5">
+      <calculatedColumnFormula>F4+1</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}" name="Table13" displayName="Table13" ref="C4:F18" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="C4:F18" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{F8E318FB-3A88-409A-BC49-859E7AEA63D2}" name="Date" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{86FD5971-5C1C-45C8-8277-4D0CBFF21F1F}" name="Daily Return" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{EE23E60A-51B3-4E85-85A4-EC283E29F206}" name="Cumulative Return" dataDxfId="1">
+      <calculatedColumnFormula>(1+E4) * (1+D5)-1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{21D8FEFD-526E-4F47-BF35-EE4695F5CE67}" name="Day" dataDxfId="0">
       <calculatedColumnFormula>F4+1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -570,22 +3785,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B44989F-3FC9-4C07-81FD-8E789474E901}">
-  <dimension ref="C2:G21"/>
+  <dimension ref="C2:H23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.90625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" customWidth="1"/>
+    <col min="6" max="6" width="7.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
@@ -594,10 +3809,10 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C3"/>
     </row>
-    <row r="4" spans="3:7" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:7" ht="37" x14ac:dyDescent="0.45">
       <c r="C4" s="6" t="s">
         <v>0</v>
       </c>
@@ -611,229 +3826,978 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C5" s="4">
-        <f>[1]Summary!$B$4</f>
-        <v>45293</v>
+        <v>45289</v>
       </c>
       <c r="D5" s="5">
-        <v>5.3899999999999998E-4</v>
+        <v>2.5730000000000002E-3</v>
       </c>
       <c r="E5" s="5">
         <f>D5</f>
-        <v>5.3899999999999998E-4</v>
+        <v>2.5730000000000002E-3</v>
       </c>
       <c r="F5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C6" s="4">
+        <v>45293</v>
+      </c>
+      <c r="D6" s="5">
+        <v>4.2139999999999999E-3</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" ref="E6:E7" si="0">(1+E5) * (1+D6)-1</f>
+        <v>6.7978426219998944E-3</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" ref="F6:F7" si="1">F5+1</f>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C6" s="4">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C7" s="4">
         <v>45294</v>
       </c>
-      <c r="D6" s="5">
-        <v>4.7229999999999998E-3</v>
-      </c>
-      <c r="E6" s="5">
-        <f t="shared" ref="E6:E13" si="0">(1+E5) * (1+D6)-1</f>
-        <v>5.2645456970001892E-3</v>
-      </c>
-      <c r="F6" s="3">
-        <f>F5+1</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C7" s="4">
-        <v>45295</v>
-      </c>
       <c r="D7" s="5">
-        <v>1.312E-3</v>
+        <v>4.7819999999999998E-3</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" si="0"/>
-        <v>6.583452780954735E-3</v>
+        <v>1.1612349905418373E-2</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" ref="F7:F16" si="1">F6+1</f>
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C8" s="4">
+        <v>45295</v>
+      </c>
+      <c r="D8" s="5">
+        <v>5.5120000000000004E-3</v>
+      </c>
+      <c r="E8" s="5">
+        <f>(1+E7) * (1+D8)-1</f>
+        <v>1.718835717809708E-2</v>
+      </c>
+      <c r="F8" s="3">
+        <f>F7+1</f>
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C8" s="4">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C9" s="4">
         <v>45296</v>
       </c>
-      <c r="D8" s="5">
-        <v>2.676E-3</v>
-      </c>
-      <c r="E8" s="5">
-        <f t="shared" si="0"/>
-        <v>9.2770701005964185E-3</v>
-      </c>
-      <c r="F8" s="3">
-        <f t="shared" si="1"/>
+      <c r="D9" s="5">
+        <v>4.0119999999999999E-3</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" ref="E9:E14" si="2">(1+E8) * (1+D9)-1</f>
+        <v>2.1269316867095434E-2</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" ref="F9:F16" si="3">F8+1</f>
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C9" s="4">
+    <row r="10" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C10" s="4">
         <v>45299</v>
       </c>
-      <c r="D9" s="5">
-        <v>2.1900000000000001E-3</v>
-      </c>
-      <c r="E9" s="5">
-        <f t="shared" si="0"/>
-        <v>1.1487386884116546E-2</v>
-      </c>
-      <c r="F9" s="3">
-        <f t="shared" si="1"/>
+      <c r="D10" s="5">
+        <v>3.3709999999999999E-3</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="2"/>
+        <v>2.4712015734254411E-2</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C10" s="4">
+    <row r="11" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C11" s="4">
         <v>45300</v>
       </c>
-      <c r="D10" s="5">
-        <v>4.0229999999999997E-3</v>
-      </c>
-      <c r="E10" s="5">
-        <f t="shared" si="0"/>
-        <v>1.555660064155151E-2</v>
-      </c>
-      <c r="F10" s="3">
-        <f t="shared" si="1"/>
+      <c r="D11" s="5">
+        <v>5.5139999999999998E-3</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="2"/>
+        <v>3.0362277789013126E-2</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C11" s="4">
+    <row r="12" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C12" s="4">
         <v>45301</v>
       </c>
-      <c r="D11" s="5">
-        <v>5.8170000000000001E-3</v>
-      </c>
-      <c r="E11" s="5">
-        <f t="shared" si="0"/>
-        <v>2.1464093387483452E-2</v>
-      </c>
-      <c r="F11" s="3">
-        <f t="shared" si="1"/>
+      <c r="D12" s="5">
+        <v>1.99E-3</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="2"/>
+        <v>3.2412698721813182E-2</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C12" s="4">
+    <row r="13" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C13" s="4">
         <v>45302</v>
       </c>
-      <c r="D12" s="5">
-        <v>4.8409999999999998E-3</v>
-      </c>
-      <c r="E12" s="5">
-        <f t="shared" si="0"/>
-        <v>2.6409001063572246E-2</v>
-      </c>
-      <c r="F12" s="3">
-        <f t="shared" si="1"/>
+      <c r="D13" s="5">
+        <v>6.9160000000000003E-3</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="2"/>
+        <v>3.9552864946173161E-2</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C13" s="4">
+    <row r="14" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C14" s="4">
         <v>45303</v>
       </c>
-      <c r="D13" s="5">
-        <v>2.8879999999999999E-3</v>
-      </c>
-      <c r="E13" s="5">
-        <f t="shared" si="0"/>
-        <v>2.937327025864378E-2</v>
-      </c>
-      <c r="F13" s="3">
-        <f t="shared" si="1"/>
+      <c r="D14" s="5">
+        <v>4.9309999999999996E-3</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="2"/>
+        <v>4.4678900123222842E-2</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C14" s="4">
+    <row r="15" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C15" s="4">
         <v>45307</v>
       </c>
-      <c r="D14" s="5">
-        <v>3.369E-3</v>
-      </c>
-      <c r="E14" s="5">
-        <f t="shared" ref="E14:E15" si="2">(1+E13) * (1+D14)-1</f>
-        <v>3.284122880614504E-2</v>
-      </c>
-      <c r="F14" s="3">
-        <f t="shared" si="1"/>
+      <c r="D15" s="5">
+        <v>3.5950000000000001E-3</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" ref="E15:E16" si="4">(1+E14) * (1+D15)-1</f>
+        <v>4.8434520769165879E-2</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C15" s="4">
+    <row r="16" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C16" s="4">
         <v>45308</v>
       </c>
-      <c r="D15" s="5">
-        <v>8.0800000000000002E-4</v>
-      </c>
-      <c r="E15" s="5">
-        <f t="shared" si="2"/>
-        <v>3.3675764519020213E-2</v>
-      </c>
-      <c r="F15" s="3">
-        <f t="shared" si="1"/>
+      <c r="D16" s="5">
+        <v>4.4739999999999997E-3</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="4"/>
+        <v>5.3125216815087306E-2</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C16" s="4">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C17" s="4">
         <v>45309</v>
       </c>
-      <c r="D16" s="5">
-        <v>3.6849999999999999E-3</v>
-      </c>
-      <c r="E16" s="5">
-        <f t="shared" ref="E16" si="3">(1+E15) * (1+D16)-1</f>
-        <v>3.7484859711272689E-2</v>
-      </c>
-      <c r="F16" s="3">
-        <f t="shared" si="1"/>
+      <c r="D17" s="5">
+        <v>3.4840000000000001E-3</v>
+      </c>
+      <c r="E17" s="5">
+        <f>(1+E16) * (1+D17)-1</f>
+        <v>5.6794305070471118E-2</v>
+      </c>
+      <c r="F17" s="3">
+        <f>F16+1</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="D17" s="3"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C18" s="4">
+        <v>45310</v>
+      </c>
+      <c r="D18" s="5">
+        <v>4.8240000000000002E-3</v>
+      </c>
+      <c r="E18" s="5">
+        <f>(1+E17) * (1+D18)-1</f>
+        <v>6.1892280798131027E-2</v>
+      </c>
+      <c r="F18" s="3">
+        <f>F17+1</f>
+        <v>13</v>
+      </c>
       <c r="G18" s="7"/>
     </row>
-    <row r="20" spans="3:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="C20" s="7" t="s">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="D19" s="3"/>
+    </row>
+    <row r="22" spans="3:8" ht="18" x14ac:dyDescent="0.4">
+      <c r="C22" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="3:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="C21" s="7" t="s">
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="3:8" ht="18" x14ac:dyDescent="0.4">
+      <c r="C23" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:H23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF9745B-B45F-435E-ACD3-428BC7435D9E}">
+  <dimension ref="C2:H23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C3"/>
+    </row>
+    <row r="4" spans="3:7" ht="37" x14ac:dyDescent="0.45">
+      <c r="C4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C5" s="4">
+        <v>45289</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2.8770000000000002E-3</v>
+      </c>
+      <c r="E5" s="5">
+        <f>D5</f>
+        <v>2.8770000000000002E-3</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C6" s="4">
+        <v>45293</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2.356E-3</v>
+      </c>
+      <c r="E6" s="5">
+        <f>(1+E5) * (1+D6)-1</f>
+        <v>5.2397782119999459E-3</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" ref="F6:F7" si="0">F5+1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C7" s="4">
+        <v>45294</v>
+      </c>
+      <c r="D7" s="5">
+        <v>4.1269999999999996E-3</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" ref="E7:E18" si="1">(1+E6) * (1+D7)-1</f>
+        <v>9.3884027766808487E-3</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C8" s="4">
+        <v>45295</v>
+      </c>
+      <c r="D8" s="5">
+        <v>7.3639999999999999E-3</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="1"/>
+        <v>1.6821538974728156E-2</v>
+      </c>
+      <c r="F8" s="3">
+        <f>F7+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C9" s="4">
+        <v>45296</v>
+      </c>
+      <c r="D9" s="5">
+        <v>5.7689999999999998E-3</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="1"/>
+        <v>2.2687582433073228E-2</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" ref="F9:F16" si="2">F8+1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C10" s="4">
+        <v>45299</v>
+      </c>
+      <c r="D10" s="5">
+        <v>2.9640000000000001E-3</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="1"/>
+        <v>2.5718828427404805E-2</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C11" s="4">
+        <v>45300</v>
+      </c>
+      <c r="D11" s="5">
+        <v>4.8329999999999996E-3</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="1"/>
+        <v>3.0676127525194552E-2</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C12" s="4">
+        <v>45301</v>
+      </c>
+      <c r="D12" s="5">
+        <v>2.6570000000000001E-3</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="1"/>
+        <v>3.3414633996028842E-2</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C13" s="4">
+        <v>45302</v>
+      </c>
+      <c r="D13" s="5">
+        <v>3.509E-3</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="1"/>
+        <v>3.7040885946720836E-2</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C14" s="4">
+        <v>45303</v>
+      </c>
+      <c r="D14" s="5">
+        <v>4.9179999999999996E-3</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="1"/>
+        <v>4.2141053023806885E-2</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C15" s="4">
+        <v>45307</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1.686E-3</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="1"/>
+        <v>4.3898102839205144E-2</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C16" s="4">
+        <v>45308</v>
+      </c>
+      <c r="D16" s="5">
+        <v>3.6800000000000001E-3</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="1"/>
+        <v>4.7739647857653278E-2</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C17" s="4">
+        <v>45309</v>
+      </c>
+      <c r="D17" s="5">
+        <v>6.4489999999999999E-3</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="1"/>
+        <v>5.4496520846687213E-2</v>
+      </c>
+      <c r="F17" s="3">
+        <f>F16+1</f>
+        <v>12</v>
+      </c>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C18" s="4">
+        <v>45310</v>
+      </c>
+      <c r="D18" s="5">
+        <v>2.6819999999999999E-3</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="1"/>
+        <v>5.7324680515598025E-2</v>
+      </c>
+      <c r="F18" s="3">
+        <f>F17+1</f>
+        <v>13</v>
+      </c>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="D19" s="3"/>
+    </row>
+    <row r="22" spans="3:8" ht="18" x14ac:dyDescent="0.4">
+      <c r="C22" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="3:8" ht="18" x14ac:dyDescent="0.4">
+      <c r="C23" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:H23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E3FDEE-F155-46D3-95EB-77BB3DD32FB7}">
+  <dimension ref="C2:J23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" customWidth="1"/>
+    <col min="8" max="8" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="9" t="str">
+        <f>'250K'!C2</f>
+        <v>https://ddrinq.github.io/ddrinq/Ticker.html</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C3"/>
+    </row>
+    <row r="4" spans="3:9" ht="56" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" ht="19" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="C5" s="13">
+        <v>45289</v>
+      </c>
+      <c r="D5" s="14">
+        <v>2.5730000000000002E-3</v>
+      </c>
+      <c r="E5" s="14">
+        <f>D5</f>
+        <v>2.5730000000000002E-3</v>
+      </c>
+      <c r="F5" s="14">
+        <v>2.8770000000000002E-3</v>
+      </c>
+      <c r="G5" s="14">
+        <f>F5</f>
+        <v>2.8770000000000002E-3</v>
+      </c>
+      <c r="H5" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C6" s="16">
+        <v>45293</v>
+      </c>
+      <c r="D6" s="17">
+        <v>4.2139999999999999E-3</v>
+      </c>
+      <c r="E6" s="17">
+        <f>(1+E5) * (1+D6)-1</f>
+        <v>6.7978426219998944E-3</v>
+      </c>
+      <c r="F6" s="17">
+        <v>2.356E-3</v>
+      </c>
+      <c r="G6" s="17">
+        <f>(1+G5) * (1+F6)-1</f>
+        <v>5.2397782119999459E-3</v>
+      </c>
+      <c r="H6" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C7" s="13">
+        <v>45294</v>
+      </c>
+      <c r="D7" s="14">
+        <v>4.7819999999999998E-3</v>
+      </c>
+      <c r="E7" s="14">
+        <f t="shared" ref="E7:E18" si="0">(1+E6) * (1+D7)-1</f>
+        <v>1.1612349905418373E-2</v>
+      </c>
+      <c r="F7" s="14">
+        <v>4.1269999999999996E-3</v>
+      </c>
+      <c r="G7" s="14">
+        <f t="shared" ref="G7:G18" si="1">(1+G6) * (1+F7)-1</f>
+        <v>9.3884027766808487E-3</v>
+      </c>
+      <c r="H7" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C8" s="16">
+        <v>45295</v>
+      </c>
+      <c r="D8" s="17">
+        <v>5.5120000000000004E-3</v>
+      </c>
+      <c r="E8" s="17">
+        <f t="shared" si="0"/>
+        <v>1.718835717809708E-2</v>
+      </c>
+      <c r="F8" s="17">
+        <v>7.3639999999999999E-3</v>
+      </c>
+      <c r="G8" s="17">
+        <f t="shared" si="1"/>
+        <v>1.6821538974728156E-2</v>
+      </c>
+      <c r="H8" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C9" s="13">
+        <v>45296</v>
+      </c>
+      <c r="D9" s="14">
+        <v>4.0119999999999999E-3</v>
+      </c>
+      <c r="E9" s="14">
+        <f t="shared" si="0"/>
+        <v>2.1269316867095434E-2</v>
+      </c>
+      <c r="F9" s="14">
+        <v>5.7689999999999998E-3</v>
+      </c>
+      <c r="G9" s="14">
+        <f t="shared" si="1"/>
+        <v>2.2687582433073228E-2</v>
+      </c>
+      <c r="H9" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C10" s="16">
+        <v>45299</v>
+      </c>
+      <c r="D10" s="17">
+        <v>3.3709999999999999E-3</v>
+      </c>
+      <c r="E10" s="17">
+        <f t="shared" si="0"/>
+        <v>2.4712015734254411E-2</v>
+      </c>
+      <c r="F10" s="17">
+        <v>2.9640000000000001E-3</v>
+      </c>
+      <c r="G10" s="17">
+        <f t="shared" si="1"/>
+        <v>2.5718828427404805E-2</v>
+      </c>
+      <c r="H10" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C11" s="13">
+        <v>45300</v>
+      </c>
+      <c r="D11" s="14">
+        <v>5.5139999999999998E-3</v>
+      </c>
+      <c r="E11" s="14">
+        <f t="shared" si="0"/>
+        <v>3.0362277789013126E-2</v>
+      </c>
+      <c r="F11" s="14">
+        <v>4.8329999999999996E-3</v>
+      </c>
+      <c r="G11" s="14">
+        <f t="shared" si="1"/>
+        <v>3.0676127525194552E-2</v>
+      </c>
+      <c r="H11" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C12" s="16">
+        <v>45301</v>
+      </c>
+      <c r="D12" s="17">
+        <v>1.99E-3</v>
+      </c>
+      <c r="E12" s="17">
+        <f t="shared" si="0"/>
+        <v>3.2412698721813182E-2</v>
+      </c>
+      <c r="F12" s="17">
+        <v>2.6570000000000001E-3</v>
+      </c>
+      <c r="G12" s="17">
+        <f t="shared" si="1"/>
+        <v>3.3414633996028842E-2</v>
+      </c>
+      <c r="H12" s="18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C13" s="13">
+        <v>45302</v>
+      </c>
+      <c r="D13" s="14">
+        <v>6.9160000000000003E-3</v>
+      </c>
+      <c r="E13" s="14">
+        <f t="shared" si="0"/>
+        <v>3.9552864946173161E-2</v>
+      </c>
+      <c r="F13" s="14">
+        <v>3.509E-3</v>
+      </c>
+      <c r="G13" s="14">
+        <f t="shared" si="1"/>
+        <v>3.7040885946720836E-2</v>
+      </c>
+      <c r="H13" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C14" s="16">
+        <v>45303</v>
+      </c>
+      <c r="D14" s="17">
+        <v>4.9309999999999996E-3</v>
+      </c>
+      <c r="E14" s="17">
+        <f t="shared" si="0"/>
+        <v>4.4678900123222842E-2</v>
+      </c>
+      <c r="F14" s="17">
+        <v>4.9179999999999996E-3</v>
+      </c>
+      <c r="G14" s="17">
+        <f t="shared" si="1"/>
+        <v>4.2141053023806885E-2</v>
+      </c>
+      <c r="H14" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C15" s="13">
+        <v>45307</v>
+      </c>
+      <c r="D15" s="14">
+        <v>3.5950000000000001E-3</v>
+      </c>
+      <c r="E15" s="14">
+        <f t="shared" si="0"/>
+        <v>4.8434520769165879E-2</v>
+      </c>
+      <c r="F15" s="14">
+        <v>1.686E-3</v>
+      </c>
+      <c r="G15" s="14">
+        <f t="shared" si="1"/>
+        <v>4.3898102839205144E-2</v>
+      </c>
+      <c r="H15" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C16" s="16">
+        <v>45308</v>
+      </c>
+      <c r="D16" s="17">
+        <v>4.4739999999999997E-3</v>
+      </c>
+      <c r="E16" s="17">
+        <f t="shared" si="0"/>
+        <v>5.3125216815087306E-2</v>
+      </c>
+      <c r="F16" s="17">
+        <v>3.6800000000000001E-3</v>
+      </c>
+      <c r="G16" s="17">
+        <f t="shared" si="1"/>
+        <v>4.7739647857653278E-2</v>
+      </c>
+      <c r="H16" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.45">
+      <c r="C17" s="13">
+        <v>45309</v>
+      </c>
+      <c r="D17" s="14">
+        <v>3.4840000000000001E-3</v>
+      </c>
+      <c r="E17" s="14">
+        <f t="shared" si="0"/>
+        <v>5.6794305070471118E-2</v>
+      </c>
+      <c r="F17" s="14">
+        <v>6.4489999999999999E-3</v>
+      </c>
+      <c r="G17" s="14">
+        <f t="shared" si="1"/>
+        <v>5.4496520846687213E-2</v>
+      </c>
+      <c r="H17" s="15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.45">
+      <c r="C18" s="19">
+        <v>45310</v>
+      </c>
+      <c r="D18" s="20">
+        <v>4.8240000000000002E-3</v>
+      </c>
+      <c r="E18" s="20">
+        <f t="shared" si="0"/>
+        <v>6.1892280798131027E-2</v>
+      </c>
+      <c r="F18" s="20">
+        <v>2.6819999999999999E-3</v>
+      </c>
+      <c r="G18" s="20">
+        <f t="shared" si="1"/>
+        <v>5.7324680515598025E-2</v>
+      </c>
+      <c r="H18" s="21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C19"/>
+      <c r="D19"/>
+    </row>
+    <row r="20" spans="3:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C20"/>
+      <c r="D20"/>
+    </row>
+    <row r="21" spans="3:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C21"/>
+      <c r="D21"/>
+    </row>
+    <row r="22" spans="3:10" ht="18" x14ac:dyDescent="0.4">
+      <c r="C22" s="9" t="str">
+        <f>'250K'!C22</f>
+        <v>Visit site to see next day trades we will be executing</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" spans="3:10" ht="18" x14ac:dyDescent="0.4">
+      <c r="C23" s="9" t="str">
+        <f>'250K'!C23</f>
+        <v>Analyze 500+ liquid securities.  Most have 1 million+ daily volume</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="C23:I23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Session/Annual.xlsx
+++ b/Session/Annual.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdang\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C154F0-6C18-4B45-8D4A-CDF644B9FF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3891C4C8-A529-4398-939B-36D6CA628217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="1510" windowWidth="21330" windowHeight="13770" activeTab="2" xr2:uid="{8CA18F37-2DAB-41C4-ADD2-73D1823D0F11}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{8CA18F37-2DAB-41C4-ADD2-73D1823D0F11}"/>
   </bookViews>
   <sheets>
-    <sheet name="250K" sheetId="1" r:id="rId1"/>
-    <sheet name="1M" sheetId="2" r:id="rId2"/>
+    <sheet name="1M" sheetId="2" r:id="rId1"/>
+    <sheet name="250K" sheetId="1" r:id="rId2"/>
     <sheet name="Combined" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>Visit site to see next day trades we will be executing</t>
-  </si>
-  <si>
-    <t>Analyze 500+ liquid securities.  Most have 1 million+ daily volume</t>
   </si>
   <si>
     <t>Day</t>
@@ -75,6 +72,12 @@
     <t>1M
 Cumulative
 Return</t>
+  </si>
+  <si>
+    <t>Analyze 1000+ liquid securities.  Most have 1 million+ daily volume</t>
+  </si>
+  <si>
+    <t>Analyze 3000+ liquid securities.  Most have 250,000+ daily volume</t>
   </si>
 </sst>
 </file>
@@ -299,9 +302,6 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -326,6 +326,9 @@
     </xf>
     <xf numFmtId="165" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,36 +493,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -529,17 +502,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'250K'!$E$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Cumulative Return</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -552,104 +514,56 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'250K'!$C$5:$C$18</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>45289</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45293</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45294</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45295</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45296</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45299</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45300</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>45301</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45302</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45303</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>45307</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>45308</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45309</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>45310</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'250K'!$E$5:$E$18</c:f>
+              <c:f>'1M'!$E$5:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>0.0000%</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2.5730000000000002E-3</c:v>
+                  <c:v>2.8770000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.7978426219998944E-3</c:v>
+                  <c:v>5.2397782119999459E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1612349905418373E-2</c:v>
+                  <c:v>9.3884027766808487E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.718835717809708E-2</c:v>
+                  <c:v>1.6821538974728156E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1269316867095434E-2</c:v>
+                  <c:v>2.2687582433073228E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4712015734254411E-2</c:v>
+                  <c:v>2.5718828427404805E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0362277789013126E-2</c:v>
+                  <c:v>3.0676127525194552E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.2412698721813182E-2</c:v>
+                  <c:v>3.3414633996028842E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.9552864946173161E-2</c:v>
+                  <c:v>3.7040885946720836E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.4678900123222842E-2</c:v>
+                  <c:v>4.2141053023806885E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.8434520769165879E-2</c:v>
+                  <c:v>4.3898102839205144E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.3125216815087306E-2</c:v>
+                  <c:v>4.7739647857653278E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.6794305070471118E-2</c:v>
+                  <c:v>5.4496520846687213E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.1892280798131027E-2</c:v>
+                  <c:v>5.7324680515598025E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.8817622964486116E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -657,7 +571,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-89AD-4B44-BD3E-C101FE9E2216}"/>
+              <c16:uniqueId val="{00000000-4A05-4379-9AEA-F6F0E85B95A0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -673,7 +587,7 @@
         <c:axId val="968306095"/>
         <c:axId val="1198127167"/>
       </c:lineChart>
-      <c:dateAx>
+      <c:catAx>
         <c:axId val="968306095"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -720,9 +634,10 @@
         <c:crossAx val="1198127167"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="1198127167"/>
         <c:scaling>
@@ -845,6 +760,36 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -854,6 +799,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'250K'!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cumulative Return</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -866,53 +822,104 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'250K'!$C$5:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45293</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45294</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45295</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45296</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45301</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45302</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45303</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45307</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45308</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45309</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45310</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1M'!$E$5:$E$18</c:f>
+              <c:f>'250K'!$E$5:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>0.0000%</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>2.8770000000000002E-3</c:v>
+                  <c:v>2.5730000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.2397782119999459E-3</c:v>
+                  <c:v>6.7978426219998944E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.3884027766808487E-3</c:v>
+                  <c:v>1.1612349905418373E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6821538974728156E-2</c:v>
+                  <c:v>1.718835717809708E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2687582433073228E-2</c:v>
+                  <c:v>2.1269316867095434E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5718828427404805E-2</c:v>
+                  <c:v>2.4712015734254411E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0676127525194552E-2</c:v>
+                  <c:v>3.0362277789013126E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.3414633996028842E-2</c:v>
+                  <c:v>3.2412698721813182E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.7040885946720836E-2</c:v>
+                  <c:v>3.9552864946173161E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.2141053023806885E-2</c:v>
+                  <c:v>4.4678900123222842E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.3898102839205144E-2</c:v>
+                  <c:v>4.8434520769165879E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.7739647857653278E-2</c:v>
+                  <c:v>5.3125216815087306E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.4496520846687213E-2</c:v>
+                  <c:v>5.6794305070471118E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.7324680515598025E-2</c:v>
+                  <c:v>6.1892280798131027E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -920,7 +927,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4A05-4379-9AEA-F6F0E85B95A0}"/>
+              <c16:uniqueId val="{00000000-89AD-4B44-BD3E-C101FE9E2216}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -936,7 +943,7 @@
         <c:axId val="968306095"/>
         <c:axId val="1198127167"/>
       </c:lineChart>
-      <c:catAx>
+      <c:dateAx>
         <c:axId val="968306095"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -983,10 +990,9 @@
         <c:crossAx val="1198127167"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
         <c:axId val="1198127167"/>
         <c:scaling>
@@ -3346,14 +3352,16 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CA20A98-6A9C-2FE8-0339-FDD6B902D2DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66E4D1B5-7ED5-42D6-A40C-85C1676A9E6A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3387,16 +3395,14 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66E4D1B5-7ED5-42D6-A40C-85C1676A9E6A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CA20A98-6A9C-2FE8-0339-FDD6B902D2DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3455,15 +3461,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{57521616-CB98-4BEC-9F58-D6DEF04AE216}" name="Table1" displayName="Table1" ref="C4:F18" totalsRowShown="0" headerRowDxfId="9">
-  <autoFilter ref="C4:F18" xr:uid="{57521616-CB98-4BEC-9F58-D6DEF04AE216}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}" name="Table13" displayName="Table13" ref="C4:F19" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="C4:F19" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{554B2504-3B79-4730-9657-56227D47CFE6}" name="Date" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{F97EAA47-7EFA-41D0-A7E6-93ABABA7B305}" name="Daily Return" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{45071FF6-BDB6-46BA-B625-06F4C64FAAD4}" name="Cumulative Return" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{F8E318FB-3A88-409A-BC49-859E7AEA63D2}" name="Date" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{86FD5971-5C1C-45C8-8277-4D0CBFF21F1F}" name="Daily Return" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{EE23E60A-51B3-4E85-85A4-EC283E29F206}" name="Cumulative Return" dataDxfId="6">
       <calculatedColumnFormula>(1+E4) * (1+D5)-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DA136AB5-488A-4F90-881C-21D760C9BA85}" name="Day" dataDxfId="5">
+    <tableColumn id="3" xr3:uid="{21D8FEFD-526E-4F47-BF35-EE4695F5CE67}" name="Day" dataDxfId="5">
       <calculatedColumnFormula>F4+1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3472,15 +3478,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}" name="Table13" displayName="Table13" ref="C4:F18" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="C4:F18" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{57521616-CB98-4BEC-9F58-D6DEF04AE216}" name="Table1" displayName="Table1" ref="C4:F18" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="C4:F18" xr:uid="{57521616-CB98-4BEC-9F58-D6DEF04AE216}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F8E318FB-3A88-409A-BC49-859E7AEA63D2}" name="Date" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{86FD5971-5C1C-45C8-8277-4D0CBFF21F1F}" name="Daily Return" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{EE23E60A-51B3-4E85-85A4-EC283E29F206}" name="Cumulative Return" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{554B2504-3B79-4730-9657-56227D47CFE6}" name="Date" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{F97EAA47-7EFA-41D0-A7E6-93ABABA7B305}" name="Daily Return" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{45071FF6-BDB6-46BA-B625-06F4C64FAAD4}" name="Cumulative Return" dataDxfId="1">
       <calculatedColumnFormula>(1+E4) * (1+D5)-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{21D8FEFD-526E-4F47-BF35-EE4695F5CE67}" name="Day" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{DA136AB5-488A-4F90-881C-21D760C9BA85}" name="Day" dataDxfId="0">
       <calculatedColumnFormula>F4+1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3784,11 +3790,331 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF9745B-B45F-435E-ACD3-428BC7435D9E}">
+  <dimension ref="C2:H24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C3"/>
+    </row>
+    <row r="4" spans="3:7" ht="37" x14ac:dyDescent="0.45">
+      <c r="C4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C5" s="4">
+        <v>45289</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2.8770000000000002E-3</v>
+      </c>
+      <c r="E5" s="5">
+        <f>D5</f>
+        <v>2.8770000000000002E-3</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C6" s="4">
+        <v>45293</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2.356E-3</v>
+      </c>
+      <c r="E6" s="5">
+        <f>(1+E5) * (1+D6)-1</f>
+        <v>5.2397782119999459E-3</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" ref="F6:F7" si="0">F5+1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C7" s="4">
+        <v>45294</v>
+      </c>
+      <c r="D7" s="5">
+        <v>4.1269999999999996E-3</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" ref="E7:E18" si="1">(1+E6) * (1+D7)-1</f>
+        <v>9.3884027766808487E-3</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C8" s="4">
+        <v>45295</v>
+      </c>
+      <c r="D8" s="5">
+        <v>7.3639999999999999E-3</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="1"/>
+        <v>1.6821538974728156E-2</v>
+      </c>
+      <c r="F8" s="3">
+        <f>F7+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C9" s="4">
+        <v>45296</v>
+      </c>
+      <c r="D9" s="5">
+        <v>5.7689999999999998E-3</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="1"/>
+        <v>2.2687582433073228E-2</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" ref="F9:F16" si="2">F8+1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C10" s="4">
+        <v>45299</v>
+      </c>
+      <c r="D10" s="5">
+        <v>2.9640000000000001E-3</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="1"/>
+        <v>2.5718828427404805E-2</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C11" s="4">
+        <v>45300</v>
+      </c>
+      <c r="D11" s="5">
+        <v>4.8329999999999996E-3</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="1"/>
+        <v>3.0676127525194552E-2</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C12" s="4">
+        <v>45301</v>
+      </c>
+      <c r="D12" s="5">
+        <v>2.6570000000000001E-3</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="1"/>
+        <v>3.3414633996028842E-2</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C13" s="4">
+        <v>45302</v>
+      </c>
+      <c r="D13" s="5">
+        <v>3.509E-3</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="1"/>
+        <v>3.7040885946720836E-2</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C14" s="4">
+        <v>45303</v>
+      </c>
+      <c r="D14" s="5">
+        <v>4.9179999999999996E-3</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="1"/>
+        <v>4.2141053023806885E-2</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C15" s="4">
+        <v>45307</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1.686E-3</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="1"/>
+        <v>4.3898102839205144E-2</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C16" s="4">
+        <v>45308</v>
+      </c>
+      <c r="D16" s="5">
+        <v>3.6800000000000001E-3</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="1"/>
+        <v>4.7739647857653278E-2</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C17" s="4">
+        <v>45309</v>
+      </c>
+      <c r="D17" s="5">
+        <v>6.4489999999999999E-3</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="1"/>
+        <v>5.4496520846687213E-2</v>
+      </c>
+      <c r="F17" s="3">
+        <f>F16+1</f>
+        <v>12</v>
+      </c>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C18" s="4">
+        <v>45310</v>
+      </c>
+      <c r="D18" s="5">
+        <v>2.6819999999999999E-3</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="1"/>
+        <v>5.7324680515598025E-2</v>
+      </c>
+      <c r="F18" s="3">
+        <f>F17+1</f>
+        <v>13</v>
+      </c>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C19" s="4">
+        <v>45313</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1.4120000000000001E-3</v>
+      </c>
+      <c r="E19" s="5">
+        <f>(1+E18) * (1+D19)-1</f>
+        <v>5.8817622964486116E-2</v>
+      </c>
+      <c r="F19" s="3">
+        <f>F18+1</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="D20" s="3"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="3:8" ht="18" x14ac:dyDescent="0.4">
+      <c r="C23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="3:8" ht="18" x14ac:dyDescent="0.4">
+      <c r="C24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B44989F-3FC9-4C07-81FD-8E789474E901}">
   <dimension ref="C2:H23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
@@ -3801,13 +4127,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C3"/>
@@ -3823,7 +4149,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.45">
@@ -4055,23 +4381,23 @@
       <c r="D19" s="3"/>
     </row>
     <row r="22" spans="3:8" ht="18" x14ac:dyDescent="0.4">
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
     </row>
     <row r="23" spans="3:8" ht="18" x14ac:dyDescent="0.4">
-      <c r="C23" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
+      <c r="C23" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4088,316 +4414,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF9745B-B45F-435E-ACD3-428BC7435D9E}">
-  <dimension ref="C2:H23"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="3" max="3" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="3:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C3"/>
-    </row>
-    <row r="4" spans="3:7" ht="37" x14ac:dyDescent="0.45">
-      <c r="C4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C5" s="4">
-        <v>45289</v>
-      </c>
-      <c r="D5" s="5">
-        <v>2.8770000000000002E-3</v>
-      </c>
-      <c r="E5" s="5">
-        <f>D5</f>
-        <v>2.8770000000000002E-3</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C6" s="4">
-        <v>45293</v>
-      </c>
-      <c r="D6" s="5">
-        <v>2.356E-3</v>
-      </c>
-      <c r="E6" s="5">
-        <f>(1+E5) * (1+D6)-1</f>
-        <v>5.2397782119999459E-3</v>
-      </c>
-      <c r="F6" s="3">
-        <f t="shared" ref="F6:F7" si="0">F5+1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C7" s="4">
-        <v>45294</v>
-      </c>
-      <c r="D7" s="5">
-        <v>4.1269999999999996E-3</v>
-      </c>
-      <c r="E7" s="5">
-        <f t="shared" ref="E7:E18" si="1">(1+E6) * (1+D7)-1</f>
-        <v>9.3884027766808487E-3</v>
-      </c>
-      <c r="F7" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C8" s="4">
-        <v>45295</v>
-      </c>
-      <c r="D8" s="5">
-        <v>7.3639999999999999E-3</v>
-      </c>
-      <c r="E8" s="5">
-        <f t="shared" si="1"/>
-        <v>1.6821538974728156E-2</v>
-      </c>
-      <c r="F8" s="3">
-        <f>F7+1</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C9" s="4">
-        <v>45296</v>
-      </c>
-      <c r="D9" s="5">
-        <v>5.7689999999999998E-3</v>
-      </c>
-      <c r="E9" s="5">
-        <f t="shared" si="1"/>
-        <v>2.2687582433073228E-2</v>
-      </c>
-      <c r="F9" s="3">
-        <f t="shared" ref="F9:F16" si="2">F8+1</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C10" s="4">
-        <v>45299</v>
-      </c>
-      <c r="D10" s="5">
-        <v>2.9640000000000001E-3</v>
-      </c>
-      <c r="E10" s="5">
-        <f t="shared" si="1"/>
-        <v>2.5718828427404805E-2</v>
-      </c>
-      <c r="F10" s="3">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C11" s="4">
-        <v>45300</v>
-      </c>
-      <c r="D11" s="5">
-        <v>4.8329999999999996E-3</v>
-      </c>
-      <c r="E11" s="5">
-        <f t="shared" si="1"/>
-        <v>3.0676127525194552E-2</v>
-      </c>
-      <c r="F11" s="3">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C12" s="4">
-        <v>45301</v>
-      </c>
-      <c r="D12" s="5">
-        <v>2.6570000000000001E-3</v>
-      </c>
-      <c r="E12" s="5">
-        <f t="shared" si="1"/>
-        <v>3.3414633996028842E-2</v>
-      </c>
-      <c r="F12" s="3">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C13" s="4">
-        <v>45302</v>
-      </c>
-      <c r="D13" s="5">
-        <v>3.509E-3</v>
-      </c>
-      <c r="E13" s="5">
-        <f t="shared" si="1"/>
-        <v>3.7040885946720836E-2</v>
-      </c>
-      <c r="F13" s="3">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C14" s="4">
-        <v>45303</v>
-      </c>
-      <c r="D14" s="5">
-        <v>4.9179999999999996E-3</v>
-      </c>
-      <c r="E14" s="5">
-        <f t="shared" si="1"/>
-        <v>4.2141053023806885E-2</v>
-      </c>
-      <c r="F14" s="3">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C15" s="4">
-        <v>45307</v>
-      </c>
-      <c r="D15" s="5">
-        <v>1.686E-3</v>
-      </c>
-      <c r="E15" s="5">
-        <f t="shared" si="1"/>
-        <v>4.3898102839205144E-2</v>
-      </c>
-      <c r="F15" s="3">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C16" s="4">
-        <v>45308</v>
-      </c>
-      <c r="D16" s="5">
-        <v>3.6800000000000001E-3</v>
-      </c>
-      <c r="E16" s="5">
-        <f t="shared" si="1"/>
-        <v>4.7739647857653278E-2</v>
-      </c>
-      <c r="F16" s="3">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C17" s="4">
-        <v>45309</v>
-      </c>
-      <c r="D17" s="5">
-        <v>6.4489999999999999E-3</v>
-      </c>
-      <c r="E17" s="5">
-        <f t="shared" si="1"/>
-        <v>5.4496520846687213E-2</v>
-      </c>
-      <c r="F17" s="3">
-        <f>F16+1</f>
-        <v>12</v>
-      </c>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C18" s="4">
-        <v>45310</v>
-      </c>
-      <c r="D18" s="5">
-        <v>2.6819999999999999E-3</v>
-      </c>
-      <c r="E18" s="5">
-        <f t="shared" si="1"/>
-        <v>5.7324680515598025E-2</v>
-      </c>
-      <c r="F18" s="3">
-        <f>F17+1</f>
-        <v>13</v>
-      </c>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="D19" s="3"/>
-    </row>
-    <row r="22" spans="3:8" ht="18" x14ac:dyDescent="0.4">
-      <c r="C22" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" spans="3:8" ht="18" x14ac:dyDescent="0.4">
-      <c r="C23" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:H23"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E3FDEE-F155-46D3-95EB-77BB3DD32FB7}">
   <dimension ref="C2:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
@@ -4412,345 +4434,345 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="9" t="str">
+      <c r="C2" s="21" t="str">
         <f>'250K'!C2</f>
         <v>https://ddrinq.github.io/ddrinq/Ticker.html</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C3"/>
     </row>
     <row r="4" spans="3:9" ht="56" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>6</v>
+      <c r="H4" s="11" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="3:9" ht="19" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <v>45289</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>2.5730000000000002E-3</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="13">
         <f>D5</f>
         <v>2.5730000000000002E-3</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="13">
         <v>2.8770000000000002E-3</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="13">
         <f>F5</f>
         <v>2.8770000000000002E-3</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C6" s="16">
+      <c r="C6" s="15">
         <v>45293</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="16">
         <v>4.2139999999999999E-3</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="16">
         <f>(1+E5) * (1+D6)-1</f>
         <v>6.7978426219998944E-3</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="16">
         <v>2.356E-3</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="16">
         <f>(1+G5) * (1+F6)-1</f>
         <v>5.2397782119999459E-3</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C7" s="13">
+      <c r="C7" s="12">
         <v>45294</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <v>4.7819999999999998E-3</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="13">
         <f t="shared" ref="E7:E18" si="0">(1+E6) * (1+D7)-1</f>
         <v>1.1612349905418373E-2</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="13">
         <v>4.1269999999999996E-3</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="13">
         <f t="shared" ref="G7:G18" si="1">(1+G6) * (1+F7)-1</f>
         <v>9.3884027766808487E-3</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C8" s="16">
+      <c r="C8" s="15">
         <v>45295</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="16">
         <v>5.5120000000000004E-3</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="16">
         <f t="shared" si="0"/>
         <v>1.718835717809708E-2</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="16">
         <v>7.3639999999999999E-3</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="16">
         <f t="shared" si="1"/>
         <v>1.6821538974728156E-2</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C9" s="13">
+      <c r="C9" s="12">
         <v>45296</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>4.0119999999999999E-3</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="13">
         <f t="shared" si="0"/>
         <v>2.1269316867095434E-2</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="13">
         <v>5.7689999999999998E-3</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="13">
         <f t="shared" si="1"/>
         <v>2.2687582433073228E-2</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C10" s="16">
+      <c r="C10" s="15">
         <v>45299</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="16">
         <v>3.3709999999999999E-3</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="16">
         <f t="shared" si="0"/>
         <v>2.4712015734254411E-2</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="16">
         <v>2.9640000000000001E-3</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="16">
         <f t="shared" si="1"/>
         <v>2.5718828427404805E-2</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="17">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <v>45300</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <v>5.5139999999999998E-3</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <f t="shared" si="0"/>
         <v>3.0362277789013126E-2</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="13">
         <v>4.8329999999999996E-3</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="13">
         <f t="shared" si="1"/>
         <v>3.0676127525194552E-2</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="14">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C12" s="16">
+      <c r="C12" s="15">
         <v>45301</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="16">
         <v>1.99E-3</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="16">
         <f t="shared" si="0"/>
         <v>3.2412698721813182E-2</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="16">
         <v>2.6570000000000001E-3</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="16">
         <f t="shared" si="1"/>
         <v>3.3414633996028842E-2</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="17">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C13" s="13">
+      <c r="C13" s="12">
         <v>45302</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <v>6.9160000000000003E-3</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="13">
         <f t="shared" si="0"/>
         <v>3.9552864946173161E-2</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="13">
         <v>3.509E-3</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="13">
         <f t="shared" si="1"/>
         <v>3.7040885946720836E-2</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="14">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C14" s="16">
+      <c r="C14" s="15">
         <v>45303</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="16">
         <v>4.9309999999999996E-3</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="16">
         <f t="shared" si="0"/>
         <v>4.4678900123222842E-2</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="16">
         <v>4.9179999999999996E-3</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="16">
         <f t="shared" si="1"/>
         <v>4.2141053023806885E-2</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="17">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C15" s="13">
+      <c r="C15" s="12">
         <v>45307</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="13">
         <v>3.5950000000000001E-3</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="13">
         <f t="shared" si="0"/>
         <v>4.8434520769165879E-2</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="13">
         <v>1.686E-3</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="13">
         <f t="shared" si="1"/>
         <v>4.3898102839205144E-2</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="14">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C16" s="16">
+      <c r="C16" s="15">
         <v>45308</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="16">
         <v>4.4739999999999997E-3</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="16">
         <f t="shared" si="0"/>
         <v>5.3125216815087306E-2</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="16">
         <v>3.6800000000000001E-3</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="16">
         <f t="shared" si="1"/>
         <v>4.7739647857653278E-2</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="17">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.45">
-      <c r="C17" s="13">
+      <c r="C17" s="12">
         <v>45309</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="13">
         <v>3.4840000000000001E-3</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="13">
         <f t="shared" si="0"/>
         <v>5.6794305070471118E-2</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="13">
         <v>6.4489999999999999E-3</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="13">
         <f t="shared" si="1"/>
         <v>5.4496520846687213E-2</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="14">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.45">
-      <c r="C18" s="19">
+      <c r="C18" s="18">
         <v>45310</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="19">
         <v>4.8240000000000002E-3</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="19">
         <f t="shared" si="0"/>
         <v>6.1892280798131027E-2</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="19">
         <v>2.6819999999999999E-3</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G18" s="19">
         <f t="shared" si="1"/>
         <v>5.7324680515598025E-2</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H18" s="20">
         <v>13</v>
       </c>
     </row>
@@ -4767,28 +4789,28 @@
       <c r="D21"/>
     </row>
     <row r="22" spans="3:10" ht="18" x14ac:dyDescent="0.4">
-      <c r="C22" s="9" t="str">
+      <c r="C22" s="21" t="str">
         <f>'250K'!C22</f>
         <v>Visit site to see next day trades we will be executing</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
     </row>
     <row r="23" spans="3:10" ht="18" x14ac:dyDescent="0.4">
-      <c r="C23" s="9" t="str">
-        <f>'250K'!C23</f>
-        <v>Analyze 500+ liquid securities.  Most have 1 million+ daily volume</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
+      <c r="C23" s="21" t="str">
+        <f>'1M'!C24</f>
+        <v>Analyze 1000+ liquid securities.  Most have 1 million+ daily volume</v>
+      </c>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
       <c r="J23" s="7"/>
     </row>
   </sheetData>

--- a/Session/Annual.xlsx
+++ b/Session/Annual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdang\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3891C4C8-A529-4398-939B-36D6CA628217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D51CF7-2ED4-4DAF-8D3B-AF42CD7262AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{8CA18F37-2DAB-41C4-ADD2-73D1823D0F11}"/>
+    <workbookView xWindow="400" yWindow="570" windowWidth="21330" windowHeight="13770" xr2:uid="{8CA18F37-2DAB-41C4-ADD2-73D1823D0F11}"/>
   </bookViews>
   <sheets>
     <sheet name="1M" sheetId="2" r:id="rId1"/>
@@ -516,10 +516,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'1M'!$E$5:$E$19</c:f>
+              <c:f>'1M'!$E$5:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>0.0000%</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>2.8770000000000002E-3</c:v>
                 </c:pt>
@@ -564,6 +564,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>5.8817622964486116E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.0356084970653479E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3461,8 +3464,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}" name="Table13" displayName="Table13" ref="C4:F19" totalsRowShown="0" headerRowDxfId="9">
-  <autoFilter ref="C4:F19" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}" name="Table13" displayName="Table13" ref="C4:F20" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="C4:F20" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{F8E318FB-3A88-409A-BC49-859E7AEA63D2}" name="Date" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{86FD5971-5C1C-45C8-8277-4D0CBFF21F1F}" name="Daily Return" dataDxfId="7"/>
@@ -3791,17 +3794,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF9745B-B45F-435E-ACD3-428BC7435D9E}">
-  <dimension ref="C2:H24"/>
+  <dimension ref="C2:H25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="C2" sqref="C2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="41" customWidth="1"/>
   </cols>
@@ -4074,32 +4077,54 @@
       </c>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="D20" s="3"/>
+      <c r="C20" s="4">
+        <v>45314</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1.4530000000000001E-3</v>
+      </c>
+      <c r="E20" s="5">
+        <f>(1+E19) * (1+D20)-1</f>
+        <v>6.0356084970653479E-2</v>
+      </c>
+      <c r="F20" s="3">
+        <f>F19+1</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="D21" s="3"/>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.45">
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="3:8" ht="18" x14ac:dyDescent="0.4">
-      <c r="C23" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.45">
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="3:8" ht="18" x14ac:dyDescent="0.4">
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+    </row>
+    <row r="25" spans="3:8" ht="18" x14ac:dyDescent="0.4">
+      <c r="C25" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4802,7 +4827,7 @@
     </row>
     <row r="23" spans="3:10" ht="18" x14ac:dyDescent="0.4">
       <c r="C23" s="21" t="str">
-        <f>'1M'!C24</f>
+        <f>'1M'!C25</f>
         <v>Analyze 1000+ liquid securities.  Most have 1 million+ daily volume</v>
       </c>
       <c r="D23" s="21"/>

--- a/Session/Annual.xlsx
+++ b/Session/Annual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdang\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D51CF7-2ED4-4DAF-8D3B-AF42CD7262AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46198FCA-E614-49DD-9622-E55F45C094C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="570" windowWidth="21330" windowHeight="13770" xr2:uid="{8CA18F37-2DAB-41C4-ADD2-73D1823D0F11}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{8CA18F37-2DAB-41C4-ADD2-73D1823D0F11}"/>
   </bookViews>
   <sheets>
     <sheet name="1M" sheetId="2" r:id="rId1"/>
@@ -566,7 +566,7 @@
                   <c:v>5.8817622964486116E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.0356084970653479E-2</c:v>
+                  <c:v>6.0364555511637219E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3797,7 +3797,7 @@
   <dimension ref="C2:H25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G2"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
@@ -4081,11 +4081,11 @@
         <v>45314</v>
       </c>
       <c r="D20" s="5">
-        <v>1.4530000000000001E-3</v>
+        <v>1.4610000000000001E-3</v>
       </c>
       <c r="E20" s="5">
         <f>(1+E19) * (1+D20)-1</f>
-        <v>6.0356084970653479E-2</v>
+        <v>6.0364555511637219E-2</v>
       </c>
       <c r="F20" s="3">
         <f>F19+1</f>

--- a/Session/Annual.xlsx
+++ b/Session/Annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdang\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46198FCA-E614-49DD-9622-E55F45C094C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD2498F-8626-46EB-AF0D-A84250DBC648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{8CA18F37-2DAB-41C4-ADD2-73D1823D0F11}"/>
   </bookViews>
@@ -516,10 +516,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'1M'!$E$5:$E$20</c:f>
+              <c:f>'1M'!$E$5:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>0.0000%</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>2.8770000000000002E-3</c:v>
                 </c:pt>
@@ -567,6 +567,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>6.0364555511637219E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.0927609090613899E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3464,8 +3467,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}" name="Table13" displayName="Table13" ref="C4:F20" totalsRowShown="0" headerRowDxfId="9">
-  <autoFilter ref="C4:F20" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}" name="Table13" displayName="Table13" ref="C4:F21" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="C4:F21" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{F8E318FB-3A88-409A-BC49-859E7AEA63D2}" name="Date" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{86FD5971-5C1C-45C8-8277-4D0CBFF21F1F}" name="Daily Return" dataDxfId="7"/>
@@ -3794,10 +3797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF9745B-B45F-435E-ACD3-428BC7435D9E}">
-  <dimension ref="C2:H25"/>
+  <dimension ref="C2:H26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
@@ -4093,38 +4096,52 @@
       </c>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="D21" s="3"/>
+      <c r="C21" s="4">
+        <v>45315</v>
+      </c>
+      <c r="D21" s="5">
+        <v>5.31E-4</v>
+      </c>
+      <c r="E21" s="5">
+        <f>(1+E20) * (1+D21)-1</f>
+        <v>6.0927609090613899E-2</v>
+      </c>
+      <c r="F21" s="3">
+        <f>F20+1</f>
+        <v>16</v>
+      </c>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="D22" s="3"/>
       <c r="G22" s="7"/>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.45">
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="3:8" ht="18" x14ac:dyDescent="0.4">
-      <c r="C24" s="21" t="s">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="3:8" ht="18" x14ac:dyDescent="0.4">
+      <c r="C25" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-    </row>
-    <row r="25" spans="3:8" ht="18" x14ac:dyDescent="0.4">
-      <c r="C25" s="21" t="s">
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="3:8" ht="18" x14ac:dyDescent="0.4">
+      <c r="C26" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4827,7 +4844,7 @@
     </row>
     <row r="23" spans="3:10" ht="18" x14ac:dyDescent="0.4">
       <c r="C23" s="21" t="str">
-        <f>'1M'!C25</f>
+        <f>'1M'!C26</f>
         <v>Analyze 1000+ liquid securities.  Most have 1 million+ daily volume</v>
       </c>
       <c r="D23" s="21"/>

--- a/Session/Annual.xlsx
+++ b/Session/Annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdang\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD2498F-8626-46EB-AF0D-A84250DBC648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CB1924-5A82-4805-9F1C-CB5063971B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{8CA18F37-2DAB-41C4-ADD2-73D1823D0F11}"/>
   </bookViews>
@@ -516,10 +516,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'1M'!$E$5:$E$21</c:f>
+              <c:f>'1M'!$E$5:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>0.0000%</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>2.8770000000000002E-3</c:v>
                 </c:pt>
@@ -570,6 +570,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>6.0927609090613899E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.029953994603221E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,8 +3470,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}" name="Table13" displayName="Table13" ref="C4:F21" totalsRowShown="0" headerRowDxfId="9">
-  <autoFilter ref="C4:F21" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}" name="Table13" displayName="Table13" ref="C4:F22" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="C4:F22" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{F8E318FB-3A88-409A-BC49-859E7AEA63D2}" name="Date" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{86FD5971-5C1C-45C8-8277-4D0CBFF21F1F}" name="Daily Return" dataDxfId="7"/>
@@ -3797,10 +3800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF9745B-B45F-435E-ACD3-428BC7435D9E}">
-  <dimension ref="C2:H26"/>
+  <dimension ref="C2:H27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
@@ -4041,7 +4044,7 @@
         <v>5.4496520846687213E-2</v>
       </c>
       <c r="F17" s="3">
-        <f>F16+1</f>
+        <f t="shared" ref="F17:F22" si="3">F16+1</f>
         <v>12</v>
       </c>
       <c r="G17" s="7"/>
@@ -4058,7 +4061,7 @@
         <v>5.7324680515598025E-2</v>
       </c>
       <c r="F18" s="3">
-        <f>F17+1</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="G18" s="7"/>
@@ -4075,7 +4078,7 @@
         <v>5.8817622964486116E-2</v>
       </c>
       <c r="F19" s="3">
-        <f>F18+1</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
     </row>
@@ -4091,7 +4094,7 @@
         <v>6.0364555511637219E-2</v>
       </c>
       <c r="F20" s="3">
-        <f>F19+1</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
     </row>
@@ -4107,37 +4110,53 @@
         <v>6.0927609090613899E-2</v>
       </c>
       <c r="F21" s="3">
-        <f>F20+1</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="D22" s="3"/>
+      <c r="C22" s="4">
+        <v>45316</v>
+      </c>
+      <c r="D22" s="5">
+        <v>-5.9199999999999997E-4</v>
+      </c>
+      <c r="E22" s="5">
+        <f>(1+E21) * (1+D22)-1</f>
+        <v>6.029953994603221E-2</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
       <c r="G22" s="7"/>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="D23" s="3"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.45">
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="3:8" ht="18" x14ac:dyDescent="0.4">
-      <c r="C25" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.45">
       <c r="G25" s="7"/>
     </row>
     <row r="26" spans="3:8" ht="18" x14ac:dyDescent="0.4">
       <c r="C26" s="7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="3:8" ht="18" x14ac:dyDescent="0.4">
+      <c r="C27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4844,7 +4863,7 @@
     </row>
     <row r="23" spans="3:10" ht="18" x14ac:dyDescent="0.4">
       <c r="C23" s="21" t="str">
-        <f>'1M'!C26</f>
+        <f>'1M'!C27</f>
         <v>Analyze 1000+ liquid securities.  Most have 1 million+ daily volume</v>
       </c>
       <c r="D23" s="21"/>

--- a/Session/Annual.xlsx
+++ b/Session/Annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdang\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CB1924-5A82-4805-9F1C-CB5063971B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED6836B-C14D-4327-B6D6-B161D802763C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{8CA18F37-2DAB-41C4-ADD2-73D1823D0F11}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -78,6 +78,16 @@
   </si>
   <si>
     <t>Analyze 3000+ liquid securities.  Most have 250,000+ daily volume</t>
+  </si>
+  <si>
+    <t>Weighted
+ Return</t>
+  </si>
+  <si>
+    <t>Cumulative Daily</t>
+  </si>
+  <si>
+    <t>Cumulative Weighted</t>
   </si>
 </sst>
 </file>
@@ -282,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -326,6 +336,21 @@
     </xf>
     <xf numFmtId="165" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -333,7 +358,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="12">
     <dxf>
       <font>
         <b/>
@@ -415,6 +440,44 @@
     <dxf>
       <font>
         <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -460,7 +523,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -516,10 +579,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'1M'!$E$5:$E$22</c:f>
+              <c:f>'1M'!$E$5:$E$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0000%</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>2.8770000000000002E-3</c:v>
                 </c:pt>
@@ -573,6 +636,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>6.029953994603221E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.9910410014871962E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -769,6 +835,285 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'1M'!$G$5:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>175.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>461.28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>766.27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1269.24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1551.3400000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1702.7800000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2060.4100000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2111.6900000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2319.4000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2738.4000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2780.0500000000006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3026.5800000000008</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3419.9700000000007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3489.9700000000007</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3581.9800000000009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3726.190000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3775.170000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3720.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3687.5200000000009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F9C9-47D9-A95A-D83A0E40EFB4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="968306095"/>
+        <c:axId val="1198127167"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="968306095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1198127167"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1198127167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="968306095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:title>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1110,7 +1455,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1796,6 +2141,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2829,7 +3214,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2856,8 +3241,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2937,6 +3322,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -2947,6 +3337,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -2958,7 +3353,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2978,6 +3373,512 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3348,16 +4249,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>519042</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>287683</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>557142</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>198783</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>237434</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>187187</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>275534</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3379,6 +4280,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>270842</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>163167</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{846F46BB-4EF9-4E8D-81B4-556E3B56C474}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3470,16 +4409,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}" name="Table13" displayName="Table13" ref="C4:F22" totalsRowShown="0" headerRowDxfId="9">
-  <autoFilter ref="C4:F22" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F8E318FB-3A88-409A-BC49-859E7AEA63D2}" name="Date" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{86FD5971-5C1C-45C8-8277-4D0CBFF21F1F}" name="Daily Return" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{EE23E60A-51B3-4E85-85A4-EC283E29F206}" name="Cumulative Return" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}" name="Table13" displayName="Table13" ref="C4:H23" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="C4:H23" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{F8E318FB-3A88-409A-BC49-859E7AEA63D2}" name="Date" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{86FD5971-5C1C-45C8-8277-4D0CBFF21F1F}" name="Daily Return" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{EE23E60A-51B3-4E85-85A4-EC283E29F206}" name="Cumulative Daily" dataDxfId="8">
       <calculatedColumnFormula>(1+E4) * (1+D5)-1</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="6" xr3:uid="{EA975F62-C42D-49FA-B722-D36CC94BA9D4}" name="Weighted_x000a_ Return" dataDxfId="7">
+      <calculatedColumnFormula>SUM(D:D)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{5D502AF1-D683-4734-9BCF-B9BF9E0C890D}" name="Cumulative Weighted" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{21D8FEFD-526E-4F47-BF35-EE4695F5CE67}" name="Day" dataDxfId="5">
-      <calculatedColumnFormula>F4+1</calculatedColumnFormula>
+      <calculatedColumnFormula>H4+1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3800,10 +4743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF9745B-B45F-435E-ACD3-428BC7435D9E}">
-  <dimension ref="C2:H27"/>
+  <dimension ref="C2:J28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
@@ -3811,38 +4754,48 @@
     <col min="3" max="3" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41" customWidth="1"/>
+    <col min="6" max="6" width="15.453125" customWidth="1"/>
+    <col min="7" max="7" width="15.453125" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="21" t="s">
+    <row r="2" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-    </row>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+    </row>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C3"/>
     </row>
-    <row r="4" spans="3:7" ht="37" x14ac:dyDescent="0.45">
-      <c r="C4" s="6" t="s">
+    <row r="4" spans="3:9" ht="37" x14ac:dyDescent="0.45">
+      <c r="C4" s="21" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C5" s="4">
+    <row r="5" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C5" s="22">
         <v>45289</v>
       </c>
       <c r="D5" s="5">
@@ -3852,12 +4805,19 @@
         <f>D5</f>
         <v>2.8770000000000002E-3</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="23">
+        <v>175.5</v>
+      </c>
+      <c r="G5" s="26">
+        <f>F5</f>
+        <v>175.5</v>
+      </c>
+      <c r="H5" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C6" s="4">
+    <row r="6" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C6" s="22">
         <v>45293</v>
       </c>
       <c r="D6" s="5">
@@ -3867,13 +4827,20 @@
         <f>(1+E5) * (1+D6)-1</f>
         <v>5.2397782119999459E-3</v>
       </c>
-      <c r="F6" s="3">
-        <f t="shared" ref="F6:F7" si="0">F5+1</f>
+      <c r="F6" s="23">
+        <v>285.77999999999997</v>
+      </c>
+      <c r="G6" s="26">
+        <f>F6+G5</f>
+        <v>461.28</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" ref="H6:H7" si="0">H5+1</f>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C7" s="4">
+    <row r="7" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C7" s="22">
         <v>45294</v>
       </c>
       <c r="D7" s="5">
@@ -3883,13 +4850,20 @@
         <f t="shared" ref="E7:E18" si="1">(1+E6) * (1+D7)-1</f>
         <v>9.3884027766808487E-3</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="23">
+        <v>304.99</v>
+      </c>
+      <c r="G7" s="26">
+        <f t="shared" ref="G7:G23" si="2">F7+G6</f>
+        <v>766.27</v>
+      </c>
+      <c r="H7" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C8" s="4">
+    <row r="8" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C8" s="22">
         <v>45295</v>
       </c>
       <c r="D8" s="5">
@@ -3899,13 +4873,20 @@
         <f t="shared" si="1"/>
         <v>1.6821538974728156E-2</v>
       </c>
-      <c r="F8" s="3">
-        <f>F7+1</f>
+      <c r="F8" s="23">
+        <v>502.97</v>
+      </c>
+      <c r="G8" s="26">
+        <f t="shared" si="2"/>
+        <v>1269.24</v>
+      </c>
+      <c r="H8" s="3">
+        <f>H7+1</f>
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C9" s="4">
+    <row r="9" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C9" s="22">
         <v>45296</v>
       </c>
       <c r="D9" s="5">
@@ -3915,13 +4896,20 @@
         <f t="shared" si="1"/>
         <v>2.2687582433073228E-2</v>
       </c>
-      <c r="F9" s="3">
-        <f t="shared" ref="F9:F16" si="2">F8+1</f>
+      <c r="F9" s="23">
+        <v>282.10000000000002</v>
+      </c>
+      <c r="G9" s="26">
+        <f t="shared" si="2"/>
+        <v>1551.3400000000001</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" ref="H9:H16" si="3">H8+1</f>
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C10" s="4">
+    <row r="10" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C10" s="22">
         <v>45299</v>
       </c>
       <c r="D10" s="5">
@@ -3931,13 +4919,20 @@
         <f t="shared" si="1"/>
         <v>2.5718828427404805E-2</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="23">
+        <v>151.44</v>
+      </c>
+      <c r="G10" s="26">
         <f t="shared" si="2"/>
+        <v>1702.7800000000002</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C11" s="4">
+    <row r="11" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C11" s="22">
         <v>45300</v>
       </c>
       <c r="D11" s="5">
@@ -3947,13 +4942,20 @@
         <f t="shared" si="1"/>
         <v>3.0676127525194552E-2</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="23">
+        <v>357.63</v>
+      </c>
+      <c r="G11" s="26">
         <f t="shared" si="2"/>
+        <v>2060.4100000000003</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C12" s="4">
+    <row r="12" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C12" s="22">
         <v>45301</v>
       </c>
       <c r="D12" s="5">
@@ -3963,13 +4965,20 @@
         <f t="shared" si="1"/>
         <v>3.3414633996028842E-2</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="23">
+        <v>51.28</v>
+      </c>
+      <c r="G12" s="26">
         <f t="shared" si="2"/>
+        <v>2111.6900000000005</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C13" s="4">
+    <row r="13" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C13" s="22">
         <v>45302</v>
       </c>
       <c r="D13" s="5">
@@ -3979,13 +4988,20 @@
         <f t="shared" si="1"/>
         <v>3.7040885946720836E-2</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="23">
+        <v>207.71</v>
+      </c>
+      <c r="G13" s="26">
         <f t="shared" si="2"/>
+        <v>2319.4000000000005</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C14" s="4">
+    <row r="14" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C14" s="22">
         <v>45303</v>
       </c>
       <c r="D14" s="5">
@@ -3995,13 +5011,20 @@
         <f t="shared" si="1"/>
         <v>4.2141053023806885E-2</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="23">
+        <v>419</v>
+      </c>
+      <c r="G14" s="26">
         <f t="shared" si="2"/>
+        <v>2738.4000000000005</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C15" s="4">
+    <row r="15" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C15" s="22">
         <v>45307</v>
       </c>
       <c r="D15" s="5">
@@ -4011,13 +5034,20 @@
         <f t="shared" si="1"/>
         <v>4.3898102839205144E-2</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="23">
+        <v>41.65</v>
+      </c>
+      <c r="G15" s="26">
         <f t="shared" si="2"/>
+        <v>2780.0500000000006</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C16" s="4">
+    <row r="16" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C16" s="22">
         <v>45308</v>
       </c>
       <c r="D16" s="5">
@@ -4027,13 +5057,20 @@
         <f t="shared" si="1"/>
         <v>4.7739647857653278E-2</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="23">
+        <v>246.53</v>
+      </c>
+      <c r="G16" s="26">
         <f t="shared" si="2"/>
+        <v>3026.5800000000008</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C17" s="4">
+    <row r="17" spans="3:10" x14ac:dyDescent="0.45">
+      <c r="C17" s="22">
         <v>45309</v>
       </c>
       <c r="D17" s="5">
@@ -4043,14 +5080,21 @@
         <f t="shared" si="1"/>
         <v>5.4496520846687213E-2</v>
       </c>
-      <c r="F17" s="3">
-        <f t="shared" ref="F17:F22" si="3">F16+1</f>
+      <c r="F17" s="23">
+        <v>393.39</v>
+      </c>
+      <c r="G17" s="26">
+        <f t="shared" si="2"/>
+        <v>3419.9700000000007</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" ref="H17:H23" si="4">H16+1</f>
         <v>12</v>
       </c>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C18" s="4">
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.45">
+      <c r="C18" s="22">
         <v>45310</v>
       </c>
       <c r="D18" s="5">
@@ -4060,14 +5104,21 @@
         <f t="shared" si="1"/>
         <v>5.7324680515598025E-2</v>
       </c>
-      <c r="F18" s="3">
-        <f t="shared" si="3"/>
+      <c r="F18" s="23">
+        <v>70</v>
+      </c>
+      <c r="G18" s="26">
+        <f t="shared" si="2"/>
+        <v>3489.9700000000007</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C19" s="4">
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.45">
+      <c r="C19" s="22">
         <v>45313</v>
       </c>
       <c r="D19" s="5">
@@ -4077,13 +5128,20 @@
         <f>(1+E18) * (1+D19)-1</f>
         <v>5.8817622964486116E-2</v>
       </c>
-      <c r="F19" s="3">
-        <f t="shared" si="3"/>
+      <c r="F19" s="23">
+        <v>92.01</v>
+      </c>
+      <c r="G19" s="26">
+        <f t="shared" si="2"/>
+        <v>3581.9800000000009</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C20" s="4">
+    <row r="20" spans="3:10" x14ac:dyDescent="0.45">
+      <c r="C20" s="22">
         <v>45314</v>
       </c>
       <c r="D20" s="5">
@@ -4093,13 +5151,20 @@
         <f>(1+E19) * (1+D20)-1</f>
         <v>6.0364555511637219E-2</v>
       </c>
-      <c r="F20" s="3">
-        <f t="shared" si="3"/>
+      <c r="F20" s="23">
+        <v>144.21</v>
+      </c>
+      <c r="G20" s="26">
+        <f t="shared" si="2"/>
+        <v>3726.190000000001</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C21" s="4">
+    <row r="21" spans="3:10" x14ac:dyDescent="0.45">
+      <c r="C21" s="22">
         <v>45315</v>
       </c>
       <c r="D21" s="5">
@@ -4109,13 +5174,20 @@
         <f>(1+E20) * (1+D21)-1</f>
         <v>6.0927609090613899E-2</v>
       </c>
-      <c r="F21" s="3">
-        <f t="shared" si="3"/>
+      <c r="F21" s="23">
+        <v>48.98</v>
+      </c>
+      <c r="G21" s="26">
+        <f t="shared" si="2"/>
+        <v>3775.170000000001</v>
+      </c>
+      <c r="H21" s="3">
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C22" s="4">
+    <row r="22" spans="3:10" x14ac:dyDescent="0.45">
+      <c r="C22" s="22">
         <v>45316</v>
       </c>
       <c r="D22" s="5">
@@ -4125,42 +5197,74 @@
         <f>(1+E21) * (1+D22)-1</f>
         <v>6.029953994603221E-2</v>
       </c>
-      <c r="F22" s="3">
-        <f t="shared" si="3"/>
+      <c r="F22" s="23">
+        <v>-54.77</v>
+      </c>
+      <c r="G22" s="26">
+        <f t="shared" si="2"/>
+        <v>3720.400000000001</v>
+      </c>
+      <c r="H22" s="3">
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="D23" s="3"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="G24" s="7"/>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="3:8" ht="18" x14ac:dyDescent="0.4">
-      <c r="C26" s="7" t="s">
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.45">
+      <c r="C23" s="22">
+        <v>45317</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-3.6699999999999998E-4</v>
+      </c>
+      <c r="E23" s="5">
+        <f>(1+E22) * (1+D23)-1</f>
+        <v>5.9910410014871962E-2</v>
+      </c>
+      <c r="F23" s="23">
+        <v>-32.880000000000003</v>
+      </c>
+      <c r="G23" s="26">
+        <f t="shared" si="2"/>
+        <v>3687.5200000000009</v>
+      </c>
+      <c r="H23" s="3">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.45">
+      <c r="D24" s="3"/>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.45">
+      <c r="I25" s="7"/>
+    </row>
+    <row r="27" spans="3:10" ht="18" x14ac:dyDescent="0.4">
+      <c r="C27" s="7" t="s">
         <v>4</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="3:8" ht="18" x14ac:dyDescent="0.4">
-      <c r="C27" s="7" t="s">
-        <v>10</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="3:10" ht="18" x14ac:dyDescent="0.4">
+      <c r="C28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4174,8 +5278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B44989F-3FC9-4C07-81FD-8E789474E901}">
   <dimension ref="C2:H23"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
@@ -4188,13 +5292,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C3"/>
@@ -4442,23 +5546,23 @@
       <c r="D19" s="3"/>
     </row>
     <row r="22" spans="3:8" ht="18" x14ac:dyDescent="0.4">
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
     </row>
     <row r="23" spans="3:8" ht="18" x14ac:dyDescent="0.4">
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4495,16 +5599,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="21" t="str">
+      <c r="C2" s="28" t="str">
         <f>'250K'!C2</f>
         <v>https://ddrinq.github.io/ddrinq/Ticker.html</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
     </row>
     <row r="3" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C3"/>
@@ -4850,28 +5954,28 @@
       <c r="D21"/>
     </row>
     <row r="22" spans="3:10" ht="18" x14ac:dyDescent="0.4">
-      <c r="C22" s="21" t="str">
+      <c r="C22" s="28" t="str">
         <f>'250K'!C22</f>
         <v>Visit site to see next day trades we will be executing</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
     </row>
     <row r="23" spans="3:10" ht="18" x14ac:dyDescent="0.4">
-      <c r="C23" s="21" t="str">
-        <f>'1M'!C27</f>
+      <c r="C23" s="28" t="str">
+        <f>'1M'!C28</f>
         <v>Analyze 1000+ liquid securities.  Most have 1 million+ daily volume</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
       <c r="J23" s="7"/>
     </row>
   </sheetData>

--- a/Session/Annual.xlsx
+++ b/Session/Annual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdang\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED6836B-C14D-4327-B6D6-B161D802763C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7455F2-E006-4FE7-B6E9-2865B98D71A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{8CA18F37-2DAB-41C4-ADD2-73D1823D0F11}"/>
+    <workbookView xWindow="1320" yWindow="1030" windowWidth="20440" windowHeight="13770" xr2:uid="{8CA18F37-2DAB-41C4-ADD2-73D1823D0F11}"/>
   </bookViews>
   <sheets>
     <sheet name="1M" sheetId="2" r:id="rId1"/>
@@ -556,17 +556,58 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1M'!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cumulative Daily</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -575,78 +616,162 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:val>
+          <c:xVal>
             <c:numRef>
-              <c:f>'1M'!$E$5:$E$23</c:f>
+              <c:f>'1M'!$C$5:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>mm/dd/yy;@</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45293</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45294</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45295</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45296</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45301</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45302</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45303</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45307</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45308</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45309</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45310</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45313</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45314</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45315</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45316</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45317</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45320</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1M'!$E$5:$E$24</c:f>
               <c:numCache>
                 <c:formatCode>0.0000%</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2.8770000000000002E-3</c:v>
+                  <c:v>2.7550000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.2397782119999459E-3</c:v>
+                  <c:v>4.1398046550000789E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.3884027766808487E-3</c:v>
+                  <c:v>8.5258873217330944E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6821538974728156E-2</c:v>
+                  <c:v>8.6116120221553238E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2687582433073228E-2</c:v>
+                  <c:v>1.4846849007676299E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5718828427404805E-2</c:v>
+                  <c:v>1.7882255933058255E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0676127525194552E-2</c:v>
+                  <c:v>2.3085670025388083E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.3414633996028842E-2</c:v>
+                  <c:v>2.6340105541738934E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.7040885946720836E-2</c:v>
+                  <c:v>2.9801950717731396E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.2141053023806885E-2</c:v>
+                  <c:v>3.4232158709719185E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.3898102839205144E-2</c:v>
+                  <c:v>3.6810499481382486E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.7739647857653278E-2</c:v>
+                  <c:v>4.0410305535581781E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.4496520846687213E-2</c:v>
+                  <c:v>4.6102390317166897E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.7324680515598025E-2</c:v>
+                  <c:v>4.9696798130296704E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.8817622964486116E-2</c:v>
+                  <c:v>5.0876657331395014E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.0364555511637219E-2</c:v>
+                  <c:v>5.2217575946149841E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.0927609090613899E-2</c:v>
+                  <c:v>5.2840488751109804E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.029953994603221E-2</c:v>
+                  <c:v>5.3399547050636764E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.9910410014871962E-2</c:v>
+                  <c:v>5.5212447671111109E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.7878969526375945E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4A05-4379-9AEA-F6F0E85B95A0}"/>
+              <c16:uniqueId val="{00000000-1798-4C82-8FD2-8489F006C55B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -658,19 +783,32 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="968306095"/>
-        <c:axId val="1198127167"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="968306095"/>
+        <c:axId val="170541936"/>
+        <c:axId val="159037472"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="170541936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="mm/dd/yy;@" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -678,8 +816,70 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="159037472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="159037472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -706,68 +906,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1198127167"/>
+        <c:crossAx val="170541936"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1198127167"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="968306095"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -835,17 +976,58 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1M'!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cumulative Weighted</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -854,78 +1036,162 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:val>
+          <c:xVal>
             <c:numRef>
-              <c:f>'1M'!$G$5:$G$23</c:f>
+              <c:f>'1M'!$C$5:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>mm/dd/yy;@</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45293</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45294</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45295</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45296</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45301</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45302</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45303</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45307</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45308</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45309</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45310</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45313</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45314</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45315</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45316</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45317</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45320</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1M'!$G$5:$G$24</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>175.5</c:v>
+                  <c:v>152.62</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>461.28</c:v>
+                  <c:v>290.21000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>766.27</c:v>
+                  <c:v>592.93000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1269.24</c:v>
+                  <c:v>1073.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1551.3400000000001</c:v>
+                  <c:v>1334</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1702.7800000000002</c:v>
+                  <c:v>1485.03</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2060.4100000000003</c:v>
+                  <c:v>1814.76</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2111.6900000000005</c:v>
+                  <c:v>1860.25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2319.4000000000005</c:v>
+                  <c:v>2057.21</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2738.4000000000005</c:v>
+                  <c:v>2388.02</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2780.0500000000006</c:v>
+                  <c:v>2428.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3026.5800000000008</c:v>
+                  <c:v>2627.11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3419.9700000000007</c:v>
+                  <c:v>2921.65</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3489.9700000000007</c:v>
+                  <c:v>2863.92</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3581.9800000000009</c:v>
+                  <c:v>2934.9700000000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3726.190000000001</c:v>
+                  <c:v>3047.09</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3775.170000000001</c:v>
+                  <c:v>2992.32</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3720.400000000001</c:v>
+                  <c:v>3041.3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3687.5200000000009</c:v>
+                  <c:v>3090.71</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3156.15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F9C9-47D9-A95A-D83A0E40EFB4}"/>
+              <c16:uniqueId val="{00000000-1A44-4862-B2C9-690AE23846EF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -937,19 +1203,32 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="968306095"/>
-        <c:axId val="1198127167"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="968306095"/>
+        <c:axId val="1632999072"/>
+        <c:axId val="2022006176"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1632999072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="mm/dd/yy;@" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -957,8 +1236,70 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2022006176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2022006176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -985,68 +1326,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1198127167"/>
+        <c:crossAx val="1632999072"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1198127167"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="968306095"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2182,7 +2464,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2209,8 +2491,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2290,11 +2572,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -2305,11 +2582,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -2321,7 +2593,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2341,9 +2613,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2356,10 +2625,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2399,22 +2668,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2519,8 +2789,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2652,19 +2922,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2678,6 +2949,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2698,7 +2980,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2725,8 +3007,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2806,11 +3088,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -2821,11 +3098,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -2837,7 +3109,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2857,9 +3129,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2872,10 +3141,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2915,22 +3184,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3035,8 +3305,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3168,19 +3438,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3194,6 +3465,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -4250,28 +4532,26 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>557142</xdr:colOff>
+      <xdr:colOff>530225</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>198783</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>275534</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66E4D1B5-7ED5-42D6-A40C-85C1676A9E6A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FE7C59D-EE52-BD76-64EF-9FB9F6BB06B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4288,28 +4568,26 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:colOff>536575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>270842</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>163167</xdr:rowOff>
+      <xdr:colOff>263525</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{846F46BB-4EF9-4E8D-81B4-556E3B56C474}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98CEEC93-49A9-5D4B-664C-CE101169B4FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4409,17 +4687,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}" name="Table13" displayName="Table13" ref="C4:H23" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="C4:H23" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}" name="Table13" displayName="Table13" ref="C4:H24" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="C4:H24" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{F8E318FB-3A88-409A-BC49-859E7AEA63D2}" name="Date" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{86FD5971-5C1C-45C8-8277-4D0CBFF21F1F}" name="Daily Return" dataDxfId="9"/>
     <tableColumn id="4" xr3:uid="{EE23E60A-51B3-4E85-85A4-EC283E29F206}" name="Cumulative Daily" dataDxfId="8">
       <calculatedColumnFormula>(1+E4) * (1+D5)-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{EA975F62-C42D-49FA-B722-D36CC94BA9D4}" name="Weighted_x000a_ Return" dataDxfId="7">
-      <calculatedColumnFormula>SUM(D:D)</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="6" xr3:uid="{EA975F62-C42D-49FA-B722-D36CC94BA9D4}" name="Weighted_x000a_ Return" dataDxfId="7"/>
     <tableColumn id="5" xr3:uid="{5D502AF1-D683-4734-9BCF-B9BF9E0C890D}" name="Cumulative Weighted" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{21D8FEFD-526E-4F47-BF35-EE4695F5CE67}" name="Day" dataDxfId="5">
       <calculatedColumnFormula>H4+1</calculatedColumnFormula>
@@ -4743,16 +5019,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF9745B-B45F-435E-ACD3-428BC7435D9E}">
-  <dimension ref="C2:J28"/>
+  <dimension ref="C2:J29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.08984375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.453125" customWidth="1"/>
     <col min="7" max="7" width="15.453125" style="24" bestFit="1" customWidth="1"/>
@@ -4799,18 +5075,18 @@
         <v>45289</v>
       </c>
       <c r="D5" s="5">
-        <v>2.8770000000000002E-3</v>
+        <v>2.7550000000000001E-3</v>
       </c>
       <c r="E5" s="5">
         <f>D5</f>
-        <v>2.8770000000000002E-3</v>
+        <v>2.7550000000000001E-3</v>
       </c>
       <c r="F5" s="23">
-        <v>175.5</v>
+        <v>152.62</v>
       </c>
       <c r="G5" s="26">
         <f>F5</f>
-        <v>175.5</v>
+        <v>152.62</v>
       </c>
       <c r="H5" s="3">
         <v>0</v>
@@ -4821,18 +5097,18 @@
         <v>45293</v>
       </c>
       <c r="D6" s="5">
-        <v>2.356E-3</v>
+        <v>1.3810000000000001E-3</v>
       </c>
       <c r="E6" s="5">
         <f>(1+E5) * (1+D6)-1</f>
-        <v>5.2397782119999459E-3</v>
+        <v>4.1398046550000789E-3</v>
       </c>
       <c r="F6" s="23">
-        <v>285.77999999999997</v>
+        <v>137.59</v>
       </c>
       <c r="G6" s="26">
         <f>F6+G5</f>
-        <v>461.28</v>
+        <v>290.21000000000004</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" ref="H6:H7" si="0">H5+1</f>
@@ -4844,18 +5120,18 @@
         <v>45294</v>
       </c>
       <c r="D7" s="5">
-        <v>4.1269999999999996E-3</v>
+        <v>4.3680000000000004E-3</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ref="E7:E18" si="1">(1+E6) * (1+D7)-1</f>
-        <v>9.3884027766808487E-3</v>
+        <v>8.5258873217330944E-3</v>
       </c>
       <c r="F7" s="23">
-        <v>304.99</v>
+        <v>302.72000000000003</v>
       </c>
       <c r="G7" s="26">
-        <f t="shared" ref="G7:G23" si="2">F7+G6</f>
-        <v>766.27</v>
+        <f t="shared" ref="G7:G24" si="2">F7+G6</f>
+        <v>592.93000000000006</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="0"/>
@@ -4867,18 +5143,18 @@
         <v>45295</v>
       </c>
       <c r="D8" s="5">
-        <v>7.3639999999999999E-3</v>
+        <v>8.5000000000000006E-5</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="1"/>
-        <v>1.6821538974728156E-2</v>
+        <v>8.6116120221553238E-3</v>
       </c>
       <c r="F8" s="23">
-        <v>502.97</v>
+        <v>480.82</v>
       </c>
       <c r="G8" s="26">
         <f t="shared" si="2"/>
-        <v>1269.24</v>
+        <v>1073.75</v>
       </c>
       <c r="H8" s="3">
         <f>H7+1</f>
@@ -4890,18 +5166,18 @@
         <v>45296</v>
       </c>
       <c r="D9" s="5">
-        <v>5.7689999999999998E-3</v>
+        <v>6.182E-3</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" si="1"/>
-        <v>2.2687582433073228E-2</v>
+        <v>1.4846849007676299E-2</v>
       </c>
       <c r="F9" s="23">
-        <v>282.10000000000002</v>
+        <v>260.25</v>
       </c>
       <c r="G9" s="26">
         <f t="shared" si="2"/>
-        <v>1551.3400000000001</v>
+        <v>1334</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" ref="H9:H16" si="3">H8+1</f>
@@ -4913,18 +5189,18 @@
         <v>45299</v>
       </c>
       <c r="D10" s="5">
-        <v>2.9640000000000001E-3</v>
+        <v>2.9910000000000002E-3</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" si="1"/>
-        <v>2.5718828427404805E-2</v>
+        <v>1.7882255933058255E-2</v>
       </c>
       <c r="F10" s="23">
-        <v>151.44</v>
+        <v>151.03</v>
       </c>
       <c r="G10" s="26">
         <f t="shared" si="2"/>
-        <v>1702.7800000000002</v>
+        <v>1485.03</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="3"/>
@@ -4936,18 +5212,18 @@
         <v>45300</v>
       </c>
       <c r="D11" s="5">
-        <v>4.8329999999999996E-3</v>
+        <v>5.1120000000000002E-3</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" si="1"/>
-        <v>3.0676127525194552E-2</v>
+        <v>2.3085670025388083E-2</v>
       </c>
       <c r="F11" s="23">
-        <v>357.63</v>
+        <v>329.73</v>
       </c>
       <c r="G11" s="26">
         <f t="shared" si="2"/>
-        <v>2060.4100000000003</v>
+        <v>1814.76</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="3"/>
@@ -4959,18 +5235,18 @@
         <v>45301</v>
       </c>
       <c r="D12" s="5">
-        <v>2.6570000000000001E-3</v>
+        <v>3.1809999999999998E-3</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" si="1"/>
-        <v>3.3414633996028842E-2</v>
+        <v>2.6340105541738934E-2</v>
       </c>
       <c r="F12" s="23">
-        <v>51.28</v>
+        <v>45.49</v>
       </c>
       <c r="G12" s="26">
         <f t="shared" si="2"/>
-        <v>2111.6900000000005</v>
+        <v>1860.25</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="3"/>
@@ -4982,18 +5258,18 @@
         <v>45302</v>
       </c>
       <c r="D13" s="5">
-        <v>3.509E-3</v>
+        <v>3.3730000000000001E-3</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" si="1"/>
-        <v>3.7040885946720836E-2</v>
+        <v>2.9801950717731396E-2</v>
       </c>
       <c r="F13" s="23">
-        <v>207.71</v>
+        <v>196.96</v>
       </c>
       <c r="G13" s="26">
         <f t="shared" si="2"/>
-        <v>2319.4000000000005</v>
+        <v>2057.21</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="3"/>
@@ -5005,18 +5281,18 @@
         <v>45303</v>
       </c>
       <c r="D14" s="5">
-        <v>4.9179999999999996E-3</v>
+        <v>4.3020000000000003E-3</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" si="1"/>
-        <v>4.2141053023806885E-2</v>
+        <v>3.4232158709719185E-2</v>
       </c>
       <c r="F14" s="23">
-        <v>419</v>
+        <v>330.81</v>
       </c>
       <c r="G14" s="26">
         <f t="shared" si="2"/>
-        <v>2738.4000000000005</v>
+        <v>2388.02</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="3"/>
@@ -5028,18 +5304,18 @@
         <v>45307</v>
       </c>
       <c r="D15" s="5">
-        <v>1.686E-3</v>
+        <v>2.493E-3</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" si="1"/>
-        <v>4.3898102839205144E-2</v>
+        <v>3.6810499481382486E-2</v>
       </c>
       <c r="F15" s="23">
-        <v>41.65</v>
+        <v>40.130000000000003</v>
       </c>
       <c r="G15" s="26">
         <f t="shared" si="2"/>
-        <v>2780.0500000000006</v>
+        <v>2428.15</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="3"/>
@@ -5051,18 +5327,18 @@
         <v>45308</v>
       </c>
       <c r="D16" s="5">
-        <v>3.6800000000000001E-3</v>
+        <v>3.4719999999999998E-3</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" si="1"/>
-        <v>4.7739647857653278E-2</v>
+        <v>4.0410305535581781E-2</v>
       </c>
       <c r="F16" s="23">
-        <v>246.53</v>
+        <v>198.96</v>
       </c>
       <c r="G16" s="26">
         <f t="shared" si="2"/>
-        <v>3026.5800000000008</v>
+        <v>2627.11</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="3"/>
@@ -5074,21 +5350,21 @@
         <v>45309</v>
       </c>
       <c r="D17" s="5">
-        <v>6.4489999999999999E-3</v>
+        <v>5.4710000000000002E-3</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" si="1"/>
-        <v>5.4496520846687213E-2</v>
+        <v>4.6102390317166897E-2</v>
       </c>
       <c r="F17" s="23">
-        <v>393.39</v>
+        <v>294.54000000000002</v>
       </c>
       <c r="G17" s="26">
         <f t="shared" si="2"/>
-        <v>3419.9700000000007</v>
+        <v>2921.65</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" ref="H17:H23" si="4">H16+1</f>
+        <f t="shared" ref="H17:H24" si="4">H16+1</f>
         <v>12</v>
       </c>
       <c r="I17" s="7"/>
@@ -5098,18 +5374,18 @@
         <v>45310</v>
       </c>
       <c r="D18" s="5">
-        <v>2.6819999999999999E-3</v>
+        <v>3.4359999999999998E-3</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" si="1"/>
-        <v>5.7324680515598025E-2</v>
+        <v>4.9696798130296704E-2</v>
       </c>
       <c r="F18" s="23">
-        <v>70</v>
+        <v>-57.73</v>
       </c>
       <c r="G18" s="26">
         <f t="shared" si="2"/>
-        <v>3489.9700000000007</v>
+        <v>2863.92</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="4"/>
@@ -5122,18 +5398,18 @@
         <v>45313</v>
       </c>
       <c r="D19" s="5">
-        <v>1.4120000000000001E-3</v>
+        <v>1.124E-3</v>
       </c>
       <c r="E19" s="5">
-        <f>(1+E18) * (1+D19)-1</f>
-        <v>5.8817622964486116E-2</v>
+        <f t="shared" ref="E19:E24" si="5">(1+E18) * (1+D19)-1</f>
+        <v>5.0876657331395014E-2</v>
       </c>
       <c r="F19" s="23">
-        <v>92.01</v>
+        <v>71.05</v>
       </c>
       <c r="G19" s="26">
         <f t="shared" si="2"/>
-        <v>3581.9800000000009</v>
+        <v>2934.9700000000003</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="4"/>
@@ -5145,18 +5421,18 @@
         <v>45314</v>
       </c>
       <c r="D20" s="5">
-        <v>1.4610000000000001E-3</v>
+        <v>1.276E-3</v>
       </c>
       <c r="E20" s="5">
-        <f>(1+E19) * (1+D20)-1</f>
-        <v>6.0364555511637219E-2</v>
+        <f t="shared" si="5"/>
+        <v>5.2217575946149841E-2</v>
       </c>
       <c r="F20" s="23">
-        <v>144.21</v>
+        <v>112.12</v>
       </c>
       <c r="G20" s="26">
         <f t="shared" si="2"/>
-        <v>3726.190000000001</v>
+        <v>3047.09</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="4"/>
@@ -5168,18 +5444,18 @@
         <v>45315</v>
       </c>
       <c r="D21" s="5">
-        <v>5.31E-4</v>
+        <v>5.9199999999999997E-4</v>
       </c>
       <c r="E21" s="5">
-        <f>(1+E20) * (1+D21)-1</f>
-        <v>6.0927609090613899E-2</v>
+        <f t="shared" si="5"/>
+        <v>5.2840488751109804E-2</v>
       </c>
       <c r="F21" s="23">
-        <v>48.98</v>
+        <v>-54.77</v>
       </c>
       <c r="G21" s="26">
         <f t="shared" si="2"/>
-        <v>3775.170000000001</v>
+        <v>2992.32</v>
       </c>
       <c r="H21" s="3">
         <f t="shared" si="4"/>
@@ -5191,18 +5467,18 @@
         <v>45316</v>
       </c>
       <c r="D22" s="5">
-        <v>-5.9199999999999997E-4</v>
+        <v>5.31E-4</v>
       </c>
       <c r="E22" s="5">
-        <f>(1+E21) * (1+D22)-1</f>
-        <v>6.029953994603221E-2</v>
+        <f t="shared" si="5"/>
+        <v>5.3399547050636764E-2</v>
       </c>
       <c r="F22" s="23">
-        <v>-54.77</v>
+        <v>48.98</v>
       </c>
       <c r="G22" s="26">
         <f t="shared" si="2"/>
-        <v>3720.400000000001</v>
+        <v>3041.3</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="4"/>
@@ -5215,18 +5491,18 @@
         <v>45317</v>
       </c>
       <c r="D23" s="5">
-        <v>-3.6699999999999998E-4</v>
+        <v>1.7210000000000001E-3</v>
       </c>
       <c r="E23" s="5">
-        <f>(1+E22) * (1+D23)-1</f>
-        <v>5.9910410014871962E-2</v>
+        <f t="shared" si="5"/>
+        <v>5.5212447671111109E-2</v>
       </c>
       <c r="F23" s="23">
-        <v>-32.880000000000003</v>
+        <v>49.41</v>
       </c>
       <c r="G23" s="26">
         <f t="shared" si="2"/>
-        <v>3687.5200000000009</v>
+        <v>3090.71</v>
       </c>
       <c r="H23" s="3">
         <f t="shared" si="4"/>
@@ -5236,31 +5512,52 @@
       <c r="J23" s="7"/>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.45">
-      <c r="D24" s="3"/>
+      <c r="C24" s="22">
+        <v>45320</v>
+      </c>
+      <c r="D24" s="5">
+        <v>2.5270000000000002E-3</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" si="5"/>
+        <v>5.7878969526375945E-2</v>
+      </c>
+      <c r="F24" s="23">
+        <v>65.44</v>
+      </c>
+      <c r="G24" s="26">
+        <f t="shared" si="2"/>
+        <v>3156.15</v>
+      </c>
+      <c r="H24" s="3">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
       <c r="I24" s="7"/>
     </row>
     <row r="25" spans="3:10" x14ac:dyDescent="0.45">
+      <c r="D25" s="3"/>
       <c r="I25" s="7"/>
-    </row>
-    <row r="27" spans="3:10" ht="18" x14ac:dyDescent="0.4">
-      <c r="C27" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="7"/>
     </row>
     <row r="28" spans="3:10" ht="18" x14ac:dyDescent="0.4">
       <c r="C28" s="7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="27"/>
       <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="3:10" ht="18" x14ac:dyDescent="0.4">
+      <c r="C29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5967,7 +6264,7 @@
     </row>
     <row r="23" spans="3:10" ht="18" x14ac:dyDescent="0.4">
       <c r="C23" s="28" t="str">
-        <f>'1M'!C28</f>
+        <f>'1M'!C29</f>
         <v>Analyze 1000+ liquid securities.  Most have 1 million+ daily volume</v>
       </c>
       <c r="D23" s="28"/>

--- a/Session/Annual.xlsx
+++ b/Session/Annual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdang\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7455F2-E006-4FE7-B6E9-2865B98D71A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CD0598-137F-48FE-8706-F0357B38DBE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="1030" windowWidth="20440" windowHeight="13770" xr2:uid="{8CA18F37-2DAB-41C4-ADD2-73D1823D0F11}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{8CA18F37-2DAB-41C4-ADD2-73D1823D0F11}"/>
   </bookViews>
   <sheets>
     <sheet name="1M" sheetId="2" r:id="rId1"/>
@@ -632,10 +632,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'1M'!$C$5:$C$24</c:f>
+              <c:f>'1M'!$C$5:$C$25</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>45289</c:v>
                 </c:pt>
@@ -695,16 +695,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>45320</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45321</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1M'!$E$5:$E$24</c:f>
+              <c:f>'1M'!$E$5:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000%</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2.7550000000000001E-3</c:v>
                 </c:pt>
@@ -764,6 +767,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>5.7878969526375945E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.0766979113182851E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1052,10 +1058,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'1M'!$C$5:$C$24</c:f>
+              <c:f>'1M'!$C$5:$C$25</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>45289</c:v>
                 </c:pt>
@@ -1115,16 +1121,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>45320</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45321</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1M'!$G$5:$G$24</c:f>
+              <c:f>'1M'!$G$5:$G$25</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>152.62</c:v>
                 </c:pt>
@@ -1184,6 +1193,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>3156.15</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3591.3900000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4687,8 +4699,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}" name="Table13" displayName="Table13" ref="C4:H24" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="C4:H24" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}" name="Table13" displayName="Table13" ref="C4:H25" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="C4:H25" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{F8E318FB-3A88-409A-BC49-859E7AEA63D2}" name="Date" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{86FD5971-5C1C-45C8-8277-4D0CBFF21F1F}" name="Daily Return" dataDxfId="9"/>
@@ -5019,10 +5031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF9745B-B45F-435E-ACD3-428BC7435D9E}">
-  <dimension ref="C2:J29"/>
+  <dimension ref="C2:J30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
@@ -5130,7 +5142,7 @@
         <v>302.72000000000003</v>
       </c>
       <c r="G7" s="26">
-        <f t="shared" ref="G7:G24" si="2">F7+G6</f>
+        <f t="shared" ref="G7:G25" si="2">F7+G6</f>
         <v>592.93000000000006</v>
       </c>
       <c r="H7" s="3">
@@ -5364,7 +5376,7 @@
         <v>2921.65</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" ref="H17:H24" si="4">H16+1</f>
+        <f t="shared" ref="H17:H25" si="4">H16+1</f>
         <v>12</v>
       </c>
       <c r="I17" s="7"/>
@@ -5536,28 +5548,51 @@
       <c r="I24" s="7"/>
     </row>
     <row r="25" spans="3:10" x14ac:dyDescent="0.45">
-      <c r="D25" s="3"/>
+      <c r="C25" s="22">
+        <v>45321</v>
+      </c>
+      <c r="D25" s="5">
+        <v>2.7299999999999998E-3</v>
+      </c>
+      <c r="E25" s="5">
+        <f>(1+E24) * (1+D25)-1</f>
+        <v>6.0766979113182851E-2</v>
+      </c>
+      <c r="F25" s="23">
+        <v>435.24</v>
+      </c>
+      <c r="G25" s="26">
+        <f t="shared" si="2"/>
+        <v>3591.3900000000003</v>
+      </c>
+      <c r="H25" s="3">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="28" spans="3:10" ht="18" x14ac:dyDescent="0.4">
-      <c r="C28" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="7"/>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.45">
+      <c r="D26" s="3"/>
     </row>
     <row r="29" spans="3:10" ht="18" x14ac:dyDescent="0.4">
       <c r="C29" s="7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="27"/>
       <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="3:10" ht="18" x14ac:dyDescent="0.4">
+      <c r="C30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6264,7 +6299,7 @@
     </row>
     <row r="23" spans="3:10" ht="18" x14ac:dyDescent="0.4">
       <c r="C23" s="28" t="str">
-        <f>'1M'!C29</f>
+        <f>'1M'!C30</f>
         <v>Analyze 1000+ liquid securities.  Most have 1 million+ daily volume</v>
       </c>
       <c r="D23" s="28"/>

--- a/Session/Annual.xlsx
+++ b/Session/Annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdang\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CD0598-137F-48FE-8706-F0357B38DBE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AEBE85-FDF5-4853-83A5-8BC09842F106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{8CA18F37-2DAB-41C4-ADD2-73D1823D0F11}"/>
   </bookViews>
@@ -632,10 +632,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'1M'!$C$5:$C$25</c:f>
+              <c:f>'1M'!$C$5:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>45289</c:v>
                 </c:pt>
@@ -698,16 +698,19 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>45321</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1M'!$E$5:$E$25</c:f>
+              <c:f>'1M'!$E$5:$E$26</c:f>
               <c:numCache>
                 <c:formatCode>0.0000%</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>2.7550000000000001E-3</c:v>
                 </c:pt>
@@ -770,6 +773,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>6.0766979113182851E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.2493907755179157E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1058,10 +1064,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'1M'!$C$5:$C$25</c:f>
+              <c:f>'1M'!$C$5:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>45289</c:v>
                 </c:pt>
@@ -1124,16 +1130,19 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>45321</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1M'!$G$5:$G$25</c:f>
+              <c:f>'1M'!$G$5:$G$26</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>152.62</c:v>
                 </c:pt>
@@ -1196,6 +1205,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>3591.3900000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3917.3700000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4699,8 +4711,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}" name="Table13" displayName="Table13" ref="C4:H25" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="C4:H25" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}" name="Table13" displayName="Table13" ref="C4:H26" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="C4:H26" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{F8E318FB-3A88-409A-BC49-859E7AEA63D2}" name="Date" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{86FD5971-5C1C-45C8-8277-4D0CBFF21F1F}" name="Daily Return" dataDxfId="9"/>
@@ -5031,10 +5043,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF9745B-B45F-435E-ACD3-428BC7435D9E}">
-  <dimension ref="C2:J30"/>
+  <dimension ref="C2:J31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
@@ -5376,7 +5388,7 @@
         <v>2921.65</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" ref="H17:H25" si="4">H16+1</f>
+        <f t="shared" ref="H17:H26" si="4">H16+1</f>
         <v>12</v>
       </c>
       <c r="I17" s="7"/>
@@ -5572,27 +5584,50 @@
       <c r="I25" s="7"/>
     </row>
     <row r="26" spans="3:10" x14ac:dyDescent="0.45">
-      <c r="D26" s="3"/>
-    </row>
-    <row r="29" spans="3:10" ht="18" x14ac:dyDescent="0.4">
-      <c r="C29" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="7"/>
+      <c r="C26" s="22">
+        <v>45322</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1.6280000000000001E-3</v>
+      </c>
+      <c r="E26" s="5">
+        <f>(1+E25) * (1+D26)-1</f>
+        <v>6.2493907755179157E-2</v>
+      </c>
+      <c r="F26" s="23">
+        <v>325.98</v>
+      </c>
+      <c r="G26" s="26">
+        <f t="shared" ref="G26" si="6">F26+G25</f>
+        <v>3917.3700000000003</v>
+      </c>
+      <c r="H26" s="3">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.45">
+      <c r="D27" s="3"/>
     </row>
     <row r="30" spans="3:10" ht="18" x14ac:dyDescent="0.4">
       <c r="C30" s="7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="27"/>
       <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="3:10" ht="18" x14ac:dyDescent="0.4">
+      <c r="C31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6299,7 +6334,7 @@
     </row>
     <row r="23" spans="3:10" ht="18" x14ac:dyDescent="0.4">
       <c r="C23" s="28" t="str">
-        <f>'1M'!C30</f>
+        <f>'1M'!C31</f>
         <v>Analyze 1000+ liquid securities.  Most have 1 million+ daily volume</v>
       </c>
       <c r="D23" s="28"/>

--- a/Session/Annual.xlsx
+++ b/Session/Annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdang\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AEBE85-FDF5-4853-83A5-8BC09842F106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0239F89-C6CB-4D20-94EB-F242A3B6632C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{8CA18F37-2DAB-41C4-ADD2-73D1823D0F11}"/>
   </bookViews>
@@ -632,10 +632,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'1M'!$C$5:$C$26</c:f>
+              <c:f>'1M'!$C$5:$C$27</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>45289</c:v>
                 </c:pt>
@@ -701,16 +701,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45323</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1M'!$E$5:$E$26</c:f>
+              <c:f>'1M'!$E$5:$E$27</c:f>
               <c:numCache>
                 <c:formatCode>0.0000%</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>2.7550000000000001E-3</c:v>
                 </c:pt>
@@ -776,6 +779,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>6.2493907755179157E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.4788894595930291E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1064,10 +1070,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'1M'!$C$5:$C$26</c:f>
+              <c:f>'1M'!$C$5:$C$27</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>45289</c:v>
                 </c:pt>
@@ -1133,16 +1139,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45323</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1M'!$G$5:$G$26</c:f>
+              <c:f>'1M'!$G$5:$G$27</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>152.62</c:v>
                 </c:pt>
@@ -1208,6 +1217,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>3917.3700000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3766.84</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1313,7 +1325,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4711,8 +4723,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}" name="Table13" displayName="Table13" ref="C4:H26" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="C4:H26" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}" name="Table13" displayName="Table13" ref="C4:H27" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="C4:H27" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{F8E318FB-3A88-409A-BC49-859E7AEA63D2}" name="Date" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{86FD5971-5C1C-45C8-8277-4D0CBFF21F1F}" name="Daily Return" dataDxfId="9"/>
@@ -5043,16 +5055,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF9745B-B45F-435E-ACD3-428BC7435D9E}">
-  <dimension ref="C2:J31"/>
+  <dimension ref="C2:J32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.453125" customWidth="1"/>
     <col min="7" max="7" width="15.453125" style="24" bestFit="1" customWidth="1"/>
@@ -5388,7 +5400,7 @@
         <v>2921.65</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" ref="H17:H26" si="4">H16+1</f>
+        <f t="shared" ref="H17:H27" si="4">H16+1</f>
         <v>12</v>
       </c>
       <c r="I17" s="7"/>
@@ -5607,27 +5619,50 @@
       </c>
     </row>
     <row r="27" spans="3:10" x14ac:dyDescent="0.45">
-      <c r="D27" s="3"/>
-    </row>
-    <row r="30" spans="3:10" ht="18" x14ac:dyDescent="0.4">
-      <c r="C30" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="7"/>
+      <c r="C27" s="22">
+        <v>45323</v>
+      </c>
+      <c r="D27" s="5">
+        <v>2.16E-3</v>
+      </c>
+      <c r="E27" s="5">
+        <f>(1+E26) * (1+D27)-1</f>
+        <v>6.4788894595930291E-2</v>
+      </c>
+      <c r="F27" s="23">
+        <v>-150.53</v>
+      </c>
+      <c r="G27" s="26">
+        <f t="shared" ref="G27" si="7">F27+G26</f>
+        <v>3766.84</v>
+      </c>
+      <c r="H27" s="3">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.45">
+      <c r="D28" s="3"/>
     </row>
     <row r="31" spans="3:10" ht="18" x14ac:dyDescent="0.4">
       <c r="C31" s="7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="27"/>
       <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="3:10" ht="18" x14ac:dyDescent="0.4">
+      <c r="C32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6334,7 +6369,7 @@
     </row>
     <row r="23" spans="3:10" ht="18" x14ac:dyDescent="0.4">
       <c r="C23" s="28" t="str">
-        <f>'1M'!C31</f>
+        <f>'1M'!C32</f>
         <v>Analyze 1000+ liquid securities.  Most have 1 million+ daily volume</v>
       </c>
       <c r="D23" s="28"/>

--- a/Session/Annual.xlsx
+++ b/Session/Annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdang\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0239F89-C6CB-4D20-94EB-F242A3B6632C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810B64B7-38A0-4B53-9938-161E87E0F412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{8CA18F37-2DAB-41C4-ADD2-73D1823D0F11}"/>
   </bookViews>
@@ -781,7 +781,7 @@
                   <c:v>6.2493907755179157E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.4788894595930291E-2</c:v>
+                  <c:v>6.4401084319599677E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1219,7 +1219,7 @@
                   <c:v>3917.3700000000003</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3766.84</c:v>
+                  <c:v>3785.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5058,7 +5058,7 @@
   <dimension ref="C2:J32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
@@ -5623,18 +5623,18 @@
         <v>45323</v>
       </c>
       <c r="D27" s="5">
-        <v>2.16E-3</v>
+        <v>1.7949999999999999E-3</v>
       </c>
       <c r="E27" s="5">
         <f>(1+E26) * (1+D27)-1</f>
-        <v>6.4788894595930291E-2</v>
+        <v>6.4401084319599677E-2</v>
       </c>
       <c r="F27" s="23">
-        <v>-150.53</v>
+        <v>-132.32</v>
       </c>
       <c r="G27" s="26">
         <f t="shared" ref="G27" si="7">F27+G26</f>
-        <v>3766.84</v>
+        <v>3785.05</v>
       </c>
       <c r="H27" s="3">
         <f t="shared" si="4"/>

--- a/Session/Annual.xlsx
+++ b/Session/Annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdang\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810B64B7-38A0-4B53-9938-161E87E0F412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F461AE-3250-41B7-8E36-5C7C8323D2A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{8CA18F37-2DAB-41C4-ADD2-73D1823D0F11}"/>
   </bookViews>
@@ -630,12 +630,62 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="50800" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.9302274715660541E-2"/>
+                  <c:y val="0.44745771361913095"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'1M'!$C$5:$C$27</c:f>
+              <c:f>'1M'!$C$5:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>45289</c:v>
                 </c:pt>
@@ -704,16 +754,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45323</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45324</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1M'!$E$5:$E$27</c:f>
+              <c:f>'1M'!$E$5:$E$28</c:f>
               <c:numCache>
                 <c:formatCode>0.0000%</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>2.7550000000000001E-3</c:v>
                 </c:pt>
@@ -782,6 +835,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>6.4401084319599677E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.4624608547306783E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1068,12 +1124,95 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="50800" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.10702515310586176"/>
+                  <c:y val="0.43939814814814815"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" b="1" baseline="0"/>
+                      <a:t>y = 100.28x - 5E+06</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" b="1" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" b="1" baseline="0"/>
+                      <a:t>R² = 0.938</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" b="1"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'1M'!$C$5:$C$27</c:f>
+              <c:f>'1M'!$C$5:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>45289</c:v>
                 </c:pt>
@@ -1142,16 +1281,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45323</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45324</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1M'!$G$5:$G$27</c:f>
+              <c:f>'1M'!$G$5:$G$28</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>152.62</c:v>
                 </c:pt>
@@ -1220,6 +1362,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>3785.05</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3793.3700000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4723,8 +4868,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}" name="Table13" displayName="Table13" ref="C4:H27" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="C4:H27" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}" name="Table13" displayName="Table13" ref="C4:H28" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="C4:H28" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{F8E318FB-3A88-409A-BC49-859E7AEA63D2}" name="Date" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{86FD5971-5C1C-45C8-8277-4D0CBFF21F1F}" name="Daily Return" dataDxfId="9"/>
@@ -5055,10 +5200,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF9745B-B45F-435E-ACD3-428BC7435D9E}">
-  <dimension ref="C2:J32"/>
+  <dimension ref="C2:J33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
@@ -5072,7 +5217,7 @@
     <col min="9" max="9" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="3:9" ht="18" x14ac:dyDescent="0.4">
       <c r="C2" s="28" t="s">
         <v>3</v>
       </c>
@@ -5400,7 +5545,7 @@
         <v>2921.65</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" ref="H17:H27" si="4">H16+1</f>
+        <f t="shared" ref="H17:H28" si="4">H16+1</f>
         <v>12</v>
       </c>
       <c r="I17" s="7"/>
@@ -5642,27 +5787,50 @@
       </c>
     </row>
     <row r="28" spans="3:10" x14ac:dyDescent="0.45">
-      <c r="D28" s="3"/>
-    </row>
-    <row r="31" spans="3:10" ht="18" x14ac:dyDescent="0.4">
-      <c r="C31" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="7"/>
+      <c r="C28" s="22">
+        <v>45324</v>
+      </c>
+      <c r="D28" s="5">
+        <v>2.1000000000000001E-4</v>
+      </c>
+      <c r="E28" s="5">
+        <f>(1+E27) * (1+D28)-1</f>
+        <v>6.4624608547306783E-2</v>
+      </c>
+      <c r="F28" s="23">
+        <v>8.32</v>
+      </c>
+      <c r="G28" s="26">
+        <f t="shared" ref="G28" si="8">F28+G27</f>
+        <v>3793.3700000000003</v>
+      </c>
+      <c r="H28" s="3">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10" x14ac:dyDescent="0.45">
+      <c r="D29" s="3"/>
     </row>
     <row r="32" spans="3:10" ht="18" x14ac:dyDescent="0.4">
       <c r="C32" s="7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="27"/>
       <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="3:8" ht="18" x14ac:dyDescent="0.4">
+      <c r="C33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6369,7 +6537,7 @@
     </row>
     <row r="23" spans="3:10" ht="18" x14ac:dyDescent="0.4">
       <c r="C23" s="28" t="str">
-        <f>'1M'!C32</f>
+        <f>'1M'!C33</f>
         <v>Analyze 1000+ liquid securities.  Most have 1 million+ daily volume</v>
       </c>
       <c r="D23" s="28"/>

--- a/Session/Annual.xlsx
+++ b/Session/Annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdang\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F461AE-3250-41B7-8E36-5C7C8323D2A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4710E0FC-110F-417D-897B-8EB89D384805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{8CA18F37-2DAB-41C4-ADD2-73D1823D0F11}"/>
   </bookViews>
@@ -837,7 +837,7 @@
                   <c:v>6.4401084319599677E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.4624608547306783E-2</c:v>
+                  <c:v>6.4415985934780151E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1364,7 +1364,7 @@
                   <c:v>3785.05</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3793.3700000000003</c:v>
+                  <c:v>3785.61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5203,7 +5203,7 @@
   <dimension ref="C2:J33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T33" sqref="T33"/>
+      <selection activeCell="T34" sqref="T34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
@@ -5791,18 +5791,18 @@
         <v>45324</v>
       </c>
       <c r="D28" s="5">
-        <v>2.1000000000000001E-4</v>
+        <v>1.4E-5</v>
       </c>
       <c r="E28" s="5">
         <f>(1+E27) * (1+D28)-1</f>
-        <v>6.4624608547306783E-2</v>
+        <v>6.4415985934780151E-2</v>
       </c>
       <c r="F28" s="23">
-        <v>8.32</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="G28" s="26">
         <f t="shared" ref="G28" si="8">F28+G27</f>
-        <v>3793.3700000000003</v>
+        <v>3785.61</v>
       </c>
       <c r="H28" s="3">
         <f t="shared" si="4"/>

--- a/Session/Annual.xlsx
+++ b/Session/Annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdang\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4710E0FC-110F-417D-897B-8EB89D384805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6889F48-C8CA-4206-9FE2-AA62359246C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{8CA18F37-2DAB-41C4-ADD2-73D1823D0F11}"/>
   </bookViews>
@@ -557,6 +557,28 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Cumulative Daily</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -570,12 +592,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -663,12 +682,9 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
+                        <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:latin typeface="+mn-lt"/>
                       <a:ea typeface="+mn-ea"/>
@@ -682,10 +698,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'1M'!$C$5:$C$28</c:f>
+              <c:f>'1M'!$C$5:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>45289</c:v>
                 </c:pt>
@@ -757,16 +773,19 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>45324</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45327</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1M'!$E$5:$E$28</c:f>
+              <c:f>'1M'!$E$5:$E$29</c:f>
               <c:numCache>
                 <c:formatCode>0.0000%</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>2.7550000000000001E-3</c:v>
                 </c:pt>
@@ -838,6 +857,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>6.4415985934780151E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.1182478357367573E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -903,12 +925,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -965,12 +984,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -985,7 +1001,36 @@
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
-        <a:noFill/>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent5">
+                <a:lumMod val="5000"/>
+                <a:lumOff val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="74000">
+              <a:schemeClr val="accent5">
+                <a:lumMod val="45000"/>
+                <a:lumOff val="55000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="83000">
+              <a:schemeClr val="accent5">
+                <a:lumMod val="45000"/>
+                <a:lumOff val="55000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent5">
+                <a:lumMod val="30000"/>
+                <a:lumOff val="70000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -1004,9 +1049,36 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="accent5">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="74000">
+          <a:schemeClr val="accent5">
+            <a:lumMod val="45000"/>
+            <a:lumOff val="55000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="83000">
+          <a:schemeClr val="accent5">
+            <a:lumMod val="45000"/>
+            <a:lumOff val="55000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="accent5">
+            <a:lumMod val="30000"/>
+            <a:lumOff val="70000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:lin ang="5400000" scaled="1"/>
+      <a:tileRect/>
+    </a:gradFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="tx1">
@@ -1023,7 +1095,14 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1051,6 +1130,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Cumulative Weighted</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1209,10 +1313,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'1M'!$C$5:$C$28</c:f>
+              <c:f>'1M'!$C$5:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>45289</c:v>
                 </c:pt>
@@ -1284,16 +1388,19 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>45324</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45327</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1M'!$G$5:$G$28</c:f>
+              <c:f>'1M'!$G$5:$G$29</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>152.62</c:v>
                 </c:pt>
@@ -1365,6 +1472,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>3785.61</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4027.81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1459,12 +1569,35 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="5000"/>
+                      <a:lumOff val="95000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="74000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="83000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="30000"/>
+                      <a:lumOff val="70000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="1"/>
+              </a:gradFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1531,9 +1664,36 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="accent6">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="74000">
+          <a:schemeClr val="accent6">
+            <a:lumMod val="45000"/>
+            <a:lumOff val="55000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="83000">
+          <a:schemeClr val="accent6">
+            <a:lumMod val="45000"/>
+            <a:lumOff val="55000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="accent6">
+            <a:lumMod val="30000"/>
+            <a:lumOff val="70000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:lin ang="5400000" scaled="1"/>
+      <a:tileRect/>
+    </a:gradFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="tx1">
@@ -4868,8 +5028,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}" name="Table13" displayName="Table13" ref="C4:H28" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="C4:H28" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}" name="Table13" displayName="Table13" ref="C4:H29" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="C4:H29" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{F8E318FB-3A88-409A-BC49-859E7AEA63D2}" name="Date" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{86FD5971-5C1C-45C8-8277-4D0CBFF21F1F}" name="Daily Return" dataDxfId="9"/>
@@ -5200,20 +5360,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF9745B-B45F-435E-ACD3-428BC7435D9E}">
-  <dimension ref="C2:J33"/>
+  <dimension ref="C2:J34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T34" sqref="T34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.453125" customWidth="1"/>
-    <col min="7" max="7" width="15.453125" style="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.81640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7265625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="41" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5545,7 +5705,7 @@
         <v>2921.65</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" ref="H17:H28" si="4">H16+1</f>
+        <f t="shared" ref="H17:H29" si="4">H16+1</f>
         <v>12</v>
       </c>
       <c r="I17" s="7"/>
@@ -5810,27 +5970,50 @@
       </c>
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.45">
-      <c r="D29" s="3"/>
-    </row>
-    <row r="32" spans="3:10" ht="18" x14ac:dyDescent="0.4">
-      <c r="C32" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="7"/>
+      <c r="C29" s="22">
+        <v>45327</v>
+      </c>
+      <c r="D29" s="5">
+        <v>6.3569999999999998E-3</v>
+      </c>
+      <c r="E29" s="5">
+        <f>(1+E28) * (1+D29)-1</f>
+        <v>7.1182478357367573E-2</v>
+      </c>
+      <c r="F29" s="23">
+        <v>242.2</v>
+      </c>
+      <c r="G29" s="26">
+        <f t="shared" ref="G29" si="9">F29+G28</f>
+        <v>4027.81</v>
+      </c>
+      <c r="H29" s="3">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.45">
+      <c r="D30" s="3"/>
     </row>
     <row r="33" spans="3:8" ht="18" x14ac:dyDescent="0.4">
       <c r="C33" s="7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="27"/>
       <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="3:8" ht="18" x14ac:dyDescent="0.4">
+      <c r="C34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6537,7 +6720,7 @@
     </row>
     <row r="23" spans="3:10" ht="18" x14ac:dyDescent="0.4">
       <c r="C23" s="28" t="str">
-        <f>'1M'!C33</f>
+        <f>'1M'!C34</f>
         <v>Analyze 1000+ liquid securities.  Most have 1 million+ daily volume</v>
       </c>
       <c r="D23" s="28"/>

--- a/Session/Annual.xlsx
+++ b/Session/Annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdang\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6889F48-C8CA-4206-9FE2-AA62359246C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C4286C-0B03-4EC7-80DE-1EAF5930D3DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{8CA18F37-2DAB-41C4-ADD2-73D1823D0F11}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Cumulative Weighted</t>
+  </si>
+  <si>
+    <t>Projected Annual Return</t>
   </si>
 </sst>
 </file>
@@ -292,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -353,6 +356,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -859,7 +868,7 @@
                   <c:v>6.4415985934780151E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.1182478357367573E-2</c:v>
+                  <c:v>7.0630046460667506E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1474,7 +1483,7 @@
                   <c:v>3785.61</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4027.81</c:v>
+                  <c:v>4026.73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4873,15 +4882,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>530225</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>619873</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85164</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>578410</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>16435</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4909,15 +4918,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>536575</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:colOff>618751</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>150906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>263525</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>577288</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>74707</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5360,10 +5369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF9745B-B45F-435E-ACD3-428BC7435D9E}">
-  <dimension ref="C2:J34"/>
+  <dimension ref="C2:K34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
@@ -5374,10 +5383,9 @@
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.81640625" style="24" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:9" ht="18" x14ac:dyDescent="0.4">
+    <row r="2" spans="3:11" ht="23.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C2" s="28" t="s">
         <v>3</v>
       </c>
@@ -5386,12 +5394,11 @@
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-    </row>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C3"/>
     </row>
-    <row r="4" spans="3:9" ht="37" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:11" ht="37" x14ac:dyDescent="0.45">
       <c r="C4" s="21" t="s">
         <v>0</v>
       </c>
@@ -5410,8 +5417,15 @@
       <c r="H4" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="J4" s="30">
+        <f>(1+AVERAGE(D:D))^250-1</f>
+        <v>0.97950456049897983</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C5" s="22">
         <v>45289</v>
       </c>
@@ -5433,7 +5447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C6" s="22">
         <v>45293</v>
       </c>
@@ -5456,7 +5470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C7" s="22">
         <v>45294</v>
       </c>
@@ -5479,7 +5493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C8" s="22">
         <v>45295</v>
       </c>
@@ -5502,7 +5516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C9" s="22">
         <v>45296</v>
       </c>
@@ -5525,7 +5539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C10" s="22">
         <v>45299</v>
       </c>
@@ -5548,7 +5562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C11" s="22">
         <v>45300</v>
       </c>
@@ -5571,7 +5585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C12" s="22">
         <v>45301</v>
       </c>
@@ -5594,7 +5608,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C13" s="22">
         <v>45302</v>
       </c>
@@ -5617,7 +5631,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C14" s="22">
         <v>45303</v>
       </c>
@@ -5640,7 +5654,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C15" s="22">
         <v>45307</v>
       </c>
@@ -5663,7 +5677,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C16" s="22">
         <v>45308</v>
       </c>
@@ -5686,7 +5700,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C17" s="22">
         <v>45309</v>
       </c>
@@ -5708,9 +5722,8 @@
         <f t="shared" ref="H17:H29" si="4">H16+1</f>
         <v>12</v>
       </c>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C18" s="22">
         <v>45310</v>
       </c>
@@ -5732,9 +5745,8 @@
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C19" s="22">
         <v>45313</v>
       </c>
@@ -5757,7 +5769,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C20" s="22">
         <v>45314</v>
       </c>
@@ -5780,7 +5792,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C21" s="22">
         <v>45315</v>
       </c>
@@ -5803,7 +5815,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C22" s="22">
         <v>45316</v>
       </c>
@@ -5825,9 +5837,8 @@
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C23" s="22">
         <v>45317</v>
       </c>
@@ -5850,9 +5861,8 @@
         <v>18</v>
       </c>
       <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-    </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C24" s="22">
         <v>45320</v>
       </c>
@@ -5874,9 +5884,8 @@
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C25" s="22">
         <v>45321</v>
       </c>
@@ -5898,9 +5907,8 @@
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C26" s="22">
         <v>45322</v>
       </c>
@@ -5923,7 +5931,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C27" s="22">
         <v>45323</v>
       </c>
@@ -5946,7 +5954,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C28" s="22">
         <v>45324</v>
       </c>
@@ -5969,30 +5977,30 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C29" s="22">
         <v>45327</v>
       </c>
       <c r="D29" s="5">
-        <v>6.3569999999999998E-3</v>
+        <v>5.8380000000000003E-3</v>
       </c>
       <c r="E29" s="5">
         <f>(1+E28) * (1+D29)-1</f>
-        <v>7.1182478357367573E-2</v>
+        <v>7.0630046460667506E-2</v>
       </c>
       <c r="F29" s="23">
-        <v>242.2</v>
+        <v>241.12</v>
       </c>
       <c r="G29" s="26">
         <f t="shared" ref="G29" si="9">F29+G28</f>
-        <v>4027.81</v>
+        <v>4026.73</v>
       </c>
       <c r="H29" s="3">
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="3:9" x14ac:dyDescent="0.45">
       <c r="D30" s="3"/>
     </row>
     <row r="33" spans="3:8" ht="18" x14ac:dyDescent="0.4">
@@ -6017,7 +6025,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Session/Annual.xlsx
+++ b/Session/Annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdang\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C4286C-0B03-4EC7-80DE-1EAF5930D3DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54983FD8-90EC-4318-B93F-BED4E15CAFE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{8CA18F37-2DAB-41C4-ADD2-73D1823D0F11}"/>
   </bookViews>
@@ -354,14 +354,14 @@
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -707,10 +707,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'1M'!$C$5:$C$29</c:f>
+              <c:f>'1M'!$C$5:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>45289</c:v>
                 </c:pt>
@@ -785,16 +785,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45327</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1M'!$E$5:$E$29</c:f>
+              <c:f>'1M'!$E$5:$E$30</c:f>
               <c:numCache>
                 <c:formatCode>0.0000%</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>2.7550000000000001E-3</c:v>
                 </c:pt>
@@ -869,6 +872,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>7.0630046460667506E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.2064690722924762E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1322,10 +1328,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'1M'!$C$5:$C$29</c:f>
+              <c:f>'1M'!$C$5:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>45289</c:v>
                 </c:pt>
@@ -1400,16 +1406,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45327</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1M'!$G$5:$G$29</c:f>
+              <c:f>'1M'!$G$5:$G$30</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>152.62</c:v>
                 </c:pt>
@@ -1484,6 +1493,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>4026.73</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4119.9799999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5037,8 +5049,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}" name="Table13" displayName="Table13" ref="C4:H29" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="C4:H29" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}" name="Table13" displayName="Table13" ref="C4:H30" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="C4:H30" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{F8E318FB-3A88-409A-BC49-859E7AEA63D2}" name="Date" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{86FD5971-5C1C-45C8-8277-4D0CBFF21F1F}" name="Daily Return" dataDxfId="9"/>
@@ -5372,7 +5384,7 @@
   <dimension ref="C2:K34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+      <selection activeCell="U32" sqref="U32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
@@ -5386,14 +5398,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:11" ht="23.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
     </row>
     <row r="3" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C3"/>
@@ -5417,11 +5429,11 @@
       <c r="H4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="30">
+      <c r="J4" s="29">
         <f>(1+AVERAGE(D:D))^250-1</f>
-        <v>0.97950456049897983</v>
-      </c>
-      <c r="K4" s="29" t="s">
+        <v>0.95319835029486555</v>
+      </c>
+      <c r="K4" s="28" t="s">
         <v>15</v>
       </c>
     </row>
@@ -5719,7 +5731,7 @@
         <v>2921.65</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" ref="H17:H29" si="4">H16+1</f>
+        <f t="shared" ref="H17:H30" si="4">H16+1</f>
         <v>12</v>
       </c>
     </row>
@@ -6001,7 +6013,30 @@
       </c>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="D30" s="3"/>
+      <c r="C30" s="22">
+        <v>45328</v>
+      </c>
+      <c r="D30" s="5">
+        <v>1.34E-3</v>
+      </c>
+      <c r="E30" s="5">
+        <f>(1+E29) * (1+D30)-1</f>
+        <v>7.2064690722924762E-2</v>
+      </c>
+      <c r="F30" s="23">
+        <v>93.25</v>
+      </c>
+      <c r="G30" s="26">
+        <f t="shared" ref="G30" si="10">F30+G29</f>
+        <v>4119.9799999999996</v>
+      </c>
+      <c r="H30" s="3">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="D31" s="3"/>
     </row>
     <row r="33" spans="3:8" ht="18" x14ac:dyDescent="0.4">
       <c r="C33" s="7" t="s">
@@ -6053,13 +6088,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C3"/>
@@ -6307,23 +6342,23 @@
       <c r="D19" s="3"/>
     </row>
     <row r="22" spans="3:8" ht="18" x14ac:dyDescent="0.4">
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
     </row>
     <row r="23" spans="3:8" ht="18" x14ac:dyDescent="0.4">
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6360,16 +6395,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="28" t="str">
+      <c r="C2" s="30" t="str">
         <f>'250K'!C2</f>
         <v>https://ddrinq.github.io/ddrinq/Ticker.html</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C3"/>
@@ -6715,28 +6750,28 @@
       <c r="D21"/>
     </row>
     <row r="22" spans="3:10" ht="18" x14ac:dyDescent="0.4">
-      <c r="C22" s="28" t="str">
+      <c r="C22" s="30" t="str">
         <f>'250K'!C22</f>
         <v>Visit site to see next day trades we will be executing</v>
       </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
     </row>
     <row r="23" spans="3:10" ht="18" x14ac:dyDescent="0.4">
-      <c r="C23" s="28" t="str">
+      <c r="C23" s="30" t="str">
         <f>'1M'!C34</f>
         <v>Analyze 1000+ liquid securities.  Most have 1 million+ daily volume</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
       <c r="J23" s="7"/>
     </row>
   </sheetData>

--- a/Session/Annual.xlsx
+++ b/Session/Annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdang\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54983FD8-90EC-4318-B93F-BED4E15CAFE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAA1A14-EEE0-4089-9C2F-791991905C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{8CA18F37-2DAB-41C4-ADD2-73D1823D0F11}"/>
   </bookViews>
@@ -5905,7 +5905,7 @@
         <v>2.7299999999999998E-3</v>
       </c>
       <c r="E25" s="5">
-        <f>(1+E24) * (1+D25)-1</f>
+        <f t="shared" ref="E25:E30" si="6">(1+E24) * (1+D25)-1</f>
         <v>6.0766979113182851E-2</v>
       </c>
       <c r="F25" s="23">
@@ -5928,14 +5928,14 @@
         <v>1.6280000000000001E-3</v>
       </c>
       <c r="E26" s="5">
-        <f>(1+E25) * (1+D26)-1</f>
+        <f t="shared" si="6"/>
         <v>6.2493907755179157E-2</v>
       </c>
       <c r="F26" s="23">
         <v>325.98</v>
       </c>
       <c r="G26" s="26">
-        <f t="shared" ref="G26" si="6">F26+G25</f>
+        <f t="shared" ref="G26" si="7">F26+G25</f>
         <v>3917.3700000000003</v>
       </c>
       <c r="H26" s="3">
@@ -5951,14 +5951,14 @@
         <v>1.7949999999999999E-3</v>
       </c>
       <c r="E27" s="5">
-        <f>(1+E26) * (1+D27)-1</f>
+        <f t="shared" si="6"/>
         <v>6.4401084319599677E-2</v>
       </c>
       <c r="F27" s="23">
         <v>-132.32</v>
       </c>
       <c r="G27" s="26">
-        <f t="shared" ref="G27" si="7">F27+G26</f>
+        <f t="shared" ref="G27" si="8">F27+G26</f>
         <v>3785.05</v>
       </c>
       <c r="H27" s="3">
@@ -5974,14 +5974,14 @@
         <v>1.4E-5</v>
       </c>
       <c r="E28" s="5">
-        <f>(1+E27) * (1+D28)-1</f>
+        <f t="shared" si="6"/>
         <v>6.4415985934780151E-2</v>
       </c>
       <c r="F28" s="23">
         <v>0.56000000000000005</v>
       </c>
       <c r="G28" s="26">
-        <f t="shared" ref="G28" si="8">F28+G27</f>
+        <f t="shared" ref="G28" si="9">F28+G27</f>
         <v>3785.61</v>
       </c>
       <c r="H28" s="3">
@@ -5997,14 +5997,14 @@
         <v>5.8380000000000003E-3</v>
       </c>
       <c r="E29" s="5">
-        <f>(1+E28) * (1+D29)-1</f>
+        <f t="shared" si="6"/>
         <v>7.0630046460667506E-2</v>
       </c>
       <c r="F29" s="23">
         <v>241.12</v>
       </c>
       <c r="G29" s="26">
-        <f t="shared" ref="G29" si="9">F29+G28</f>
+        <f t="shared" ref="G29" si="10">F29+G28</f>
         <v>4026.73</v>
       </c>
       <c r="H29" s="3">
@@ -6020,14 +6020,14 @@
         <v>1.34E-3</v>
       </c>
       <c r="E30" s="5">
-        <f>(1+E29) * (1+D30)-1</f>
+        <f t="shared" si="6"/>
         <v>7.2064690722924762E-2</v>
       </c>
       <c r="F30" s="23">
         <v>93.25</v>
       </c>
       <c r="G30" s="26">
-        <f t="shared" ref="G30" si="10">F30+G29</f>
+        <f t="shared" ref="G30" si="11">F30+G29</f>
         <v>4119.9799999999996</v>
       </c>
       <c r="H30" s="3">

--- a/Session/Annual.xlsx
+++ b/Session/Annual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdang\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAA1A14-EEE0-4089-9C2F-791991905C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11EC5004-4D1C-4D26-91E1-AAC099C8D54D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{8CA18F37-2DAB-41C4-ADD2-73D1823D0F11}"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="19390" windowHeight="13770" xr2:uid="{8CA18F37-2DAB-41C4-ADD2-73D1823D0F11}"/>
   </bookViews>
   <sheets>
     <sheet name="1M" sheetId="2" r:id="rId1"/>
@@ -707,10 +707,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'1M'!$C$5:$C$30</c:f>
+              <c:f>'1M'!$C$5:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>45289</c:v>
                 </c:pt>
@@ -788,16 +788,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45328</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1M'!$E$5:$E$30</c:f>
+              <c:f>'1M'!$E$5:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>0.0000%</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>2.7550000000000001E-3</c:v>
                 </c:pt>
@@ -875,6 +878,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>7.2064690722924762E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.1979997612357627E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1328,10 +1334,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'1M'!$C$5:$C$30</c:f>
+              <c:f>'1M'!$C$5:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>45289</c:v>
                 </c:pt>
@@ -1409,16 +1415,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45328</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1M'!$G$5:$G$30</c:f>
+              <c:f>'1M'!$G$5:$G$31</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>152.62</c:v>
                 </c:pt>
@@ -1496,6 +1505,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>4119.9799999999996</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4115.0199999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5049,8 +5061,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}" name="Table13" displayName="Table13" ref="C4:H30" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="C4:H30" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}" name="Table13" displayName="Table13" ref="C4:H31" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="C4:H31" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{F8E318FB-3A88-409A-BC49-859E7AEA63D2}" name="Date" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{86FD5971-5C1C-45C8-8277-4D0CBFF21F1F}" name="Daily Return" dataDxfId="9"/>
@@ -5381,10 +5393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF9745B-B45F-435E-ACD3-428BC7435D9E}">
-  <dimension ref="C2:K34"/>
+  <dimension ref="C2:K35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U32" sqref="U32"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
@@ -5431,7 +5443,7 @@
       </c>
       <c r="J4" s="29">
         <f>(1+AVERAGE(D:D))^250-1</f>
-        <v>0.95319835029486555</v>
+        <v>0.90403522023091143</v>
       </c>
       <c r="K4" s="28" t="s">
         <v>15</v>
@@ -5731,7 +5743,7 @@
         <v>2921.65</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" ref="H17:H30" si="4">H16+1</f>
+        <f t="shared" ref="H17:H31" si="4">H16+1</f>
         <v>12</v>
       </c>
     </row>
@@ -6036,27 +6048,50 @@
       </c>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="D31" s="3"/>
-    </row>
-    <row r="33" spans="3:8" ht="18" x14ac:dyDescent="0.4">
-      <c r="C33" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="7"/>
+      <c r="C31" s="22">
+        <v>45329</v>
+      </c>
+      <c r="D31" s="5">
+        <v>-7.8999999999999996E-5</v>
+      </c>
+      <c r="E31" s="5">
+        <f>(1+E30) * (1+D31)-1</f>
+        <v>7.1979997612357627E-2</v>
+      </c>
+      <c r="F31" s="23">
+        <v>-4.96</v>
+      </c>
+      <c r="G31" s="26">
+        <f t="shared" ref="G31" si="12">F31+G30</f>
+        <v>4115.0199999999995</v>
+      </c>
+      <c r="H31" s="3">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="D32" s="3"/>
     </row>
     <row r="34" spans="3:8" ht="18" x14ac:dyDescent="0.4">
       <c r="C34" s="7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="27"/>
       <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="3:8" ht="18" x14ac:dyDescent="0.4">
+      <c r="C35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6763,7 +6798,7 @@
     </row>
     <row r="23" spans="3:10" ht="18" x14ac:dyDescent="0.4">
       <c r="C23" s="30" t="str">
-        <f>'1M'!C34</f>
+        <f>'1M'!C35</f>
         <v>Analyze 1000+ liquid securities.  Most have 1 million+ daily volume</v>
       </c>
       <c r="D23" s="30"/>

--- a/Session/Annual.xlsx
+++ b/Session/Annual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdang\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11EC5004-4D1C-4D26-91E1-AAC099C8D54D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936689D6-DDB7-41C9-8A4A-BBA9784A1A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="19390" windowHeight="13770" xr2:uid="{8CA18F37-2DAB-41C4-ADD2-73D1823D0F11}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{8CA18F37-2DAB-41C4-ADD2-73D1823D0F11}"/>
   </bookViews>
   <sheets>
     <sheet name="1M" sheetId="2" r:id="rId1"/>
@@ -707,10 +707,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'1M'!$C$5:$C$31</c:f>
+              <c:f>'1M'!$C$5:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>45289</c:v>
                 </c:pt>
@@ -791,16 +791,19 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45329</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45330</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1M'!$E$5:$E$31</c:f>
+              <c:f>'1M'!$E$5:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>0.0000%</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>2.7550000000000001E-3</c:v>
                 </c:pt>
@@ -881,6 +884,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>7.1979997612357627E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.3875258248136344E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1334,10 +1340,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'1M'!$C$5:$C$31</c:f>
+              <c:f>'1M'!$C$5:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>45289</c:v>
                 </c:pt>
@@ -1418,16 +1424,19 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45329</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45330</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1M'!$G$5:$G$31</c:f>
+              <c:f>'1M'!$G$5:$G$32</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>152.62</c:v>
                 </c:pt>
@@ -1508,6 +1517,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>4115.0199999999995</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4194.74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5061,8 +5073,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}" name="Table13" displayName="Table13" ref="C4:H31" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="C4:H31" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}" name="Table13" displayName="Table13" ref="C4:H32" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="C4:H32" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{F8E318FB-3A88-409A-BC49-859E7AEA63D2}" name="Date" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{86FD5971-5C1C-45C8-8277-4D0CBFF21F1F}" name="Daily Return" dataDxfId="9"/>
@@ -5393,10 +5405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF9745B-B45F-435E-ACD3-428BC7435D9E}">
-  <dimension ref="C2:K35"/>
+  <dimension ref="C2:K36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
@@ -5443,7 +5455,7 @@
       </c>
       <c r="J4" s="29">
         <f>(1+AVERAGE(D:D))^250-1</f>
-        <v>0.90403522023091143</v>
+        <v>0.89032903718297884</v>
       </c>
       <c r="K4" s="28" t="s">
         <v>15</v>
@@ -5743,7 +5755,7 @@
         <v>2921.65</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" ref="H17:H31" si="4">H16+1</f>
+        <f t="shared" ref="H17:H32" si="4">H16+1</f>
         <v>12</v>
       </c>
     </row>
@@ -6071,27 +6083,50 @@
       </c>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="D32" s="3"/>
-    </row>
-    <row r="34" spans="3:8" ht="18" x14ac:dyDescent="0.4">
-      <c r="C34" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="7"/>
+      <c r="C32" s="22">
+        <v>45330</v>
+      </c>
+      <c r="D32" s="5">
+        <v>1.768E-3</v>
+      </c>
+      <c r="E32" s="5">
+        <f>(1+E31) * (1+D32)-1</f>
+        <v>7.3875258248136344E-2</v>
+      </c>
+      <c r="F32" s="23">
+        <v>79.72</v>
+      </c>
+      <c r="G32" s="26">
+        <f t="shared" ref="G32" si="13">F32+G31</f>
+        <v>4194.74</v>
+      </c>
+      <c r="H32" s="3">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="D33" s="3"/>
     </row>
     <row r="35" spans="3:8" ht="18" x14ac:dyDescent="0.4">
       <c r="C35" s="7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="27"/>
       <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="3:8" ht="18" x14ac:dyDescent="0.4">
+      <c r="C36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6798,7 +6833,7 @@
     </row>
     <row r="23" spans="3:10" ht="18" x14ac:dyDescent="0.4">
       <c r="C23" s="30" t="str">
-        <f>'1M'!C35</f>
+        <f>'1M'!C36</f>
         <v>Analyze 1000+ liquid securities.  Most have 1 million+ daily volume</v>
       </c>
       <c r="D23" s="30"/>

--- a/Session/Annual.xlsx
+++ b/Session/Annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdang\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936689D6-DDB7-41C9-8A4A-BBA9784A1A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A19594B-4A1C-4D9E-B2E0-25BC93242DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{8CA18F37-2DAB-41C4-ADD2-73D1823D0F11}"/>
   </bookViews>
@@ -707,10 +707,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'1M'!$C$5:$C$32</c:f>
+              <c:f>'1M'!$C$5:$C$33</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>45289</c:v>
                 </c:pt>
@@ -794,16 +794,19 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45330</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1M'!$E$5:$E$32</c:f>
+              <c:f>'1M'!$E$5:$E$33</c:f>
               <c:numCache>
                 <c:formatCode>0.0000%</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>2.7550000000000001E-3</c:v>
                 </c:pt>
@@ -887,6 +890,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>7.3875258248136344E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.3779683350152281E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1340,10 +1346,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'1M'!$C$5:$C$32</c:f>
+              <c:f>'1M'!$C$5:$C$33</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>45289</c:v>
                 </c:pt>
@@ -1427,16 +1433,19 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45330</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1M'!$G$5:$G$32</c:f>
+              <c:f>'1M'!$G$5:$G$33</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>152.62</c:v>
                 </c:pt>
@@ -1520,6 +1529,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>4194.74</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4191</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5073,8 +5085,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}" name="Table13" displayName="Table13" ref="C4:H32" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="C4:H32" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}" name="Table13" displayName="Table13" ref="C4:H33" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="C4:H33" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{F8E318FB-3A88-409A-BC49-859E7AEA63D2}" name="Date" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{86FD5971-5C1C-45C8-8277-4D0CBFF21F1F}" name="Daily Return" dataDxfId="9"/>
@@ -5405,10 +5417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF9745B-B45F-435E-ACD3-428BC7435D9E}">
-  <dimension ref="C2:K36"/>
+  <dimension ref="C2:K37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
@@ -5455,7 +5467,7 @@
       </c>
       <c r="J4" s="29">
         <f>(1+AVERAGE(D:D))^250-1</f>
-        <v>0.89032903718297884</v>
+        <v>0.84791060560010068</v>
       </c>
       <c r="K4" s="28" t="s">
         <v>15</v>
@@ -5755,7 +5767,7 @@
         <v>2921.65</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" ref="H17:H32" si="4">H16+1</f>
+        <f t="shared" ref="H17:H33" si="4">H16+1</f>
         <v>12</v>
       </c>
     </row>
@@ -6106,27 +6118,50 @@
       </c>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="D33" s="3"/>
-    </row>
-    <row r="35" spans="3:8" ht="18" x14ac:dyDescent="0.4">
-      <c r="C35" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="7"/>
+      <c r="C33" s="22">
+        <v>45331</v>
+      </c>
+      <c r="D33" s="5">
+        <v>-8.8999999999999995E-5</v>
+      </c>
+      <c r="E33" s="5">
+        <f>(1+E32) * (1+D33)-1</f>
+        <v>7.3779683350152281E-2</v>
+      </c>
+      <c r="F33" s="23">
+        <v>-3.74</v>
+      </c>
+      <c r="G33" s="26">
+        <f t="shared" ref="G33" si="14">F33+G32</f>
+        <v>4191</v>
+      </c>
+      <c r="H33" s="3">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="D34" s="3"/>
     </row>
     <row r="36" spans="3:8" ht="18" x14ac:dyDescent="0.4">
       <c r="C36" s="7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="27"/>
       <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="3:8" ht="18" x14ac:dyDescent="0.4">
+      <c r="C37" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6833,7 +6868,7 @@
     </row>
     <row r="23" spans="3:10" ht="18" x14ac:dyDescent="0.4">
       <c r="C23" s="30" t="str">
-        <f>'1M'!C36</f>
+        <f>'1M'!C37</f>
         <v>Analyze 1000+ liquid securities.  Most have 1 million+ daily volume</v>
       </c>
       <c r="D23" s="30"/>

--- a/Session/Annual.xlsx
+++ b/Session/Annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdang\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A19594B-4A1C-4D9E-B2E0-25BC93242DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086887BD-6CE0-433C-8E38-8A63DDAD6F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{8CA18F37-2DAB-41C4-ADD2-73D1823D0F11}"/>
   </bookViews>
@@ -707,10 +707,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'1M'!$C$5:$C$33</c:f>
+              <c:f>'1M'!$C$5:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>45289</c:v>
                 </c:pt>
@@ -797,16 +797,19 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45331</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1M'!$E$5:$E$33</c:f>
+              <c:f>'1M'!$E$5:$E$34</c:f>
               <c:numCache>
                 <c:formatCode>0.0000%</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>2.7550000000000001E-3</c:v>
                 </c:pt>
@@ -893,6 +896,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>7.3779683350152281E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.4577501654881306E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1346,10 +1352,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'1M'!$C$5:$C$33</c:f>
+              <c:f>'1M'!$C$5:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>45289</c:v>
                 </c:pt>
@@ -1436,16 +1442,19 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45331</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1M'!$G$5:$G$33</c:f>
+              <c:f>'1M'!$G$5:$G$34</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>152.62</c:v>
                 </c:pt>
@@ -1532,6 +1541,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>4191</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4276.0200000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5085,8 +5097,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}" name="Table13" displayName="Table13" ref="C4:H33" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="C4:H33" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}" name="Table13" displayName="Table13" ref="C4:H34" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="C4:H34" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{F8E318FB-3A88-409A-BC49-859E7AEA63D2}" name="Date" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{86FD5971-5C1C-45C8-8277-4D0CBFF21F1F}" name="Daily Return" dataDxfId="9"/>
@@ -5417,10 +5429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF9745B-B45F-435E-ACD3-428BC7435D9E}">
-  <dimension ref="C2:K37"/>
+  <dimension ref="C2:K38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD38" sqref="AD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
@@ -5467,7 +5479,7 @@
       </c>
       <c r="J4" s="29">
         <f>(1+AVERAGE(D:D))^250-1</f>
-        <v>0.84791060560010068</v>
+        <v>0.82173303612906756</v>
       </c>
       <c r="K4" s="28" t="s">
         <v>15</v>
@@ -5767,7 +5779,7 @@
         <v>2921.65</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" ref="H17:H33" si="4">H16+1</f>
+        <f t="shared" ref="H17:H34" si="4">H16+1</f>
         <v>12</v>
       </c>
     </row>
@@ -6141,27 +6153,50 @@
       </c>
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="D34" s="3"/>
-    </row>
-    <row r="36" spans="3:8" ht="18" x14ac:dyDescent="0.4">
-      <c r="C36" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="7"/>
+      <c r="C34" s="22">
+        <v>45334</v>
+      </c>
+      <c r="D34" s="5">
+        <v>7.4299999999999995E-4</v>
+      </c>
+      <c r="E34" s="5">
+        <f>(1+E33) * (1+D34)-1</f>
+        <v>7.4577501654881306E-2</v>
+      </c>
+      <c r="F34" s="23">
+        <v>85.02</v>
+      </c>
+      <c r="G34" s="26">
+        <f t="shared" ref="G34" si="15">F34+G33</f>
+        <v>4276.0200000000004</v>
+      </c>
+      <c r="H34" s="3">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="D35" s="3"/>
     </row>
     <row r="37" spans="3:8" ht="18" x14ac:dyDescent="0.4">
       <c r="C37" s="7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="27"/>
       <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="3:8" ht="18" x14ac:dyDescent="0.4">
+      <c r="C38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6868,7 +6903,7 @@
     </row>
     <row r="23" spans="3:10" ht="18" x14ac:dyDescent="0.4">
       <c r="C23" s="30" t="str">
-        <f>'1M'!C37</f>
+        <f>'1M'!C38</f>
         <v>Analyze 1000+ liquid securities.  Most have 1 million+ daily volume</v>
       </c>
       <c r="D23" s="30"/>

--- a/Session/Annual.xlsx
+++ b/Session/Annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdang\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086887BD-6CE0-433C-8E38-8A63DDAD6F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078EFCF7-CB8E-45D6-BB4A-9123DCC5CF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{8CA18F37-2DAB-41C4-ADD2-73D1823D0F11}"/>
   </bookViews>
@@ -707,10 +707,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'1M'!$C$5:$C$34</c:f>
+              <c:f>'1M'!$C$5:$C$35</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>45289</c:v>
                 </c:pt>
@@ -800,16 +800,19 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>45334</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1M'!$E$5:$E$34</c:f>
+              <c:f>'1M'!$E$5:$E$35</c:f>
               <c:numCache>
                 <c:formatCode>0.0000%</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>2.7550000000000001E-3</c:v>
                 </c:pt>
@@ -899,6 +902,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>7.4577501654881306E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.50793293481542E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1352,10 +1358,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'1M'!$C$5:$C$34</c:f>
+              <c:f>'1M'!$C$5:$C$35</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>45289</c:v>
                 </c:pt>
@@ -1445,16 +1451,19 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>45334</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1M'!$G$5:$G$34</c:f>
+              <c:f>'1M'!$G$5:$G$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>152.62</c:v>
                 </c:pt>
@@ -1544,6 +1553,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>4276.0200000000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4309.9400000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5097,8 +5109,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}" name="Table13" displayName="Table13" ref="C4:H34" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="C4:H34" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}" name="Table13" displayName="Table13" ref="C4:H35" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="C4:H35" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{F8E318FB-3A88-409A-BC49-859E7AEA63D2}" name="Date" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{86FD5971-5C1C-45C8-8277-4D0CBFF21F1F}" name="Daily Return" dataDxfId="9"/>
@@ -5429,10 +5441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF9745B-B45F-435E-ACD3-428BC7435D9E}">
-  <dimension ref="C2:K38"/>
+  <dimension ref="C2:K39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AD38" sqref="AD38"/>
+      <selection activeCell="W36" sqref="W36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
@@ -5479,7 +5491,7 @@
       </c>
       <c r="J4" s="29">
         <f>(1+AVERAGE(D:D))^250-1</f>
-        <v>0.82173303612906756</v>
+        <v>0.79359155978058471</v>
       </c>
       <c r="K4" s="28" t="s">
         <v>15</v>
@@ -5779,7 +5791,7 @@
         <v>2921.65</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" ref="H17:H34" si="4">H16+1</f>
+        <f t="shared" ref="H17:H35" si="4">H16+1</f>
         <v>12</v>
       </c>
     </row>
@@ -6176,27 +6188,50 @@
       </c>
     </row>
     <row r="35" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="D35" s="3"/>
-    </row>
-    <row r="37" spans="3:8" ht="18" x14ac:dyDescent="0.4">
-      <c r="C37" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="7"/>
+      <c r="C35" s="22">
+        <v>45335</v>
+      </c>
+      <c r="D35" s="5">
+        <v>4.6700000000000002E-4</v>
+      </c>
+      <c r="E35" s="5">
+        <f>(1+E34) * (1+D35)-1</f>
+        <v>7.50793293481542E-2</v>
+      </c>
+      <c r="F35" s="23">
+        <v>33.92</v>
+      </c>
+      <c r="G35" s="26">
+        <f t="shared" ref="G35" si="16">F35+G34</f>
+        <v>4309.9400000000005</v>
+      </c>
+      <c r="H35" s="3">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="D36" s="3"/>
     </row>
     <row r="38" spans="3:8" ht="18" x14ac:dyDescent="0.4">
       <c r="C38" s="7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="27"/>
       <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="3:8" ht="18" x14ac:dyDescent="0.4">
+      <c r="C39" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6903,7 +6938,7 @@
     </row>
     <row r="23" spans="3:10" ht="18" x14ac:dyDescent="0.4">
       <c r="C23" s="30" t="str">
-        <f>'1M'!C38</f>
+        <f>'1M'!C39</f>
         <v>Analyze 1000+ liquid securities.  Most have 1 million+ daily volume</v>
       </c>
       <c r="D23" s="30"/>

--- a/Session/Annual.xlsx
+++ b/Session/Annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdang\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078EFCF7-CB8E-45D6-BB4A-9123DCC5CF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2FF1F0-11AF-4949-B212-EA9664871694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{8CA18F37-2DAB-41C4-ADD2-73D1823D0F11}"/>
   </bookViews>
@@ -707,10 +707,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'1M'!$C$5:$C$35</c:f>
+              <c:f>'1M'!$C$5:$C$36</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>45289</c:v>
                 </c:pt>
@@ -803,16 +803,19 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45335</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1M'!$E$5:$E$35</c:f>
+              <c:f>'1M'!$E$5:$E$36</c:f>
               <c:numCache>
                 <c:formatCode>0.0000%</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>2.7550000000000001E-3</c:v>
                 </c:pt>
@@ -904,7 +907,10 @@
                   <c:v>7.4577501654881306E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.50793293481542E-2</c:v>
+                  <c:v>7.4997661458028331E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.7294931460564209E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1358,10 +1364,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'1M'!$C$5:$C$35</c:f>
+              <c:f>'1M'!$C$5:$C$36</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>45289</c:v>
                 </c:pt>
@@ -1454,16 +1460,19 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45335</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1M'!$G$5:$G$35</c:f>
+              <c:f>'1M'!$G$5:$G$36</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>152.62</c:v>
                 </c:pt>
@@ -1555,7 +1564,10 @@
                   <c:v>4276.0200000000004</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4309.9400000000005</c:v>
+                  <c:v>4304.2400000000007</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4392.6900000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5109,8 +5121,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}" name="Table13" displayName="Table13" ref="C4:H35" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="C4:H35" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}" name="Table13" displayName="Table13" ref="C4:H36" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="C4:H36" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{F8E318FB-3A88-409A-BC49-859E7AEA63D2}" name="Date" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{86FD5971-5C1C-45C8-8277-4D0CBFF21F1F}" name="Daily Return" dataDxfId="9"/>
@@ -5441,10 +5453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF9745B-B45F-435E-ACD3-428BC7435D9E}">
-  <dimension ref="C2:K39"/>
+  <dimension ref="C2:K40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W36" sqref="W36"/>
+      <selection activeCell="Z38" sqref="Z38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
@@ -5491,7 +5503,7 @@
       </c>
       <c r="J4" s="29">
         <f>(1+AVERAGE(D:D))^250-1</f>
-        <v>0.79359155978058471</v>
+        <v>0.78970083662391133</v>
       </c>
       <c r="K4" s="28" t="s">
         <v>15</v>
@@ -5791,7 +5803,7 @@
         <v>2921.65</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" ref="H17:H35" si="4">H16+1</f>
+        <f t="shared" ref="H17:H36" si="4">H16+1</f>
         <v>12</v>
       </c>
     </row>
@@ -6192,18 +6204,18 @@
         <v>45335</v>
       </c>
       <c r="D35" s="5">
-        <v>4.6700000000000002E-4</v>
+        <v>3.9100000000000002E-4</v>
       </c>
       <c r="E35" s="5">
         <f>(1+E34) * (1+D35)-1</f>
-        <v>7.50793293481542E-2</v>
+        <v>7.4997661458028331E-2</v>
       </c>
       <c r="F35" s="23">
-        <v>33.92</v>
+        <v>28.22</v>
       </c>
       <c r="G35" s="26">
         <f t="shared" ref="G35" si="16">F35+G34</f>
-        <v>4309.9400000000005</v>
+        <v>4304.2400000000007</v>
       </c>
       <c r="H35" s="3">
         <f t="shared" si="4"/>
@@ -6211,27 +6223,50 @@
       </c>
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="D36" s="3"/>
-    </row>
-    <row r="38" spans="3:8" ht="18" x14ac:dyDescent="0.4">
-      <c r="C38" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="7"/>
+      <c r="C36" s="22">
+        <v>45336</v>
+      </c>
+      <c r="D36" s="5">
+        <v>2.137E-3</v>
+      </c>
+      <c r="E36" s="5">
+        <f>(1+E35) * (1+D36)-1</f>
+        <v>7.7294931460564209E-2</v>
+      </c>
+      <c r="F36" s="23">
+        <v>88.45</v>
+      </c>
+      <c r="G36" s="26">
+        <f t="shared" ref="G36" si="17">F36+G35</f>
+        <v>4392.6900000000005</v>
+      </c>
+      <c r="H36" s="3">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="D37" s="3"/>
     </row>
     <row r="39" spans="3:8" ht="18" x14ac:dyDescent="0.4">
       <c r="C39" s="7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="27"/>
       <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="3:8" ht="18" x14ac:dyDescent="0.4">
+      <c r="C40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6938,7 +6973,7 @@
     </row>
     <row r="23" spans="3:10" ht="18" x14ac:dyDescent="0.4">
       <c r="C23" s="30" t="str">
-        <f>'1M'!C39</f>
+        <f>'1M'!C40</f>
         <v>Analyze 1000+ liquid securities.  Most have 1 million+ daily volume</v>
       </c>
       <c r="D23" s="30"/>

--- a/Session/Annual.xlsx
+++ b/Session/Annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdang\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2FF1F0-11AF-4949-B212-EA9664871694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2CA760-CDA4-408D-AB2A-313F4EB8ECD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{8CA18F37-2DAB-41C4-ADD2-73D1823D0F11}"/>
   </bookViews>
@@ -910,7 +910,7 @@
                   <c:v>7.4997661458028331E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7.7294931460564209E-2</c:v>
+                  <c:v>7.7262681530720467E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1567,7 +1567,7 @@
                   <c:v>4304.2400000000007</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4392.6900000000005</c:v>
+                  <c:v>4382.6100000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5456,7 +5456,7 @@
   <dimension ref="C2:K40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z38" sqref="Z38"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
@@ -5503,7 +5503,7 @@
       </c>
       <c r="J4" s="29">
         <f>(1+AVERAGE(D:D))^250-1</f>
-        <v>0.78970083662391133</v>
+        <v>0.78928239966896796</v>
       </c>
       <c r="K4" s="28" t="s">
         <v>15</v>
@@ -6115,14 +6115,14 @@
         <v>-7.8999999999999996E-5</v>
       </c>
       <c r="E31" s="5">
-        <f>(1+E30) * (1+D31)-1</f>
+        <f t="shared" ref="E31:E36" si="12">(1+E30) * (1+D31)-1</f>
         <v>7.1979997612357627E-2</v>
       </c>
       <c r="F31" s="23">
         <v>-4.96</v>
       </c>
       <c r="G31" s="26">
-        <f t="shared" ref="G31" si="12">F31+G30</f>
+        <f t="shared" ref="G31" si="13">F31+G30</f>
         <v>4115.0199999999995</v>
       </c>
       <c r="H31" s="3">
@@ -6138,14 +6138,14 @@
         <v>1.768E-3</v>
       </c>
       <c r="E32" s="5">
-        <f>(1+E31) * (1+D32)-1</f>
+        <f t="shared" si="12"/>
         <v>7.3875258248136344E-2</v>
       </c>
       <c r="F32" s="23">
         <v>79.72</v>
       </c>
       <c r="G32" s="26">
-        <f t="shared" ref="G32" si="13">F32+G31</f>
+        <f t="shared" ref="G32" si="14">F32+G31</f>
         <v>4194.74</v>
       </c>
       <c r="H32" s="3">
@@ -6161,14 +6161,14 @@
         <v>-8.8999999999999995E-5</v>
       </c>
       <c r="E33" s="5">
-        <f>(1+E32) * (1+D33)-1</f>
+        <f t="shared" si="12"/>
         <v>7.3779683350152281E-2</v>
       </c>
       <c r="F33" s="23">
         <v>-3.74</v>
       </c>
       <c r="G33" s="26">
-        <f t="shared" ref="G33" si="14">F33+G32</f>
+        <f t="shared" ref="G33" si="15">F33+G32</f>
         <v>4191</v>
       </c>
       <c r="H33" s="3">
@@ -6184,14 +6184,14 @@
         <v>7.4299999999999995E-4</v>
       </c>
       <c r="E34" s="5">
-        <f>(1+E33) * (1+D34)-1</f>
+        <f t="shared" si="12"/>
         <v>7.4577501654881306E-2</v>
       </c>
       <c r="F34" s="23">
         <v>85.02</v>
       </c>
       <c r="G34" s="26">
-        <f t="shared" ref="G34" si="15">F34+G33</f>
+        <f t="shared" ref="G34" si="16">F34+G33</f>
         <v>4276.0200000000004</v>
       </c>
       <c r="H34" s="3">
@@ -6207,14 +6207,14 @@
         <v>3.9100000000000002E-4</v>
       </c>
       <c r="E35" s="5">
-        <f>(1+E34) * (1+D35)-1</f>
+        <f t="shared" si="12"/>
         <v>7.4997661458028331E-2</v>
       </c>
       <c r="F35" s="23">
         <v>28.22</v>
       </c>
       <c r="G35" s="26">
-        <f t="shared" ref="G35" si="16">F35+G34</f>
+        <f t="shared" ref="G35" si="17">F35+G34</f>
         <v>4304.2400000000007</v>
       </c>
       <c r="H35" s="3">
@@ -6227,18 +6227,18 @@
         <v>45336</v>
       </c>
       <c r="D36" s="5">
-        <v>2.137E-3</v>
+        <v>2.1069999999999999E-3</v>
       </c>
       <c r="E36" s="5">
-        <f>(1+E35) * (1+D36)-1</f>
-        <v>7.7294931460564209E-2</v>
+        <f t="shared" si="12"/>
+        <v>7.7262681530720467E-2</v>
       </c>
       <c r="F36" s="23">
-        <v>88.45</v>
+        <v>78.37</v>
       </c>
       <c r="G36" s="26">
-        <f t="shared" ref="G36" si="17">F36+G35</f>
-        <v>4392.6900000000005</v>
+        <f t="shared" ref="G36" si="18">F36+G35</f>
+        <v>4382.6100000000006</v>
       </c>
       <c r="H36" s="3">
         <f t="shared" si="4"/>

--- a/Session/Annual.xlsx
+++ b/Session/Annual.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdang\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2CA760-CDA4-408D-AB2A-313F4EB8ECD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3E4403-FADD-4F47-A3D2-BE4D0C26B05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{8CA18F37-2DAB-41C4-ADD2-73D1823D0F11}"/>
   </bookViews>
@@ -707,10 +707,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'1M'!$C$5:$C$36</c:f>
+              <c:f>'1M'!$C$5:$C$37</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>45289</c:v>
                 </c:pt>
@@ -806,16 +806,19 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45336</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1M'!$E$5:$E$36</c:f>
+              <c:f>'1M'!$E$5:$E$37</c:f>
               <c:numCache>
                 <c:formatCode>0.0000%</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>2.7550000000000001E-3</c:v>
                 </c:pt>
@@ -911,6 +914,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>7.7262681530720467E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.8015688145110396E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1364,10 +1370,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'1M'!$C$5:$C$36</c:f>
+              <c:f>'1M'!$C$5:$C$37</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>45289</c:v>
                 </c:pt>
@@ -1463,16 +1469,19 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45336</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1M'!$G$5:$G$36</c:f>
+              <c:f>'1M'!$G$5:$G$37</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>152.62</c:v>
                 </c:pt>
@@ -1568,6 +1577,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>4382.6100000000006</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4412.7400000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5121,8 +5133,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}" name="Table13" displayName="Table13" ref="C4:H36" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="C4:H36" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}" name="Table13" displayName="Table13" ref="C4:H37" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="C4:H37" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{F8E318FB-3A88-409A-BC49-859E7AEA63D2}" name="Date" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{86FD5971-5C1C-45C8-8277-4D0CBFF21F1F}" name="Daily Return" dataDxfId="9"/>
@@ -5453,10 +5465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF9745B-B45F-435E-ACD3-428BC7435D9E}">
-  <dimension ref="C2:K40"/>
+  <dimension ref="C2:K41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
@@ -5503,7 +5515,7 @@
       </c>
       <c r="J4" s="29">
         <f>(1+AVERAGE(D:D))^250-1</f>
-        <v>0.78928239966896796</v>
+        <v>0.76736058619259251</v>
       </c>
       <c r="K4" s="28" t="s">
         <v>15</v>
@@ -5803,7 +5815,7 @@
         <v>2921.65</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" ref="H17:H36" si="4">H16+1</f>
+        <f t="shared" ref="H17:H37" si="4">H16+1</f>
         <v>12</v>
       </c>
     </row>
@@ -6246,27 +6258,50 @@
       </c>
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="D37" s="3"/>
-    </row>
-    <row r="39" spans="3:8" ht="18" x14ac:dyDescent="0.4">
-      <c r="C39" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="7"/>
+      <c r="C37" s="22">
+        <v>45337</v>
+      </c>
+      <c r="D37" s="5">
+        <v>6.9899999999999997E-4</v>
+      </c>
+      <c r="E37" s="5">
+        <f>(1+E36) * (1+D37)-1</f>
+        <v>7.8015688145110396E-2</v>
+      </c>
+      <c r="F37" s="23">
+        <v>30.13</v>
+      </c>
+      <c r="G37" s="26">
+        <f t="shared" ref="G37" si="19">F37+G36</f>
+        <v>4412.7400000000007</v>
+      </c>
+      <c r="H37" s="3">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="D38" s="3"/>
     </row>
     <row r="40" spans="3:8" ht="18" x14ac:dyDescent="0.4">
       <c r="C40" s="7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="27"/>
       <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="3:8" ht="18" x14ac:dyDescent="0.4">
+      <c r="C41" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6973,7 +7008,7 @@
     </row>
     <row r="23" spans="3:10" ht="18" x14ac:dyDescent="0.4">
       <c r="C23" s="30" t="str">
-        <f>'1M'!C40</f>
+        <f>'1M'!C41</f>
         <v>Analyze 1000+ liquid securities.  Most have 1 million+ daily volume</v>
       </c>
       <c r="D23" s="30"/>

--- a/Session/Annual.xlsx
+++ b/Session/Annual.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdang\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3E4403-FADD-4F47-A3D2-BE4D0C26B05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400CA0F4-9F19-4BCC-85C8-E1764A3C3A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{8CA18F37-2DAB-41C4-ADD2-73D1823D0F11}"/>
   </bookViews>
@@ -295,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -339,12 +339,6 @@
     </xf>
     <xf numFmtId="165" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -360,8 +354,17 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -533,6 +536,12 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -707,10 +716,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'1M'!$C$5:$C$37</c:f>
+              <c:f>'1M'!$C$5:$C$38</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>45289</c:v>
                 </c:pt>
@@ -809,114 +818,120 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45337</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1M'!$E$5:$E$37</c:f>
+              <c:f>'1M'!$E$5:$E$38</c:f>
               <c:numCache>
                 <c:formatCode>0.0000%</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>2.7550000000000001E-3</c:v>
+                  <c:v>3.5920000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1398046550000789E-3</c:v>
+                  <c:v>5.4175338480000335E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.5258873217330944E-3</c:v>
+                  <c:v>1.1569683737616021E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.6116120221553238E-3</c:v>
+                  <c:v>2.102077929277657E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4846849007676299E-2</c:v>
+                  <c:v>2.661086805940438E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7882255933058255E-2</c:v>
+                  <c:v>3.0045908023931256E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.3085670025388083E-2</c:v>
+                  <c:v>3.4490556117054538E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.6340105541738934E-2</c:v>
+                  <c:v>3.6688848548803277E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.9801950717731396E-2</c:v>
+                  <c:v>4.2882027730033689E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.4232158709719185E-2</c:v>
+                  <c:v>4.6247408033518678E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.6810499481382486E-2</c:v>
+                  <c:v>4.8736430617230431E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.0410305535581781E-2</c:v>
+                  <c:v>5.1022676035975989E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.6102390317166897E-2</c:v>
+                  <c:v>5.3575610116067374E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.9696798130296704E-2</c:v>
+                  <c:v>4.7159334650460405E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.0876657331395014E-2</c:v>
+                  <c:v>4.70776562223576E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.2217575946149841E-2</c:v>
+                  <c:v>4.8546706174037668E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.2840488751109804E-2</c:v>
+                  <c:v>5.1502559338742149E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.3399547050636764E-2</c:v>
+                  <c:v>5.1176593545347204E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.5212447671111109E-2</c:v>
+                  <c:v>5.2990924345806434E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.7878969526375945E-2</c:v>
+                  <c:v>5.4234506627458989E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.0766979113182851E-2</c:v>
+                  <c:v>5.8796179337635923E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.2493907755179157E-2</c:v>
+                  <c:v>6.1256821658416616E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.4401084319599677E-2</c:v>
+                  <c:v>5.8736336706977754E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.4415985934780151E-2</c:v>
+                  <c:v>5.9105835688488373E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.0630046460667506E-2</c:v>
+                  <c:v>6.5031532839165518E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.2064690722924762E-2</c:v>
+                  <c:v>6.6326611183098017E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.1979997612357627E-2</c:v>
+                  <c:v>6.9220621605849075E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.3875258248136344E-2</c:v>
+                  <c:v>6.9276221078172551E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.3779683350152281E-2</c:v>
+                  <c:v>7.0928252839738137E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.4577501654881306E-2</c:v>
+                  <c:v>7.1645774769140802E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.4997661458028331E-2</c:v>
+                  <c:v>7.2251254631885198E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7.7262681530720467E-2</c:v>
+                  <c:v>7.4424707925023981E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7.8015688145110396E-2</c:v>
+                  <c:v>7.3681206027139901E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.6574776877383011E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1370,10 +1385,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'1M'!$C$5:$C$37</c:f>
+              <c:f>'1M'!$C$5:$C$38</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>45289</c:v>
                 </c:pt>
@@ -1472,114 +1487,120 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45337</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1M'!$G$5:$G$37</c:f>
+              <c:f>'1M'!$G$5:$G$38</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>152.62</c:v>
+                  <c:v>114.23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>290.21000000000004</c:v>
+                  <c:v>206.62</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>592.93000000000006</c:v>
+                  <c:v>418.33000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1073.75</c:v>
+                  <c:v>829.44</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1334</c:v>
+                  <c:v>855.17000000000007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1485.03</c:v>
+                  <c:v>966.25000000000011</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1814.76</c:v>
+                  <c:v>1087.93</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1860.25</c:v>
+                  <c:v>1108.1100000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2057.21</c:v>
+                  <c:v>1249.7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2388.02</c:v>
+                  <c:v>1376.52</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2428.15</c:v>
+                  <c:v>1403.4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2627.11</c:v>
+                  <c:v>1463.3400000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2921.65</c:v>
+                  <c:v>1486.9</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2863.92</c:v>
+                  <c:v>1419.91</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2934.9700000000003</c:v>
+                  <c:v>1417.96</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3047.09</c:v>
+                  <c:v>1461.47</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2992.32</c:v>
+                  <c:v>1582.98</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3041.3</c:v>
+                  <c:v>1572.22</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3090.71</c:v>
+                  <c:v>1608.1100000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3156.15</c:v>
+                  <c:v>1633.39</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3591.3900000000003</c:v>
+                  <c:v>1942.7400000000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3917.3700000000003</c:v>
+                  <c:v>2147.2700000000004</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3785.05</c:v>
+                  <c:v>2002.6300000000006</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3785.61</c:v>
+                  <c:v>2014.0500000000006</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4026.73</c:v>
+                  <c:v>2251.8500000000008</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4119.9799999999996</c:v>
+                  <c:v>2314.7300000000009</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4115.0199999999995</c:v>
+                  <c:v>2398.5800000000008</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4194.74</c:v>
+                  <c:v>2400.5700000000006</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4191</c:v>
+                  <c:v>2483.8700000000008</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4276.0200000000004</c:v>
+                  <c:v>2513.2400000000007</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4304.2400000000007</c:v>
+                  <c:v>2551.1800000000007</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4382.6100000000006</c:v>
+                  <c:v>2611.3300000000008</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4412.7400000000007</c:v>
+                  <c:v>2595.9500000000007</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2863.0200000000009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5133,8 +5154,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}" name="Table13" displayName="Table13" ref="C4:H37" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="C4:H37" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}" name="Table13" displayName="Table13" ref="C4:H38" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="C4:H38" xr:uid="{3980286A-5C4B-4460-B777-3D38EEED2B4F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{F8E318FB-3A88-409A-BC49-859E7AEA63D2}" name="Date" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{86FD5971-5C1C-45C8-8277-4D0CBFF21F1F}" name="Daily Return" dataDxfId="9"/>
@@ -5465,20 +5486,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF9745B-B45F-435E-ACD3-428BC7435D9E}">
-  <dimension ref="C2:K41"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="C2:K42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="Y39" sqref="Y39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.81640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.08984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.81640625" style="22" customWidth="1"/>
+    <col min="8" max="8" width="8.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:11" ht="23.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -5495,7 +5517,7 @@
       <c r="C3"/>
     </row>
     <row r="4" spans="3:11" ht="37" x14ac:dyDescent="0.45">
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="28" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -5507,59 +5529,59 @@
       <c r="F4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="23" t="s">
         <v>14</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="29">
+      <c r="J4" s="27">
         <f>(1+AVERAGE(D:D))^250-1</f>
-        <v>0.76736058619259251</v>
-      </c>
-      <c r="K4" s="28" t="s">
+        <v>0.72189195332446987</v>
+      </c>
+      <c r="K4" s="26" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C5" s="22">
+      <c r="C5" s="29">
         <v>45289</v>
       </c>
       <c r="D5" s="5">
-        <v>2.7550000000000001E-3</v>
+        <v>3.5920000000000001E-3</v>
       </c>
       <c r="E5" s="5">
         <f>D5</f>
-        <v>2.7550000000000001E-3</v>
-      </c>
-      <c r="F5" s="23">
-        <v>152.62</v>
-      </c>
-      <c r="G5" s="26">
+        <v>3.5920000000000001E-3</v>
+      </c>
+      <c r="F5" s="21">
+        <v>114.23</v>
+      </c>
+      <c r="G5" s="24">
         <f>F5</f>
-        <v>152.62</v>
+        <v>114.23</v>
       </c>
       <c r="H5" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C6" s="22">
+      <c r="C6" s="29">
         <v>45293</v>
       </c>
       <c r="D6" s="5">
-        <v>1.3810000000000001E-3</v>
+        <v>1.8190000000000001E-3</v>
       </c>
       <c r="E6" s="5">
         <f>(1+E5) * (1+D6)-1</f>
-        <v>4.1398046550000789E-3</v>
-      </c>
-      <c r="F6" s="23">
-        <v>137.59</v>
-      </c>
-      <c r="G6" s="26">
+        <v>5.4175338480000335E-3</v>
+      </c>
+      <c r="F6" s="21">
+        <v>92.39</v>
+      </c>
+      <c r="G6" s="24">
         <f>F6+G5</f>
-        <v>290.21000000000004</v>
+        <v>206.62</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" ref="H6:H7" si="0">H5+1</f>
@@ -5567,22 +5589,22 @@
       </c>
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C7" s="22">
+      <c r="C7" s="29">
         <v>45294</v>
       </c>
       <c r="D7" s="5">
-        <v>4.3680000000000004E-3</v>
+        <v>6.1190000000000003E-3</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ref="E7:E18" si="1">(1+E6) * (1+D7)-1</f>
-        <v>8.5258873217330944E-3</v>
-      </c>
-      <c r="F7" s="23">
-        <v>302.72000000000003</v>
-      </c>
-      <c r="G7" s="26">
+        <v>1.1569683737616021E-2</v>
+      </c>
+      <c r="F7" s="21">
+        <v>211.71</v>
+      </c>
+      <c r="G7" s="24">
         <f t="shared" ref="G7:G25" si="2">F7+G6</f>
-        <v>592.93000000000006</v>
+        <v>418.33000000000004</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="0"/>
@@ -5590,22 +5612,22 @@
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C8" s="22">
+      <c r="C8" s="29">
         <v>45295</v>
       </c>
       <c r="D8" s="5">
-        <v>8.5000000000000006E-5</v>
+        <v>9.3430000000000006E-3</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="1"/>
-        <v>8.6116120221553238E-3</v>
-      </c>
-      <c r="F8" s="23">
-        <v>480.82</v>
-      </c>
-      <c r="G8" s="26">
+        <v>2.102077929277657E-2</v>
+      </c>
+      <c r="F8" s="21">
+        <v>411.11</v>
+      </c>
+      <c r="G8" s="24">
         <f t="shared" si="2"/>
-        <v>1073.75</v>
+        <v>829.44</v>
       </c>
       <c r="H8" s="3">
         <f>H7+1</f>
@@ -5613,22 +5635,22 @@
       </c>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C9" s="22">
+      <c r="C9" s="29">
         <v>45296</v>
       </c>
       <c r="D9" s="5">
-        <v>6.182E-3</v>
+        <v>5.4749999999999998E-3</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" si="1"/>
-        <v>1.4846849007676299E-2</v>
-      </c>
-      <c r="F9" s="23">
-        <v>260.25</v>
-      </c>
-      <c r="G9" s="26">
+        <v>2.661086805940438E-2</v>
+      </c>
+      <c r="F9" s="21">
+        <v>25.73</v>
+      </c>
+      <c r="G9" s="24">
         <f t="shared" si="2"/>
-        <v>1334</v>
+        <v>855.17000000000007</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" ref="H9:H16" si="3">H8+1</f>
@@ -5636,22 +5658,22 @@
       </c>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C10" s="22">
+      <c r="C10" s="29">
         <v>45299</v>
       </c>
       <c r="D10" s="5">
-        <v>2.9910000000000002E-3</v>
+        <v>3.346E-3</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" si="1"/>
-        <v>1.7882255933058255E-2</v>
-      </c>
-      <c r="F10" s="23">
-        <v>151.03</v>
-      </c>
-      <c r="G10" s="26">
+        <v>3.0045908023931256E-2</v>
+      </c>
+      <c r="F10" s="21">
+        <v>111.08</v>
+      </c>
+      <c r="G10" s="24">
         <f t="shared" si="2"/>
-        <v>1485.03</v>
+        <v>966.25000000000011</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="3"/>
@@ -5659,22 +5681,22 @@
       </c>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C11" s="22">
+      <c r="C11" s="29">
         <v>45300</v>
       </c>
       <c r="D11" s="5">
-        <v>5.1120000000000002E-3</v>
+        <v>4.3150000000000003E-3</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" si="1"/>
-        <v>2.3085670025388083E-2</v>
-      </c>
-      <c r="F11" s="23">
-        <v>329.73</v>
-      </c>
-      <c r="G11" s="26">
+        <v>3.4490556117054538E-2</v>
+      </c>
+      <c r="F11" s="21">
+        <v>121.68</v>
+      </c>
+      <c r="G11" s="24">
         <f t="shared" si="2"/>
-        <v>1814.76</v>
+        <v>1087.93</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="3"/>
@@ -5682,22 +5704,22 @@
       </c>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C12" s="22">
+      <c r="C12" s="29">
         <v>45301</v>
       </c>
       <c r="D12" s="5">
-        <v>3.1809999999999998E-3</v>
+        <v>2.1250000000000002E-3</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" si="1"/>
-        <v>2.6340105541738934E-2</v>
-      </c>
-      <c r="F12" s="23">
-        <v>45.49</v>
-      </c>
-      <c r="G12" s="26">
+        <v>3.6688848548803277E-2</v>
+      </c>
+      <c r="F12" s="21">
+        <v>20.18</v>
+      </c>
+      <c r="G12" s="24">
         <f t="shared" si="2"/>
-        <v>1860.25</v>
+        <v>1108.1100000000001</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="3"/>
@@ -5705,22 +5727,22 @@
       </c>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C13" s="22">
+      <c r="C13" s="29">
         <v>45302</v>
       </c>
       <c r="D13" s="5">
-        <v>3.3730000000000001E-3</v>
+        <v>5.9740000000000001E-3</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" si="1"/>
-        <v>2.9801950717731396E-2</v>
-      </c>
-      <c r="F13" s="23">
-        <v>196.96</v>
-      </c>
-      <c r="G13" s="26">
+        <v>4.2882027730033689E-2</v>
+      </c>
+      <c r="F13" s="21">
+        <v>141.59</v>
+      </c>
+      <c r="G13" s="24">
         <f t="shared" si="2"/>
-        <v>2057.21</v>
+        <v>1249.7</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="3"/>
@@ -5728,22 +5750,22 @@
       </c>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C14" s="22">
+      <c r="C14" s="29">
         <v>45303</v>
       </c>
       <c r="D14" s="5">
-        <v>4.3020000000000003E-3</v>
+        <v>3.2269999999999998E-3</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" si="1"/>
-        <v>3.4232158709719185E-2</v>
-      </c>
-      <c r="F14" s="23">
-        <v>330.81</v>
-      </c>
-      <c r="G14" s="26">
+        <v>4.6247408033518678E-2</v>
+      </c>
+      <c r="F14" s="21">
+        <v>126.82</v>
+      </c>
+      <c r="G14" s="24">
         <f t="shared" si="2"/>
-        <v>2388.02</v>
+        <v>1376.52</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="3"/>
@@ -5751,22 +5773,22 @@
       </c>
     </row>
     <row r="15" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C15" s="22">
+      <c r="C15" s="29">
         <v>45307</v>
       </c>
       <c r="D15" s="5">
-        <v>2.493E-3</v>
+        <v>2.379E-3</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" si="1"/>
-        <v>3.6810499481382486E-2</v>
-      </c>
-      <c r="F15" s="23">
-        <v>40.130000000000003</v>
-      </c>
-      <c r="G15" s="26">
+        <v>4.8736430617230431E-2</v>
+      </c>
+      <c r="F15" s="21">
+        <v>26.88</v>
+      </c>
+      <c r="G15" s="24">
         <f t="shared" si="2"/>
-        <v>2428.15</v>
+        <v>1403.4</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="3"/>
@@ -5774,22 +5796,22 @@
       </c>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C16" s="22">
+      <c r="C16" s="29">
         <v>45308</v>
       </c>
       <c r="D16" s="5">
-        <v>3.4719999999999998E-3</v>
+        <v>2.1800000000000001E-3</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" si="1"/>
-        <v>4.0410305535581781E-2</v>
-      </c>
-      <c r="F16" s="23">
-        <v>198.96</v>
-      </c>
-      <c r="G16" s="26">
+        <v>5.1022676035975989E-2</v>
+      </c>
+      <c r="F16" s="21">
+        <v>59.94</v>
+      </c>
+      <c r="G16" s="24">
         <f t="shared" si="2"/>
-        <v>2627.11</v>
+        <v>1463.3400000000001</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="3"/>
@@ -5797,45 +5819,45 @@
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C17" s="22">
+      <c r="C17" s="29">
         <v>45309</v>
       </c>
       <c r="D17" s="5">
-        <v>5.4710000000000002E-3</v>
+        <v>2.4290000000000002E-3</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" si="1"/>
-        <v>4.6102390317166897E-2</v>
-      </c>
-      <c r="F17" s="23">
-        <v>294.54000000000002</v>
-      </c>
-      <c r="G17" s="26">
+        <v>5.3575610116067374E-2</v>
+      </c>
+      <c r="F17" s="21">
+        <v>23.56</v>
+      </c>
+      <c r="G17" s="24">
         <f t="shared" si="2"/>
-        <v>2921.65</v>
+        <v>1486.9</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" ref="H17:H37" si="4">H16+1</f>
+        <f t="shared" ref="H17:H38" si="4">H16+1</f>
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C18" s="22">
+      <c r="C18" s="29">
         <v>45310</v>
       </c>
       <c r="D18" s="5">
-        <v>3.4359999999999998E-3</v>
+        <v>-6.0899999999999999E-3</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" si="1"/>
-        <v>4.9696798130296704E-2</v>
-      </c>
-      <c r="F18" s="23">
-        <v>-57.73</v>
-      </c>
-      <c r="G18" s="26">
+        <v>4.7159334650460405E-2</v>
+      </c>
+      <c r="F18" s="21">
+        <v>-66.989999999999995</v>
+      </c>
+      <c r="G18" s="24">
         <f t="shared" si="2"/>
-        <v>2863.92</v>
+        <v>1419.91</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="4"/>
@@ -5843,22 +5865,22 @@
       </c>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C19" s="22">
+      <c r="C19" s="29">
         <v>45313</v>
       </c>
       <c r="D19" s="5">
-        <v>1.124E-3</v>
+        <v>-7.7999999999999999E-5</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ref="E19:E24" si="5">(1+E18) * (1+D19)-1</f>
-        <v>5.0876657331395014E-2</v>
-      </c>
-      <c r="F19" s="23">
-        <v>71.05</v>
-      </c>
-      <c r="G19" s="26">
+        <v>4.70776562223576E-2</v>
+      </c>
+      <c r="F19" s="21">
+        <v>-1.95</v>
+      </c>
+      <c r="G19" s="24">
         <f t="shared" si="2"/>
-        <v>2934.9700000000003</v>
+        <v>1417.96</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="4"/>
@@ -5866,22 +5888,22 @@
       </c>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C20" s="22">
+      <c r="C20" s="29">
         <v>45314</v>
       </c>
       <c r="D20" s="5">
-        <v>1.276E-3</v>
+        <v>1.403E-3</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" si="5"/>
-        <v>5.2217575946149841E-2</v>
-      </c>
-      <c r="F20" s="23">
-        <v>112.12</v>
-      </c>
-      <c r="G20" s="26">
+        <v>4.8546706174037668E-2</v>
+      </c>
+      <c r="F20" s="21">
+        <v>43.51</v>
+      </c>
+      <c r="G20" s="24">
         <f t="shared" si="2"/>
-        <v>3047.09</v>
+        <v>1461.47</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="4"/>
@@ -5889,22 +5911,22 @@
       </c>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C21" s="22">
+      <c r="C21" s="29">
         <v>45315</v>
       </c>
       <c r="D21" s="5">
-        <v>5.9199999999999997E-4</v>
+        <v>2.8189999999999999E-3</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" si="5"/>
-        <v>5.2840488751109804E-2</v>
-      </c>
-      <c r="F21" s="23">
-        <v>-54.77</v>
-      </c>
-      <c r="G21" s="26">
+        <v>5.1502559338742149E-2</v>
+      </c>
+      <c r="F21" s="21">
+        <v>121.51</v>
+      </c>
+      <c r="G21" s="24">
         <f t="shared" si="2"/>
-        <v>2992.32</v>
+        <v>1582.98</v>
       </c>
       <c r="H21" s="3">
         <f t="shared" si="4"/>
@@ -5912,22 +5934,22 @@
       </c>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C22" s="22">
+      <c r="C22" s="29">
         <v>45316</v>
       </c>
       <c r="D22" s="5">
-        <v>5.31E-4</v>
+        <v>-3.1E-4</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" si="5"/>
-        <v>5.3399547050636764E-2</v>
-      </c>
-      <c r="F22" s="23">
-        <v>48.98</v>
-      </c>
-      <c r="G22" s="26">
+        <v>5.1176593545347204E-2</v>
+      </c>
+      <c r="F22" s="21">
+        <v>-10.76</v>
+      </c>
+      <c r="G22" s="24">
         <f t="shared" si="2"/>
-        <v>3041.3</v>
+        <v>1572.22</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="4"/>
@@ -5935,22 +5957,22 @@
       </c>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C23" s="22">
+      <c r="C23" s="29">
         <v>45317</v>
       </c>
       <c r="D23" s="5">
-        <v>1.7210000000000001E-3</v>
+        <v>1.7260000000000001E-3</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" si="5"/>
-        <v>5.5212447671111109E-2</v>
-      </c>
-      <c r="F23" s="23">
-        <v>49.41</v>
-      </c>
-      <c r="G23" s="26">
+        <v>5.2990924345806434E-2</v>
+      </c>
+      <c r="F23" s="21">
+        <v>35.89</v>
+      </c>
+      <c r="G23" s="24">
         <f t="shared" si="2"/>
-        <v>3090.71</v>
+        <v>1608.1100000000001</v>
       </c>
       <c r="H23" s="3">
         <f t="shared" si="4"/>
@@ -5959,22 +5981,22 @@
       <c r="I23" s="7"/>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C24" s="22">
+      <c r="C24" s="29">
         <v>45320</v>
       </c>
       <c r="D24" s="5">
-        <v>2.5270000000000002E-3</v>
+        <v>1.181E-3</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" si="5"/>
-        <v>5.7878969526375945E-2</v>
-      </c>
-      <c r="F24" s="23">
-        <v>65.44</v>
-      </c>
-      <c r="G24" s="26">
+        <v>5.4234506627458989E-2</v>
+      </c>
+      <c r="F24" s="21">
+        <v>25.28</v>
+      </c>
+      <c r="G24" s="24">
         <f t="shared" si="2"/>
-        <v>3156.15</v>
+        <v>1633.39</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" si="4"/>
@@ -5982,22 +6004,22 @@
       </c>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C25" s="22">
+      <c r="C25" s="29">
         <v>45321</v>
       </c>
       <c r="D25" s="5">
-        <v>2.7299999999999998E-3</v>
+        <v>4.3270000000000001E-3</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ref="E25:E30" si="6">(1+E24) * (1+D25)-1</f>
-        <v>6.0766979113182851E-2</v>
-      </c>
-      <c r="F25" s="23">
-        <v>435.24</v>
-      </c>
-      <c r="G25" s="26">
+        <v>5.8796179337635923E-2</v>
+      </c>
+      <c r="F25" s="21">
+        <v>309.35000000000002</v>
+      </c>
+      <c r="G25" s="24">
         <f t="shared" si="2"/>
-        <v>3591.3900000000003</v>
+        <v>1942.7400000000002</v>
       </c>
       <c r="H25" s="3">
         <f t="shared" si="4"/>
@@ -6005,22 +6027,22 @@
       </c>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C26" s="22">
+      <c r="C26" s="29">
         <v>45322</v>
       </c>
       <c r="D26" s="5">
-        <v>1.6280000000000001E-3</v>
+        <v>2.3240000000000001E-3</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" si="6"/>
-        <v>6.2493907755179157E-2</v>
-      </c>
-      <c r="F26" s="23">
-        <v>325.98</v>
-      </c>
-      <c r="G26" s="26">
+        <v>6.1256821658416616E-2</v>
+      </c>
+      <c r="F26" s="21">
+        <v>204.53</v>
+      </c>
+      <c r="G26" s="24">
         <f t="shared" ref="G26" si="7">F26+G25</f>
-        <v>3917.3700000000003</v>
+        <v>2147.2700000000004</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" si="4"/>
@@ -6028,22 +6050,22 @@
       </c>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C27" s="22">
+      <c r="C27" s="29">
         <v>45323</v>
       </c>
       <c r="D27" s="5">
-        <v>1.7949999999999999E-3</v>
+        <v>-2.3749999999999999E-3</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" si="6"/>
-        <v>6.4401084319599677E-2</v>
-      </c>
-      <c r="F27" s="23">
-        <v>-132.32</v>
-      </c>
-      <c r="G27" s="26">
+        <v>5.8736336706977754E-2</v>
+      </c>
+      <c r="F27" s="21">
+        <v>-144.63999999999999</v>
+      </c>
+      <c r="G27" s="24">
         <f t="shared" ref="G27" si="8">F27+G26</f>
-        <v>3785.05</v>
+        <v>2002.6300000000006</v>
       </c>
       <c r="H27" s="3">
         <f t="shared" si="4"/>
@@ -6051,22 +6073,22 @@
       </c>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C28" s="22">
+      <c r="C28" s="29">
         <v>45324</v>
       </c>
       <c r="D28" s="5">
-        <v>1.4E-5</v>
+        <v>3.4900000000000003E-4</v>
       </c>
       <c r="E28" s="5">
         <f t="shared" si="6"/>
-        <v>6.4415985934780151E-2</v>
-      </c>
-      <c r="F28" s="23">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="G28" s="26">
+        <v>5.9105835688488373E-2</v>
+      </c>
+      <c r="F28" s="21">
+        <v>11.42</v>
+      </c>
+      <c r="G28" s="24">
         <f t="shared" ref="G28" si="9">F28+G27</f>
-        <v>3785.61</v>
+        <v>2014.0500000000006</v>
       </c>
       <c r="H28" s="3">
         <f t="shared" si="4"/>
@@ -6074,22 +6096,22 @@
       </c>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C29" s="22">
+      <c r="C29" s="29">
         <v>45327</v>
       </c>
       <c r="D29" s="5">
-        <v>5.8380000000000003E-3</v>
+        <v>5.5950000000000001E-3</v>
       </c>
       <c r="E29" s="5">
         <f t="shared" si="6"/>
-        <v>7.0630046460667506E-2</v>
-      </c>
-      <c r="F29" s="23">
-        <v>241.12</v>
-      </c>
-      <c r="G29" s="26">
+        <v>6.5031532839165518E-2</v>
+      </c>
+      <c r="F29" s="21">
+        <v>237.8</v>
+      </c>
+      <c r="G29" s="24">
         <f t="shared" ref="G29" si="10">F29+G28</f>
-        <v>4026.73</v>
+        <v>2251.8500000000008</v>
       </c>
       <c r="H29" s="3">
         <f t="shared" si="4"/>
@@ -6097,22 +6119,22 @@
       </c>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C30" s="22">
+      <c r="C30" s="29">
         <v>45328</v>
       </c>
       <c r="D30" s="5">
-        <v>1.34E-3</v>
+        <v>1.2160000000000001E-3</v>
       </c>
       <c r="E30" s="5">
         <f t="shared" si="6"/>
-        <v>7.2064690722924762E-2</v>
-      </c>
-      <c r="F30" s="23">
-        <v>93.25</v>
-      </c>
-      <c r="G30" s="26">
+        <v>6.6326611183098017E-2</v>
+      </c>
+      <c r="F30" s="21">
+        <v>62.88</v>
+      </c>
+      <c r="G30" s="24">
         <f t="shared" ref="G30" si="11">F30+G29</f>
-        <v>4119.9799999999996</v>
+        <v>2314.7300000000009</v>
       </c>
       <c r="H30" s="3">
         <f t="shared" si="4"/>
@@ -6120,22 +6142,22 @@
       </c>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C31" s="22">
+      <c r="C31" s="29">
         <v>45329</v>
       </c>
       <c r="D31" s="5">
-        <v>-7.8999999999999996E-5</v>
+        <v>2.7139999999999998E-3</v>
       </c>
       <c r="E31" s="5">
         <f t="shared" ref="E31:E36" si="12">(1+E30) * (1+D31)-1</f>
-        <v>7.1979997612357627E-2</v>
-      </c>
-      <c r="F31" s="23">
-        <v>-4.96</v>
-      </c>
-      <c r="G31" s="26">
+        <v>6.9220621605849075E-2</v>
+      </c>
+      <c r="F31" s="21">
+        <v>83.85</v>
+      </c>
+      <c r="G31" s="24">
         <f t="shared" ref="G31" si="13">F31+G30</f>
-        <v>4115.0199999999995</v>
+        <v>2398.5800000000008</v>
       </c>
       <c r="H31" s="3">
         <f t="shared" si="4"/>
@@ -6143,22 +6165,22 @@
       </c>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C32" s="22">
+      <c r="C32" s="29">
         <v>45330</v>
       </c>
       <c r="D32" s="5">
-        <v>1.768E-3</v>
+        <v>5.1999999999999997E-5</v>
       </c>
       <c r="E32" s="5">
         <f t="shared" si="12"/>
-        <v>7.3875258248136344E-2</v>
-      </c>
-      <c r="F32" s="23">
-        <v>79.72</v>
-      </c>
-      <c r="G32" s="26">
+        <v>6.9276221078172551E-2</v>
+      </c>
+      <c r="F32" s="21">
+        <v>1.99</v>
+      </c>
+      <c r="G32" s="24">
         <f t="shared" ref="G32" si="14">F32+G31</f>
-        <v>4194.74</v>
+        <v>2400.5700000000006</v>
       </c>
       <c r="H32" s="3">
         <f t="shared" si="4"/>
@@ -6166,22 +6188,22 @@
       </c>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C33" s="22">
+      <c r="C33" s="29">
         <v>45331</v>
       </c>
       <c r="D33" s="5">
-        <v>-8.8999999999999995E-5</v>
+        <v>1.5449999999999999E-3</v>
       </c>
       <c r="E33" s="5">
         <f t="shared" si="12"/>
-        <v>7.3779683350152281E-2</v>
-      </c>
-      <c r="F33" s="23">
-        <v>-3.74</v>
-      </c>
-      <c r="G33" s="26">
+        <v>7.0928252839738137E-2</v>
+      </c>
+      <c r="F33" s="21">
+        <v>83.3</v>
+      </c>
+      <c r="G33" s="24">
         <f t="shared" ref="G33" si="15">F33+G32</f>
-        <v>4191</v>
+        <v>2483.8700000000008</v>
       </c>
       <c r="H33" s="3">
         <f t="shared" si="4"/>
@@ -6189,22 +6211,22 @@
       </c>
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C34" s="22">
+      <c r="C34" s="29">
         <v>45334</v>
       </c>
       <c r="D34" s="5">
-        <v>7.4299999999999995E-4</v>
+        <v>6.7000000000000002E-4</v>
       </c>
       <c r="E34" s="5">
         <f t="shared" si="12"/>
-        <v>7.4577501654881306E-2</v>
-      </c>
-      <c r="F34" s="23">
-        <v>85.02</v>
-      </c>
-      <c r="G34" s="26">
+        <v>7.1645774769140802E-2</v>
+      </c>
+      <c r="F34" s="21">
+        <v>29.37</v>
+      </c>
+      <c r="G34" s="24">
         <f t="shared" ref="G34" si="16">F34+G33</f>
-        <v>4276.0200000000004</v>
+        <v>2513.2400000000007</v>
       </c>
       <c r="H34" s="3">
         <f t="shared" si="4"/>
@@ -6212,22 +6234,22 @@
       </c>
     </row>
     <row r="35" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C35" s="22">
+      <c r="C35" s="29">
         <v>45335</v>
       </c>
       <c r="D35" s="5">
-        <v>3.9100000000000002E-4</v>
+        <v>5.6499999999999996E-4</v>
       </c>
       <c r="E35" s="5">
         <f t="shared" si="12"/>
-        <v>7.4997661458028331E-2</v>
-      </c>
-      <c r="F35" s="23">
-        <v>28.22</v>
-      </c>
-      <c r="G35" s="26">
+        <v>7.2251254631885198E-2</v>
+      </c>
+      <c r="F35" s="21">
+        <v>37.94</v>
+      </c>
+      <c r="G35" s="24">
         <f t="shared" ref="G35" si="17">F35+G34</f>
-        <v>4304.2400000000007</v>
+        <v>2551.1800000000007</v>
       </c>
       <c r="H35" s="3">
         <f t="shared" si="4"/>
@@ -6235,22 +6257,22 @@
       </c>
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C36" s="22">
+      <c r="C36" s="29">
         <v>45336</v>
       </c>
       <c r="D36" s="5">
-        <v>2.1069999999999999E-3</v>
+        <v>2.0270000000000002E-3</v>
       </c>
       <c r="E36" s="5">
         <f t="shared" si="12"/>
-        <v>7.7262681530720467E-2</v>
-      </c>
-      <c r="F36" s="23">
-        <v>78.37</v>
-      </c>
-      <c r="G36" s="26">
+        <v>7.4424707925023981E-2</v>
+      </c>
+      <c r="F36" s="21">
+        <v>60.15</v>
+      </c>
+      <c r="G36" s="24">
         <f t="shared" ref="G36" si="18">F36+G35</f>
-        <v>4382.6100000000006</v>
+        <v>2611.3300000000008</v>
       </c>
       <c r="H36" s="3">
         <f t="shared" si="4"/>
@@ -6258,22 +6280,22 @@
       </c>
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C37" s="22">
+      <c r="C37" s="29">
         <v>45337</v>
       </c>
       <c r="D37" s="5">
-        <v>6.9899999999999997E-4</v>
+        <v>-6.9200000000000002E-4</v>
       </c>
       <c r="E37" s="5">
         <f>(1+E36) * (1+D37)-1</f>
-        <v>7.8015688145110396E-2</v>
-      </c>
-      <c r="F37" s="23">
-        <v>30.13</v>
-      </c>
-      <c r="G37" s="26">
+        <v>7.3681206027139901E-2</v>
+      </c>
+      <c r="F37" s="21">
+        <v>-15.38</v>
+      </c>
+      <c r="G37" s="24">
         <f t="shared" ref="G37" si="19">F37+G36</f>
-        <v>4412.7400000000007</v>
+        <v>2595.9500000000007</v>
       </c>
       <c r="H37" s="3">
         <f t="shared" si="4"/>
@@ -6281,27 +6303,50 @@
       </c>
     </row>
     <row r="38" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="D38" s="3"/>
-    </row>
-    <row r="40" spans="3:8" ht="18" x14ac:dyDescent="0.4">
-      <c r="C40" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="7"/>
+      <c r="C38" s="31">
+        <v>45338</v>
+      </c>
+      <c r="D38" s="5">
+        <v>2.6949999999999999E-3</v>
+      </c>
+      <c r="E38" s="5">
+        <f>(1+E37) * (1+D38)-1</f>
+        <v>7.6574776877383011E-2</v>
+      </c>
+      <c r="F38" s="21">
+        <v>267.07</v>
+      </c>
+      <c r="G38" s="24">
+        <f t="shared" ref="G38" si="20">F38+G37</f>
+        <v>2863.0200000000009</v>
+      </c>
+      <c r="H38" s="3">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="D39" s="3"/>
     </row>
     <row r="41" spans="3:8" ht="18" x14ac:dyDescent="0.4">
       <c r="C41" s="7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
-      <c r="G41" s="27"/>
+      <c r="G41" s="25"/>
       <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="3:8" ht="18" x14ac:dyDescent="0.4">
+      <c r="C42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6317,6 +6362,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B44989F-3FC9-4C07-81FD-8E789474E901}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="C2:H23"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -6622,6 +6668,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E3FDEE-F155-46D3-95EB-77BB3DD32FB7}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="C2:J23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -7008,7 +7055,7 @@
     </row>
     <row r="23" spans="3:10" ht="18" x14ac:dyDescent="0.4">
       <c r="C23" s="30" t="str">
-        <f>'1M'!C41</f>
+        <f>'1M'!C42</f>
         <v>Analyze 1000+ liquid securities.  Most have 1 million+ daily volume</v>
       </c>
       <c r="D23" s="30"/>

--- a/Session/Annual.xlsx
+++ b/Session/Annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdang\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400CA0F4-9F19-4BCC-85C8-E1764A3C3A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5082694-2C99-47F2-8308-76E31C1FEB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{8CA18F37-2DAB-41C4-ADD2-73D1823D0F11}"/>
   </bookViews>
@@ -295,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -362,9 +362,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5490,7 +5487,7 @@
   <dimension ref="C2:K42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="Y39" sqref="Y39"/>
+      <selection activeCell="C4" sqref="C4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
@@ -6303,7 +6300,7 @@
       </c>
     </row>
     <row r="38" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C38" s="31">
+      <c r="C38" s="29">
         <v>45338</v>
       </c>
       <c r="D38" s="5">
